--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="348">
   <si>
     <t>Appareil</t>
   </si>
@@ -1058,9 +1058,6 @@
   </si>
   <si>
     <t>see above</t>
-  </si>
-  <si>
-    <t>POSITIONS SHOULD ALL BE GIVEN AS ROW VECTORS [X Y Z]</t>
   </si>
 </sst>
 </file>
@@ -1658,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2077,15 +2074,13 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:36" ht="45">
+    <row r="12" spans="1:36">
       <c r="A12" s="41"/>
       <c r="B12" s="25"/>
       <c r="C12" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>348</v>
-      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -6712,7 +6707,7 @@
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="9" t="s">
         <v>340</v>
       </c>
       <c r="E116" s="9"/>
@@ -6756,7 +6751,7 @@
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="9" t="s">
         <v>329</v>
       </c>
       <c r="E117" s="9"/>
@@ -6800,7 +6795,7 @@
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="9" t="s">
         <v>330</v>
       </c>
       <c r="E118" s="9"/>
@@ -6844,7 +6839,7 @@
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="9" t="s">
         <v>333</v>
       </c>
       <c r="E119" s="9"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -1655,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView tabSelected="1" topLeftCell="C106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1664,7 +1664,7 @@
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
@@ -6661,7 +6661,7 @@
       <c r="AI114" s="1"/>
       <c r="AJ114" s="1"/>
     </row>
-    <row r="115" spans="1:36" ht="30">
+    <row r="115" spans="1:36">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -1342,8 +1342,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L142" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L144" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L144">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
@@ -1655,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5332,24 +5332,24 @@
     <row r="84" spans="1:36">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20" t="s">
+      <c r="C84" s="15"/>
+      <c r="D84" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20" t="s">
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="J84" s="20" t="s">
+      <c r="J84" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="K84" s="20" t="s">
+      <c r="K84" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="L84" s="14"/>
+      <c r="L84" s="10"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -5377,8 +5377,8 @@
     </row>
     <row r="85" spans="1:36">
       <c r="A85" s="7"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="8"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="15"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -5414,24 +5414,18 @@
       <c r="AJ85" s="1"/>
     </row>
     <row r="86" spans="1:36">
-      <c r="A86" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L86" s="6"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="10"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
@@ -5459,21 +5453,17 @@
     </row>
     <row r="87" spans="1:36">
       <c r="A87" s="7"/>
-      <c r="B87" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="L87" s="10"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="14"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
@@ -5500,22 +5490,24 @@
       <c r="AJ87" s="1"/>
     </row>
     <row r="88" spans="1:36">
-      <c r="A88" s="12"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="L88" s="14"/>
+      <c r="A88" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L88" s="6"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
@@ -5542,24 +5534,22 @@
       <c r="AJ88" s="1"/>
     </row>
     <row r="89" spans="1:36">
-      <c r="A89" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B89" s="30"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="L89" s="32"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L89" s="10"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
@@ -5586,24 +5576,22 @@
       <c r="AJ89" s="1"/>
     </row>
     <row r="90" spans="1:36">
-      <c r="A90" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L90" s="40"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="L90" s="14"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
@@ -5630,23 +5618,24 @@
       <c r="AJ90" s="1"/>
     </row>
     <row r="91" spans="1:36">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="I91" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="L91" s="10"/>
+      <c r="A91" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="30"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="J91" s="30"/>
+      <c r="K91" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="L91" s="32"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -5673,24 +5662,24 @@
       <c r="AJ91" s="1"/>
     </row>
     <row r="92" spans="1:36">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="L92" s="10"/>
+      <c r="A92" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L92" s="40"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
@@ -5718,11 +5707,22 @@
     </row>
     <row r="93" spans="1:36">
       <c r="A93" s="7"/>
-      <c r="B93" s="8"/>
-      <c r="C93" t="s">
-        <v>300</v>
-      </c>
-      <c r="L93" s="11"/>
+      <c r="B93" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="I93" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="L93" s="10"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
@@ -5750,23 +5750,23 @@
     </row>
     <row r="94" spans="1:36">
       <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="9" t="s">
-        <v>311</v>
-      </c>
+      <c r="B94" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="8"/>
       <c r="D94" s="8"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="L94" s="11"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="L94" s="10"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
@@ -5795,20 +5795,8 @@
     <row r="95" spans="1:36">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
-      <c r="C95" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J95" s="8"/>
-      <c r="K95" s="9" t="s">
-        <v>296</v>
+      <c r="C95" t="s">
+        <v>300</v>
       </c>
       <c r="L95" s="11"/>
       <c r="M95" s="1"/>
@@ -5840,7 +5828,7 @@
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9" t="s">
-        <v>176</v>
+        <v>311</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="9"/>
@@ -5848,11 +5836,11 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L96" s="11"/>
       <c r="M96" s="1"/>
@@ -5884,7 +5872,7 @@
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="9"/>
@@ -5892,11 +5880,11 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="J97" s="9"/>
+        <v>174</v>
+      </c>
+      <c r="J97" s="8"/>
       <c r="K97" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L97" s="11"/>
       <c r="M97" s="1"/>
@@ -5927,14 +5915,20 @@
     <row r="98" spans="1:36">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
-      <c r="C98" t="s">
-        <v>304</v>
-      </c>
-      <c r="I98" t="s">
-        <v>306</v>
-      </c>
+      <c r="C98" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J98" s="9"/>
       <c r="K98" s="9" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L98" s="11"/>
       <c r="M98" s="1"/>
@@ -5964,20 +5958,21 @@
     </row>
     <row r="99" spans="1:36">
       <c r="A99" s="7"/>
-      <c r="C99" s="8" t="s">
-        <v>303</v>
+      <c r="B99" s="8"/>
+      <c r="C99" s="9" t="s">
+        <v>310</v>
       </c>
       <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8" t="s">
-        <v>302</v>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="L99" s="11"/>
       <c r="M99" s="1"/>
@@ -6006,24 +6001,18 @@
       <c r="AJ99" s="1"/>
     </row>
     <row r="100" spans="1:36">
-      <c r="A100" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="L100" s="6"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
+      <c r="C100" t="s">
+        <v>304</v>
+      </c>
+      <c r="I100" t="s">
+        <v>306</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="L100" s="11"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
@@ -6051,23 +6040,22 @@
     </row>
     <row r="101" spans="1:36">
       <c r="A101" s="7"/>
-      <c r="B101" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L101" s="6"/>
+      <c r="C101" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="L101" s="11"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
@@ -6094,24 +6082,24 @@
       <c r="AJ101" s="1"/>
     </row>
     <row r="102" spans="1:36">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L102" s="10"/>
+      <c r="A102" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L102" s="6"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
@@ -6139,23 +6127,23 @@
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="7"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J103" s="20"/>
-      <c r="K103" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L103" s="14"/>
+      <c r="B103" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L103" s="6"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
@@ -6183,23 +6171,23 @@
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="7"/>
-      <c r="B104" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="L104" s="6"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L104" s="10"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
@@ -6227,23 +6215,23 @@
     </row>
     <row r="105" spans="1:36">
       <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J105" s="8"/>
-      <c r="K105" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="L105" s="10"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L105" s="14"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
@@ -6271,23 +6259,23 @@
     </row>
     <row r="106" spans="1:36">
       <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L106" s="10"/>
+      <c r="B106" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L106" s="6"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
@@ -6316,20 +6304,20 @@
     <row r="107" spans="1:36">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="9" t="s">
-        <v>252</v>
-      </c>
+      <c r="C107" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J107" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="J107" s="8"/>
       <c r="K107" s="9" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="L107" s="10"/>
       <c r="M107" s="1"/>
@@ -6360,20 +6348,20 @@
     <row r="108" spans="1:36">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D108" s="9"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J108" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="J108" s="9"/>
       <c r="K108" s="9" t="s">
-        <v>315</v>
+        <v>155</v>
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="1"/>
@@ -6406,7 +6394,7 @@
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
       <c r="D109" s="9" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
@@ -6417,7 +6405,7 @@
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9" t="s">
-        <v>318</v>
+        <v>156</v>
       </c>
       <c r="L109" s="10"/>
       <c r="M109" s="1"/>
@@ -6448,26 +6436,22 @@
     <row r="110" spans="1:36">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="9" t="s">
-        <v>206</v>
-      </c>
+      <c r="C110" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J110" s="9" t="s">
-        <v>207</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="J110" s="8"/>
       <c r="K110" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="L110" s="10" t="s">
-        <v>321</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="L110" s="10"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -6498,16 +6482,18 @@
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
       <c r="D111" s="9" t="s">
-        <v>313</v>
+        <v>216</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
+      <c r="I111" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="J111" s="9"/>
       <c r="K111" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="1"/>
@@ -6540,18 +6526,24 @@
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
       <c r="D112" s="9" t="s">
-        <v>319</v>
+        <v>206</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
+      <c r="I112" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="K112" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="L112" s="10"/>
+        <v>316</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>321</v>
+      </c>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -6581,7 +6573,9 @@
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="9"/>
+      <c r="D113" s="9" t="s">
+        <v>313</v>
+      </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
@@ -6589,11 +6583,9 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="L113" s="10" t="s">
-        <v>326</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="L113" s="10"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
@@ -6623,7 +6615,9 @@
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="9"/>
+      <c r="D114" s="9" t="s">
+        <v>319</v>
+      </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -6631,11 +6625,9 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="L114" s="10" t="s">
-        <v>324</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="L114" s="10"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
@@ -6665,9 +6657,7 @@
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="9" t="s">
-        <v>342</v>
-      </c>
+      <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -6675,9 +6665,11 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="L115" s="10"/>
+        <v>325</v>
+      </c>
+      <c r="L115" s="10" t="s">
+        <v>326</v>
+      </c>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
@@ -6707,9 +6699,7 @@
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="9" t="s">
-        <v>340</v>
-      </c>
+      <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
@@ -6717,10 +6707,10 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
@@ -6752,7 +6742,7 @@
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
       <c r="D117" s="9" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
@@ -6761,11 +6751,9 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="L117" s="10" t="s">
-        <v>329</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="L117" s="10"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -6796,7 +6784,7 @@
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
       <c r="D118" s="9" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
@@ -6805,10 +6793,10 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
@@ -6840,7 +6828,7 @@
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
       <c r="D119" s="9" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
@@ -6849,10 +6837,10 @@
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L119" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
@@ -6883,7 +6871,9 @@
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
-      <c r="D120" s="9"/>
+      <c r="D120" s="9" t="s">
+        <v>330</v>
+      </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
@@ -6891,10 +6881,10 @@
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L120" s="10" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
@@ -6925,7 +6915,9 @@
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
-      <c r="D121" s="9"/>
+      <c r="D121" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
@@ -6933,10 +6925,10 @@
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L121" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
@@ -6975,10 +6967,10 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
@@ -7008,22 +7000,20 @@
     <row r="123" spans="1:36">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
-      <c r="C123" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
-      <c r="I123" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J123" s="8"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
       <c r="K123" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L123" s="10"/>
+        <v>336</v>
+      </c>
+      <c r="L123" s="10" t="s">
+        <v>335</v>
+      </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -7053,21 +7043,19 @@
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
-      <c r="D124" s="9" t="s">
-        <v>216</v>
-      </c>
+      <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
-      <c r="I124" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="L124" s="10"/>
+        <v>339</v>
+      </c>
+      <c r="L124" s="10" t="s">
+        <v>337</v>
+      </c>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -7097,19 +7085,19 @@
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D125" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="D125" s="8"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J125" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="J125" s="8"/>
       <c r="K125" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="1"/>
@@ -7139,23 +7127,23 @@
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="7"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="13"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="8"/>
       <c r="D126" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="20" t="s">
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J126" s="20"/>
-      <c r="K126" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="L126" s="14"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L126" s="10"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
@@ -7183,23 +7171,23 @@
     </row>
     <row r="127" spans="1:36">
       <c r="A127" s="7"/>
-      <c r="B127" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C127" s="4"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J127" s="4"/>
-      <c r="K127" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L127" s="10"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
@@ -7227,23 +7215,23 @@
     </row>
     <row r="128" spans="1:36">
       <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9" t="s">
+      <c r="B128" s="12"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="L128" s="10"/>
+      <c r="J128" s="20"/>
+      <c r="K128" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L128" s="14"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
@@ -7271,23 +7259,23 @@
     </row>
     <row r="129" spans="1:36">
       <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="L129" s="10"/>
+      <c r="B129" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J129" s="4"/>
+      <c r="K129" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L129" s="6"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
@@ -7316,8 +7304,8 @@
     <row r="130" spans="1:36">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="8" t="s">
-        <v>122</v>
+      <c r="C130" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
@@ -7325,11 +7313,11 @@
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="J130" s="9"/>
       <c r="K130" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L130" s="10"/>
       <c r="M130" s="1"/>
@@ -7361,7 +7349,7 @@
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -7369,11 +7357,11 @@
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J131" s="9"/>
       <c r="K131" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L131" s="10"/>
       <c r="M131" s="1"/>
@@ -7405,21 +7393,21 @@
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8" t="s">
-        <v>310</v>
+        <v>122</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
+      <c r="I132" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="J132" s="9"/>
       <c r="K132" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="L132" s="10" t="s">
-        <v>347</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="L132" s="10"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
@@ -7449,7 +7437,7 @@
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -7457,11 +7445,11 @@
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
       <c r="I133" s="9" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="J133" s="9"/>
       <c r="K133" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L133" s="10"/>
       <c r="M133" s="1"/>
@@ -7491,23 +7479,23 @@
     </row>
     <row r="134" spans="1:36">
       <c r="A134" s="7"/>
-      <c r="B134" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J134" s="5"/>
-      <c r="K134" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L134" s="6"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="L134" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -7537,7 +7525,7 @@
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -7545,11 +7533,11 @@
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J135" s="8"/>
-      <c r="K135" s="8" t="s">
-        <v>165</v>
+        <v>107</v>
+      </c>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="L135" s="10"/>
       <c r="M135" s="1"/>
@@ -7579,23 +7567,23 @@
     </row>
     <row r="136" spans="1:36">
       <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="L136" s="10"/>
+      <c r="B136" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J136" s="5"/>
+      <c r="K136" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L136" s="6"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
@@ -7622,24 +7610,24 @@
       <c r="AJ136" s="1"/>
     </row>
     <row r="137" spans="1:36">
-      <c r="A137" s="15"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J137" s="13"/>
-      <c r="K137" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="L137" s="28"/>
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L137" s="10"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
@@ -7666,24 +7654,24 @@
       <c r="AJ137" s="1"/>
     </row>
     <row r="138" spans="1:36">
-      <c r="A138" s="15"/>
-      <c r="B138" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L138" s="40"/>
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L138" s="10"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
@@ -7711,25 +7699,23 @@
     </row>
     <row r="139" spans="1:36">
       <c r="A139" s="15"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8" t="s">
+      <c r="B139" s="19"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L139" s="11"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L139" s="28"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
@@ -7757,23 +7743,23 @@
     </row>
     <row r="140" spans="1:36">
       <c r="A140" s="15"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L140" s="11"/>
+      <c r="B140" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L140" s="40"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
@@ -7802,20 +7788,22 @@
     <row r="141" spans="1:36">
       <c r="A141" s="15"/>
       <c r="B141" s="15"/>
-      <c r="C141" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D141" s="8"/>
+      <c r="C141" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
       <c r="I141" s="8" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="J141" s="8"/>
       <c r="K141" s="8" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="L141" s="11"/>
       <c r="M141" s="1"/>
@@ -7846,15 +7834,21 @@
     <row r="142" spans="1:36">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
-      <c r="C142" s="8"/>
+      <c r="C142" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
+      <c r="I142" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
+      <c r="K142" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="L142" s="11"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
@@ -7882,18 +7876,24 @@
       <c r="AJ142" s="1"/>
     </row>
     <row r="143" spans="1:36">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
+      <c r="I143" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="J143" s="8"/>
-      <c r="K143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="K143" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L143" s="11"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
@@ -7920,9 +7920,9 @@
       <c r="AJ143" s="1"/>
     </row>
     <row r="144" spans="1:36">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="9"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
@@ -7931,7 +7931,7 @@
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
-      <c r="L144" s="8"/>
+      <c r="L144" s="11"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
@@ -7957,7 +7957,19 @@
       <c r="AI144" s="1"/>
       <c r="AJ144" s="1"/>
     </row>
-    <row r="145" spans="13:36">
+    <row r="145" spans="1:36">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -7983,7 +7995,19 @@
       <c r="AI145" s="1"/>
       <c r="AJ145" s="1"/>
     </row>
-    <row r="146" spans="13:36">
+    <row r="146" spans="1:36">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
@@ -8009,7 +8033,7 @@
       <c r="AI146" s="1"/>
       <c r="AJ146" s="1"/>
     </row>
-    <row r="147" spans="13:36">
+    <row r="147" spans="1:36">
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -8035,7 +8059,7 @@
       <c r="AI147" s="1"/>
       <c r="AJ147" s="1"/>
     </row>
-    <row r="148" spans="13:36">
+    <row r="148" spans="1:36">
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
@@ -8061,7 +8085,7 @@
       <c r="AI148" s="1"/>
       <c r="AJ148" s="1"/>
     </row>
-    <row r="149" spans="13:36">
+    <row r="149" spans="1:36">
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="354">
   <si>
     <t>Appareil</t>
   </si>
@@ -1058,6 +1058,24 @@
   </si>
   <si>
     <t>see above</t>
+  </si>
+  <si>
+    <t>Data for topographical reconstructions</t>
+  </si>
+  <si>
+    <t>rend</t>
+  </si>
+  <si>
+    <t>NIRS.Dt.ana.rend</t>
+  </si>
+  <si>
+    <t>?????? (NIRS.Dt.ana.rend)</t>
+  </si>
+  <si>
+    <t>?????????????????</t>
+  </si>
+  <si>
+    <t>est ce qu'on garde ??</t>
   </si>
 </sst>
 </file>
@@ -1342,8 +1360,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L144" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L145" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L145">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
@@ -1655,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7081,9 +7099,11 @@
       <c r="AI124" s="1"/>
       <c r="AJ124" s="1"/>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:36" ht="30">
       <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
+      <c r="B125" s="7" t="s">
+        <v>351</v>
+      </c>
       <c r="C125" s="8" t="s">
         <v>112</v>
       </c>
@@ -7127,7 +7147,9 @@
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
+      <c r="B126" s="7" t="s">
+        <v>352</v>
+      </c>
       <c r="C126" s="8"/>
       <c r="D126" s="9" t="s">
         <v>216</v>
@@ -7169,9 +7191,11 @@
       <c r="AI126" s="1"/>
       <c r="AJ126" s="1"/>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:36" ht="30">
       <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
+      <c r="B127" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="C127" s="8" t="s">
         <v>113</v>
       </c>
@@ -7567,23 +7591,23 @@
     </row>
     <row r="136" spans="1:36">
       <c r="A136" s="7"/>
-      <c r="B136" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C136" s="4"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J136" s="5"/>
-      <c r="K136" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L136" s="6"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="L136" s="10"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
@@ -7611,23 +7635,23 @@
     </row>
     <row r="137" spans="1:36">
       <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J137" s="8"/>
-      <c r="K137" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="L137" s="10"/>
+      <c r="B137" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J137" s="5"/>
+      <c r="K137" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L137" s="6"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
@@ -7656,20 +7680,20 @@
     <row r="138" spans="1:36">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="C138" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J138" s="9"/>
-      <c r="K138" s="9" t="s">
-        <v>166</v>
+        <v>108</v>
+      </c>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="L138" s="10"/>
       <c r="M138" s="1"/>
@@ -7698,24 +7722,24 @@
       <c r="AJ138" s="1"/>
     </row>
     <row r="139" spans="1:36">
-      <c r="A139" s="15"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="13"/>
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="8"/>
       <c r="D139" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J139" s="13"/>
-      <c r="K139" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="L139" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L139" s="10"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
@@ -7743,23 +7767,23 @@
     </row>
     <row r="140" spans="1:36">
       <c r="A140" s="15"/>
-      <c r="B140" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L140" s="40"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J140" s="13"/>
+      <c r="K140" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L140" s="28"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
@@ -7787,25 +7811,23 @@
     </row>
     <row r="141" spans="1:36">
       <c r="A141" s="15"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L141" s="11"/>
+      <c r="B141" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L141" s="40"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
@@ -7834,20 +7856,22 @@
     <row r="142" spans="1:36">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
-      <c r="C142" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D142" s="8"/>
+      <c r="C142" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
       <c r="I142" s="8" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="J142" s="8"/>
       <c r="K142" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L142" s="11"/>
       <c r="M142" s="1"/>
@@ -7879,7 +7903,7 @@
       <c r="A143" s="15"/>
       <c r="B143" s="15"/>
       <c r="C143" s="8" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -7887,11 +7911,11 @@
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
       <c r="I143" s="8" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="J143" s="8"/>
       <c r="K143" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="L143" s="11"/>
       <c r="M143" s="1"/>
@@ -7922,15 +7946,21 @@
     <row r="144" spans="1:36">
       <c r="A144" s="15"/>
       <c r="B144" s="15"/>
-      <c r="C144" s="8"/>
+      <c r="C144" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
+      <c r="I144" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="J144" s="8"/>
-      <c r="K144" s="8"/>
+      <c r="K144" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="L144" s="11"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
@@ -7958,8 +7988,8 @@
       <c r="AJ144" s="1"/>
     </row>
     <row r="145" spans="1:36">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
@@ -7969,7 +7999,7 @@
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
-      <c r="L145" s="8"/>
+      <c r="L145" s="11"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -7998,7 +8028,7 @@
     <row r="146" spans="1:36">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
-      <c r="C146" s="9"/>
+      <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
@@ -8034,6 +8064,18 @@
       <c r="AJ146" s="1"/>
     </row>
     <row r="147" spans="1:36">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="359">
   <si>
     <t>Appareil</t>
   </si>
@@ -1076,6 +1076,21 @@
   </si>
   <si>
     <t>est ce qu'on garde ??</t>
+  </si>
+  <si>
+    <t>NIRS.Dt.fir.Sess(f).fR</t>
+  </si>
+  <si>
+    <t>cardiac regressor</t>
+  </si>
+  <si>
+    <t>%%%%% faux</t>
+  </si>
+  <si>
+    <t>%%%%% supprime vers Sess.fR</t>
+  </si>
+  <si>
+    <t>%% CB: peut tu expliquer les lettres stp que tu utilises ?</t>
   </si>
 </sst>
 </file>
@@ -1360,8 +1375,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L145" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L146" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L146">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
@@ -1673,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="H97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6845,9 +6860,7 @@
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
-      <c r="D119" s="9" t="s">
-        <v>329</v>
-      </c>
+      <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
@@ -6855,10 +6868,10 @@
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="L119" s="10" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
@@ -6890,7 +6903,7 @@
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
       <c r="D120" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
@@ -6899,10 +6912,10 @@
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L120" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
@@ -6934,7 +6947,7 @@
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
       <c r="D121" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
@@ -6943,10 +6956,10 @@
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L121" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
@@ -6977,7 +6990,9 @@
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
-      <c r="D122" s="9"/>
+      <c r="D122" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -6985,10 +7000,10 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
@@ -7027,10 +7042,10 @@
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L123" s="10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
@@ -7067,12 +7082,14 @@
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
+      <c r="J124" s="9" t="s">
+        <v>356</v>
+      </c>
       <c r="K124" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L124" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
@@ -7099,27 +7116,27 @@
       <c r="AI124" s="1"/>
       <c r="AJ124" s="1"/>
     </row>
-    <row r="125" spans="1:36" ht="30">
+    <row r="125" spans="1:36" ht="45">
       <c r="A125" s="7"/>
-      <c r="B125" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D125" s="8"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J125" s="8"/>
+        <v>358</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>357</v>
+      </c>
       <c r="K125" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L125" s="10"/>
+        <v>339</v>
+      </c>
+      <c r="L125" s="10" t="s">
+        <v>337</v>
+      </c>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -7145,25 +7162,25 @@
       <c r="AI125" s="1"/>
       <c r="AJ125" s="1"/>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:36" ht="30">
       <c r="A126" s="7"/>
       <c r="B126" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="9" t="s">
-        <v>216</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126" s="8"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
       <c r="I126" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J126" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="J126" s="8"/>
       <c r="K126" s="9" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="1"/>
@@ -7191,25 +7208,25 @@
       <c r="AI126" s="1"/>
       <c r="AJ126" s="1"/>
     </row>
-    <row r="127" spans="1:36" ht="30">
+    <row r="127" spans="1:36">
       <c r="A127" s="7"/>
       <c r="B127" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D127" s="9"/>
+        <v>352</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J127" s="9"/>
       <c r="K127" s="9" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="L127" s="10"/>
       <c r="M127" s="1"/>
@@ -7237,25 +7254,27 @@
       <c r="AI127" s="1"/>
       <c r="AJ127" s="1"/>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:36" ht="30">
       <c r="A128" s="7"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E128" s="20"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J128" s="20"/>
-      <c r="K128" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="L128" s="14"/>
+      <c r="B128" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L128" s="10"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
@@ -7283,23 +7302,23 @@
     </row>
     <row r="129" spans="1:36">
       <c r="A129" s="7"/>
-      <c r="B129" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C129" s="4"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J129" s="4"/>
-      <c r="K129" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L129" s="6"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J129" s="20"/>
+      <c r="K129" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L129" s="14"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
@@ -7327,23 +7346,23 @@
     </row>
     <row r="130" spans="1:36">
       <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="L130" s="10"/>
+      <c r="B130" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C130" s="4"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J130" s="4"/>
+      <c r="K130" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L130" s="6"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
@@ -7372,8 +7391,8 @@
     <row r="131" spans="1:36">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="8" t="s">
-        <v>123</v>
+      <c r="C131" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -7381,11 +7400,11 @@
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="J131" s="9"/>
       <c r="K131" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L131" s="10"/>
       <c r="M131" s="1"/>
@@ -7417,7 +7436,7 @@
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -7425,11 +7444,11 @@
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J132" s="9"/>
       <c r="K132" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L132" s="10"/>
       <c r="M132" s="1"/>
@@ -7461,7 +7480,7 @@
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -7469,11 +7488,11 @@
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
       <c r="I133" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J133" s="9"/>
       <c r="K133" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L133" s="10"/>
       <c r="M133" s="1"/>
@@ -7505,21 +7524,21 @@
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8" t="s">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
+      <c r="I134" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="J134" s="9"/>
       <c r="K134" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="L134" s="10" t="s">
-        <v>347</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="L134" s="10"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -7549,21 +7568,21 @@
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8" t="s">
-        <v>111</v>
+        <v>310</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
-      <c r="I135" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L135" s="10"/>
+        <v>298</v>
+      </c>
+      <c r="L135" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -7593,7 +7612,7 @@
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8" t="s">
-        <v>348</v>
+        <v>111</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -7601,11 +7620,11 @@
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9" t="s">
-        <v>349</v>
+        <v>107</v>
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="9" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="L136" s="10"/>
       <c r="M136" s="1"/>
@@ -7635,23 +7654,23 @@
     </row>
     <row r="137" spans="1:36">
       <c r="A137" s="7"/>
-      <c r="B137" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C137" s="4"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J137" s="5"/>
-      <c r="K137" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L137" s="6"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="L137" s="10"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
@@ -7679,23 +7698,23 @@
     </row>
     <row r="138" spans="1:36">
       <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J138" s="8"/>
-      <c r="K138" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="L138" s="10"/>
+      <c r="B138" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J138" s="5"/>
+      <c r="K138" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L138" s="6"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
@@ -7724,20 +7743,20 @@
     <row r="139" spans="1:36">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="C139" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
       <c r="I139" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J139" s="9"/>
-      <c r="K139" s="9" t="s">
-        <v>166</v>
+        <v>108</v>
+      </c>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="1"/>
@@ -7766,24 +7785,24 @@
       <c r="AJ139" s="1"/>
     </row>
     <row r="140" spans="1:36">
-      <c r="A140" s="15"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="13"/>
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="8"/>
       <c r="D140" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J140" s="13"/>
-      <c r="K140" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="L140" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L140" s="10"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
@@ -7811,23 +7830,23 @@
     </row>
     <row r="141" spans="1:36">
       <c r="A141" s="15"/>
-      <c r="B141" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L141" s="40"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J141" s="13"/>
+      <c r="K141" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L141" s="28"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
@@ -7855,25 +7874,23 @@
     </row>
     <row r="142" spans="1:36">
       <c r="A142" s="15"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L142" s="11"/>
+      <c r="B142" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L142" s="40"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
@@ -7902,20 +7919,22 @@
     <row r="143" spans="1:36">
       <c r="A143" s="15"/>
       <c r="B143" s="15"/>
-      <c r="C143" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D143" s="8"/>
+      <c r="C143" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
       <c r="I143" s="8" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="J143" s="8"/>
       <c r="K143" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L143" s="11"/>
       <c r="M143" s="1"/>
@@ -7947,7 +7966,7 @@
       <c r="A144" s="15"/>
       <c r="B144" s="15"/>
       <c r="C144" s="8" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -7955,11 +7974,11 @@
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
       <c r="I144" s="8" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="J144" s="8"/>
       <c r="K144" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="L144" s="11"/>
       <c r="M144" s="1"/>
@@ -7990,15 +8009,21 @@
     <row r="145" spans="1:36">
       <c r="A145" s="15"/>
       <c r="B145" s="15"/>
-      <c r="C145" s="8"/>
+      <c r="C145" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
+      <c r="I145" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="J145" s="8"/>
-      <c r="K145" s="8"/>
+      <c r="K145" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="L145" s="11"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
@@ -8026,8 +8051,8 @@
       <c r="AJ145" s="1"/>
     </row>
     <row r="146" spans="1:36">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
@@ -8037,7 +8062,7 @@
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
-      <c r="L146" s="8"/>
+      <c r="L146" s="11"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
@@ -8066,7 +8091,7 @@
     <row r="147" spans="1:36">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
-      <c r="C147" s="9"/>
+      <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
@@ -8102,6 +8127,18 @@
       <c r="AJ147" s="1"/>
     </row>
     <row r="148" spans="1:36">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="362">
   <si>
     <t>Appareil</t>
   </si>
@@ -1091,6 +1091,15 @@
   </si>
   <si>
     <t>%% CB: peut tu expliquer les lettres stp que tu utilises ?</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.temp.segR</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.temp.P_segR.n</t>
+  </si>
+  <si>
+    <t>P situated in ROI</t>
   </si>
 </sst>
 </file>
@@ -1375,8 +1384,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L146" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L150" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L150">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
@@ -1686,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ149"/>
+  <dimension ref="A1:AJ152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6073,6 +6082,7 @@
     </row>
     <row r="101" spans="1:36">
       <c r="A101" s="7"/>
+      <c r="B101" s="8"/>
       <c r="C101" s="8" t="s">
         <v>303</v>
       </c>
@@ -6115,24 +6125,22 @@
       <c r="AJ101" s="1"/>
     </row>
     <row r="102" spans="1:36">
-      <c r="A102" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="L102" s="6"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="11"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
@@ -6160,23 +6168,17 @@
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="7"/>
-      <c r="B103" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L103" s="6"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="11"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
@@ -6204,23 +6206,19 @@
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L104" s="10"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="L104" s="11"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
@@ -6248,23 +6246,18 @@
     </row>
     <row r="105" spans="1:36">
       <c r="A105" s="7"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J105" s="20"/>
-      <c r="K105" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L105" s="14"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="L105" s="11"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
@@ -6291,10 +6284,10 @@
       <c r="AJ105" s="1"/>
     </row>
     <row r="106" spans="1:36">
-      <c r="A106" s="7"/>
-      <c r="B106" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A106" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B106" s="5"/>
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -6302,11 +6295,11 @@
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="J106" s="5"/>
       <c r="K106" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L106" s="6"/>
       <c r="M106" s="1"/>
@@ -6336,23 +6329,23 @@
     </row>
     <row r="107" spans="1:36">
       <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J107" s="8"/>
-      <c r="K107" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="L107" s="10"/>
+      <c r="B107" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L107" s="6"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
@@ -6381,20 +6374,20 @@
     <row r="108" spans="1:36">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="C108" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="9" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="1"/>
@@ -6424,23 +6417,23 @@
     </row>
     <row r="109" spans="1:36">
       <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9" t="s">
+      <c r="B109" s="12"/>
+      <c r="C109" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L109" s="10"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L109" s="14"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -6468,23 +6461,23 @@
     </row>
     <row r="110" spans="1:36">
       <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J110" s="8"/>
-      <c r="K110" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="L110" s="10"/>
+      <c r="B110" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L110" s="6"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -6513,20 +6506,20 @@
     <row r="111" spans="1:36">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="9" t="s">
-        <v>216</v>
-      </c>
+      <c r="C111" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J111" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="J111" s="8"/>
       <c r="K111" s="9" t="s">
-        <v>318</v>
+        <v>200</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="1"/>
@@ -6559,24 +6552,20 @@
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
       <c r="D112" s="9" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J112" s="9" t="s">
-        <v>207</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="J112" s="9"/>
       <c r="K112" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="L112" s="10" t="s">
-        <v>321</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="L112" s="10"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -6607,16 +6596,18 @@
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
       <c r="D113" s="9" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
+      <c r="I113" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="J113" s="9"/>
       <c r="K113" s="9" t="s">
-        <v>317</v>
+        <v>156</v>
       </c>
       <c r="L113" s="10"/>
       <c r="M113" s="1"/>
@@ -6647,18 +6638,20 @@
     <row r="114" spans="1:36">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="9" t="s">
-        <v>319</v>
-      </c>
+      <c r="C114" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
+      <c r="I114" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J114" s="8"/>
       <c r="K114" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L114" s="10"/>
       <c r="M114" s="1"/>
@@ -6690,19 +6683,21 @@
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="9"/>
+      <c r="D115" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
+      <c r="I115" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="L115" s="10" t="s">
-        <v>326</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="L115" s="10"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
@@ -6732,18 +6727,24 @@
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="9"/>
+      <c r="D116" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
+      <c r="I116" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="K116" s="9" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
@@ -6775,7 +6776,7 @@
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
       <c r="D117" s="9" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
@@ -6784,7 +6785,7 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="L117" s="10"/>
       <c r="M117" s="1"/>
@@ -6817,7 +6818,7 @@
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
       <c r="D118" s="9" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
@@ -6826,11 +6827,9 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="L118" s="10" t="s">
-        <v>327</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="L118" s="10"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
@@ -6868,10 +6867,10 @@
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="L119" s="10" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
@@ -6902,9 +6901,7 @@
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
-      <c r="D120" s="9" t="s">
-        <v>329</v>
-      </c>
+      <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
@@ -6912,10 +6909,10 @@
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L120" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
@@ -6947,7 +6944,7 @@
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
       <c r="D121" s="9" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
@@ -6956,11 +6953,9 @@
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="L121" s="10" t="s">
-        <v>330</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="L121" s="10"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -6991,7 +6986,7 @@
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
       <c r="D122" s="9" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
@@ -7000,10 +6995,10 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
@@ -7042,10 +7037,10 @@
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="L123" s="10" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
@@ -7076,20 +7071,20 @@
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
-      <c r="D124" s="9"/>
+      <c r="D124" s="9" t="s">
+        <v>329</v>
+      </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="9" t="s">
-        <v>356</v>
-      </c>
+      <c r="J124" s="9"/>
       <c r="K124" s="9" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="L124" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
@@ -7116,26 +7111,24 @@
       <c r="AI124" s="1"/>
       <c r="AJ124" s="1"/>
     </row>
-    <row r="125" spans="1:36" ht="45">
+    <row r="125" spans="1:36">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
-      <c r="D125" s="9"/>
+      <c r="D125" s="9" t="s">
+        <v>330</v>
+      </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
-      <c r="I125" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="J125" s="9" t="s">
-        <v>357</v>
-      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
       <c r="K125" s="9" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
@@ -7162,27 +7155,25 @@
       <c r="AI125" s="1"/>
       <c r="AJ125" s="1"/>
     </row>
-    <row r="126" spans="1:36" ht="30">
+    <row r="126" spans="1:36">
       <c r="A126" s="7"/>
-      <c r="B126" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D126" s="8"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
-      <c r="I126" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J126" s="8"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
       <c r="K126" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L126" s="10"/>
+        <v>332</v>
+      </c>
+      <c r="L126" s="10" t="s">
+        <v>333</v>
+      </c>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
@@ -7210,25 +7201,21 @@
     </row>
     <row r="127" spans="1:36">
       <c r="A127" s="7"/>
-      <c r="B127" s="7" t="s">
-        <v>352</v>
-      </c>
+      <c r="B127" s="7"/>
       <c r="C127" s="8"/>
-      <c r="D127" s="9" t="s">
-        <v>216</v>
-      </c>
+      <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
-      <c r="I127" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="L127" s="10"/>
+        <v>334</v>
+      </c>
+      <c r="L127" s="10" t="s">
+        <v>338</v>
+      </c>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
@@ -7254,27 +7241,25 @@
       <c r="AI127" s="1"/>
       <c r="AJ127" s="1"/>
     </row>
-    <row r="128" spans="1:36" ht="30">
+    <row r="128" spans="1:36">
       <c r="A128" s="7"/>
-      <c r="B128" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="B128" s="7"/>
+      <c r="C128" s="8"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
-      <c r="I128" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9" t="s">
+        <v>356</v>
+      </c>
       <c r="K128" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="L128" s="10"/>
+        <v>336</v>
+      </c>
+      <c r="L128" s="10" t="s">
+        <v>335</v>
+      </c>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
@@ -7300,25 +7285,27 @@
       <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:36" ht="45">
       <c r="A129" s="7"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="20"/>
-      <c r="H129" s="20"/>
-      <c r="I129" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J129" s="20"/>
-      <c r="K129" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="L129" s="14"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="K129" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="L129" s="10" t="s">
+        <v>337</v>
+      </c>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
@@ -7344,25 +7331,27 @@
       <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:36" ht="30">
       <c r="A130" s="7"/>
-      <c r="B130" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J130" s="4"/>
-      <c r="K130" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L130" s="6"/>
+      <c r="B130" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J130" s="8"/>
+      <c r="K130" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="L130" s="10"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
@@ -7390,11 +7379,13 @@
     </row>
     <row r="131" spans="1:36">
       <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D131" s="9"/>
+      <c r="B131" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -7404,7 +7395,7 @@
       </c>
       <c r="J131" s="9"/>
       <c r="K131" s="9" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L131" s="10"/>
       <c r="M131" s="1"/>
@@ -7432,11 +7423,13 @@
       <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:36" ht="30">
       <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
+      <c r="B132" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="C132" s="8" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -7444,11 +7437,11 @@
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="J132" s="9"/>
       <c r="K132" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L132" s="10"/>
       <c r="M132" s="1"/>
@@ -7478,23 +7471,23 @@
     </row>
     <row r="133" spans="1:36">
       <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L133" s="10"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J133" s="20"/>
+      <c r="K133" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L133" s="14"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
@@ -7522,23 +7515,23 @@
     </row>
     <row r="134" spans="1:36">
       <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="L134" s="10"/>
+      <c r="B134" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J134" s="4"/>
+      <c r="K134" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L134" s="6"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -7567,22 +7560,22 @@
     <row r="135" spans="1:36">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="8" t="s">
-        <v>310</v>
+      <c r="C135" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
-      <c r="I135" s="9"/>
+      <c r="I135" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="J135" s="9"/>
       <c r="K135" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="L135" s="10" t="s">
-        <v>347</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="L135" s="10"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -7612,7 +7605,7 @@
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -7620,11 +7613,11 @@
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L136" s="10"/>
       <c r="M136" s="1"/>
@@ -7656,7 +7649,7 @@
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="8" t="s">
-        <v>348</v>
+        <v>122</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -7664,11 +7657,11 @@
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9" t="s">
-        <v>349</v>
+        <v>126</v>
       </c>
       <c r="J137" s="9"/>
       <c r="K137" s="9" t="s">
-        <v>350</v>
+        <v>162</v>
       </c>
       <c r="L137" s="10"/>
       <c r="M137" s="1"/>
@@ -7698,23 +7691,23 @@
     </row>
     <row r="138" spans="1:36">
       <c r="A138" s="7"/>
-      <c r="B138" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J138" s="5"/>
-      <c r="K138" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L138" s="6"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="L138" s="10"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
@@ -7744,21 +7737,21 @@
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8" t="s">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
-      <c r="I139" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="L139" s="10"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="L139" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
@@ -7787,20 +7780,20 @@
     <row r="140" spans="1:36">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="C140" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L140" s="10"/>
       <c r="M140" s="1"/>
@@ -7829,24 +7822,24 @@
       <c r="AJ140" s="1"/>
     </row>
     <row r="141" spans="1:36">
-      <c r="A141" s="15"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J141" s="13"/>
-      <c r="K141" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="L141" s="28"/>
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="L141" s="10"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
@@ -7873,24 +7866,24 @@
       <c r="AJ141" s="1"/>
     </row>
     <row r="142" spans="1:36">
-      <c r="A142" s="15"/>
-      <c r="B142" s="16" t="s">
-        <v>116</v>
+      <c r="A142" s="7"/>
+      <c r="B142" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J142" s="4"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J142" s="5"/>
       <c r="K142" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L142" s="40"/>
+        <v>202</v>
+      </c>
+      <c r="L142" s="6"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
@@ -7917,26 +7910,24 @@
       <c r="AJ142" s="1"/>
     </row>
     <row r="143" spans="1:36">
-      <c r="A143" s="15"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8" t="s">
-        <v>97</v>
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="J143" s="8"/>
       <c r="K143" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L143" s="11"/>
+        <v>165</v>
+      </c>
+      <c r="L143" s="10"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
@@ -7963,24 +7954,24 @@
       <c r="AJ143" s="1"/>
     </row>
     <row r="144" spans="1:36">
-      <c r="A144" s="15"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J144" s="8"/>
-      <c r="K144" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L144" s="11"/>
+      <c r="A144" s="7"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L144" s="10"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
@@ -8008,23 +7999,23 @@
     </row>
     <row r="145" spans="1:36">
       <c r="A145" s="15"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J145" s="8"/>
-      <c r="K145" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="L145" s="11"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J145" s="13"/>
+      <c r="K145" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L145" s="28"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -8052,17 +8043,23 @@
     </row>
     <row r="146" spans="1:36">
       <c r="A146" s="15"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="11"/>
+      <c r="B146" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L146" s="40"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
@@ -8089,18 +8086,26 @@
       <c r="AJ146" s="1"/>
     </row>
     <row r="147" spans="1:36">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
+      <c r="A147" s="15"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
+      <c r="I147" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
+      <c r="K147" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L147" s="11"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -8127,18 +8132,24 @@
       <c r="AJ147" s="1"/>
     </row>
     <row r="148" spans="1:36">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="9"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
+      <c r="I148" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="J148" s="8"/>
-      <c r="K148" s="8"/>
-      <c r="L148" s="8"/>
+      <c r="K148" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L148" s="11"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
@@ -8165,6 +8176,24 @@
       <c r="AJ148" s="1"/>
     </row>
     <row r="149" spans="1:36">
+      <c r="A149" s="15"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L149" s="11"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
@@ -8190,6 +8219,48 @@
       <c r="AI149" s="1"/>
       <c r="AJ149" s="1"/>
     </row>
+    <row r="150" spans="1:36">
+      <c r="A150" s="15"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="11"/>
+    </row>
+    <row r="151" spans="1:36">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+    </row>
+    <row r="152" spans="1:36">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="364">
   <si>
     <t>Appareil</t>
   </si>
@@ -1100,6 +1100,12 @@
   </si>
   <si>
     <t>P situated in ROI</t>
+  </si>
+  <si>
+    <t>!!!!!!!! A SUPPRIMER, NON ??</t>
+  </si>
+  <si>
+    <t>possiblités de confusion avec les vraies longueurs d'ondes utilisées dans les channels</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1370,6 +1376,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1697,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1856,8 +1863,12 @@
       <c r="C6" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>363</v>
+      </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="367">
   <si>
     <t>Appareil</t>
   </si>
@@ -901,15 +901,6 @@
     <t>NIRS.Cs.mcs</t>
   </si>
   <si>
-    <t>NIRS.Cs.mcs.alg</t>
-  </si>
-  <si>
-    <t>NIRS.Cs.mcs.dir</t>
-  </si>
-  <si>
-    <t>NIRS.Cs.mcs.par</t>
-  </si>
-  <si>
     <t>NIRS.Cs.mcs.seg</t>
   </si>
   <si>
@@ -922,18 +913,12 @@
     <t>b8i</t>
   </si>
   <si>
-    <t>NIRS.Cs.mcs.b8i</t>
-  </si>
-  <si>
     <t>bin 8bit voxels isotropiques</t>
   </si>
   <si>
     <t>Resized segmented image</t>
   </si>
   <si>
-    <t>NIRS.Cs.mcs.segR</t>
-  </si>
-  <si>
     <t>segR</t>
   </si>
   <si>
@@ -1106,6 +1091,30 @@
   </si>
   <si>
     <t>possiblités de confusion avec les vraies longueurs d'ondes utilisées dans les channels</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs(n).C</t>
+  </si>
+  <si>
+    <t>Channels in sensitivity matrix</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs(n).b8i</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs(n).segR</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs(n).seg</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs(n).par</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs(n).dir</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs(n).alg</t>
   </si>
 </sst>
 </file>
@@ -1704,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1764,13 +1773,13 @@
     </row>
     <row r="2" spans="1:36" s="24" customFormat="1">
       <c r="A2" s="24" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1864,10 +1873,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
@@ -2725,13 +2734,13 @@
         <v>283</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="1"/>
@@ -5170,7 +5179,7 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="1"/>
@@ -5773,7 +5782,7 @@
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="1"/>
@@ -5849,7 +5858,7 @@
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L95" s="11"/>
       <c r="M95" s="1"/>
@@ -5881,7 +5890,7 @@
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="9"/>
@@ -5893,7 +5902,7 @@
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="L96" s="11"/>
       <c r="M96" s="1"/>
@@ -5937,7 +5946,7 @@
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="9" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="L97" s="11"/>
       <c r="M97" s="1"/>
@@ -5981,7 +5990,7 @@
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="L98" s="11"/>
       <c r="M98" s="1"/>
@@ -6013,7 +6022,7 @@
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="9"/>
@@ -6025,7 +6034,7 @@
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="L99" s="11"/>
       <c r="M99" s="1"/>
@@ -6057,13 +6066,13 @@
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I100" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="L100" s="11"/>
       <c r="M100" s="1"/>
@@ -6095,7 +6104,7 @@
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -6103,11 +6112,11 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="I101" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J101" s="8"/>
       <c r="K101" s="8" t="s">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="L101" s="11"/>
       <c r="M101" s="1"/>
@@ -6139,7 +6148,7 @@
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -6180,15 +6189,21 @@
     <row r="103" spans="1:36">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
+      <c r="C103" s="8" t="s">
+        <v>360</v>
+      </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
+      <c r="I103" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
+      <c r="K103" s="9" t="s">
+        <v>359</v>
+      </c>
       <c r="L103" s="11"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
@@ -6227,7 +6242,7 @@
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L104" s="11"/>
       <c r="M104" s="1"/>
@@ -6266,7 +6281,7 @@
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L105" s="11"/>
       <c r="M105" s="1"/>
@@ -6296,7 +6311,7 @@
     </row>
     <row r="106" spans="1:36">
       <c r="A106" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="4"/>
@@ -6650,7 +6665,7 @@
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -6662,7 +6677,7 @@
       </c>
       <c r="J114" s="8"/>
       <c r="K114" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L114" s="10"/>
       <c r="M114" s="1"/>
@@ -6706,7 +6721,7 @@
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L115" s="10"/>
       <c r="M115" s="1"/>
@@ -6752,10 +6767,10 @@
         <v>207</v>
       </c>
       <c r="K116" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="L116" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="L116" s="10" t="s">
-        <v>321</v>
       </c>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
@@ -6787,7 +6802,7 @@
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
       <c r="D117" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
@@ -6796,7 +6811,7 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L117" s="10"/>
       <c r="M117" s="1"/>
@@ -6829,7 +6844,7 @@
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
       <c r="D118" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
@@ -6838,7 +6853,7 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L118" s="10"/>
       <c r="M118" s="1"/>
@@ -6878,10 +6893,10 @@
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L119" s="10" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
@@ -6920,10 +6935,10 @@
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L120" s="10" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
@@ -6955,7 +6970,7 @@
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
       <c r="D121" s="9" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
@@ -6964,7 +6979,7 @@
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L121" s="10"/>
       <c r="M121" s="1"/>
@@ -6997,7 +7012,7 @@
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
       <c r="D122" s="9" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
@@ -7006,10 +7021,10 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
@@ -7048,10 +7063,10 @@
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L123" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
@@ -7083,7 +7098,7 @@
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
       <c r="D124" s="9" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
@@ -7092,10 +7107,10 @@
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L124" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
@@ -7127,7 +7142,7 @@
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
       <c r="D125" s="9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
@@ -7136,10 +7151,10 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
@@ -7171,7 +7186,7 @@
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
       <c r="D126" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
@@ -7180,10 +7195,10 @@
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
@@ -7222,10 +7237,10 @@
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L127" s="10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
@@ -7263,13 +7278,13 @@
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L128" s="10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
@@ -7306,16 +7321,16 @@
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L129" s="10" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
@@ -7345,7 +7360,7 @@
     <row r="130" spans="1:36" ht="30">
       <c r="A130" s="7"/>
       <c r="B130" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>112</v>
@@ -7391,7 +7406,7 @@
     <row r="131" spans="1:36">
       <c r="A131" s="7"/>
       <c r="B131" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="9" t="s">
@@ -7437,7 +7452,7 @@
     <row r="132" spans="1:36" ht="30">
       <c r="A132" s="7"/>
       <c r="B132" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>113</v>
@@ -7748,7 +7763,7 @@
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -7758,10 +7773,10 @@
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L139" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
@@ -7836,7 +7851,7 @@
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -7844,11 +7859,11 @@
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L141" s="10"/>
       <c r="M141" s="1"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="371">
   <si>
     <t>Appareil</t>
   </si>
@@ -1115,6 +1115,18 @@
   </si>
   <si>
     <t>NIRS.Cs.mcs(n).alg</t>
+  </si>
+  <si>
+    <t>Segmented image or last ROI</t>
+  </si>
+  <si>
+    <t>Last generated segmented image</t>
+  </si>
+  <si>
+    <t>NIRS.Dt.ana.T1seg</t>
+  </si>
+  <si>
+    <t>T1seg</t>
   </si>
 </sst>
 </file>
@@ -1400,8 +1412,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L150" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L151" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L151">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
@@ -1711,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ152"/>
+  <dimension ref="A1:AJ153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96"/>
+    <sheetView tabSelected="1" topLeftCell="B127" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7763,21 +7775,21 @@
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
+      <c r="I139" s="9" t="s">
+        <v>370</v>
+      </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="L139" s="10" t="s">
-        <v>342</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="L139" s="10"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
@@ -7807,21 +7819,21 @@
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8" t="s">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
-      <c r="I140" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L140" s="10"/>
+        <v>295</v>
+      </c>
+      <c r="L140" s="10" t="s">
+        <v>342</v>
+      </c>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
@@ -7851,7 +7863,7 @@
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8" t="s">
-        <v>343</v>
+        <v>111</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -7859,11 +7871,11 @@
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9" t="s">
-        <v>344</v>
+        <v>107</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
-        <v>345</v>
+        <v>164</v>
       </c>
       <c r="L141" s="10"/>
       <c r="M141" s="1"/>
@@ -7893,23 +7905,23 @@
     </row>
     <row r="142" spans="1:36">
       <c r="A142" s="7"/>
-      <c r="B142" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C142" s="4"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J142" s="5"/>
-      <c r="K142" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L142" s="6"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="L142" s="10"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
@@ -7937,23 +7949,23 @@
     </row>
     <row r="143" spans="1:36">
       <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J143" s="8"/>
-      <c r="K143" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="L143" s="10"/>
+      <c r="B143" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J143" s="5"/>
+      <c r="K143" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L143" s="6"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
@@ -7982,20 +7994,20 @@
     <row r="144" spans="1:36">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="C144" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J144" s="9"/>
-      <c r="K144" s="9" t="s">
-        <v>166</v>
+        <v>108</v>
+      </c>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="L144" s="10"/>
       <c r="M144" s="1"/>
@@ -8024,24 +8036,24 @@
       <c r="AJ144" s="1"/>
     </row>
     <row r="145" spans="1:36">
-      <c r="A145" s="15"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="13"/>
+      <c r="A145" s="7"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="8"/>
       <c r="D145" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J145" s="13"/>
-      <c r="K145" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="L145" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L145" s="10"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -8069,23 +8081,23 @@
     </row>
     <row r="146" spans="1:36">
       <c r="A146" s="15"/>
-      <c r="B146" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L146" s="40"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J146" s="13"/>
+      <c r="K146" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L146" s="28"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
@@ -8113,25 +8125,23 @@
     </row>
     <row r="147" spans="1:36">
       <c r="A147" s="15"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L147" s="11"/>
+      <c r="B147" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L147" s="40"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -8160,20 +8170,22 @@
     <row r="148" spans="1:36">
       <c r="A148" s="15"/>
       <c r="B148" s="15"/>
-      <c r="C148" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D148" s="8"/>
+      <c r="C148" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
       <c r="I148" s="8" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="J148" s="8"/>
       <c r="K148" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L148" s="11"/>
       <c r="M148" s="1"/>
@@ -8205,7 +8217,7 @@
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="8" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -8213,11 +8225,11 @@
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
       <c r="I149" s="8" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="J149" s="8"/>
       <c r="K149" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="L149" s="11"/>
       <c r="M149" s="1"/>
@@ -8248,20 +8260,50 @@
     <row r="150" spans="1:36">
       <c r="A150" s="15"/>
       <c r="B150" s="15"/>
-      <c r="C150" s="8"/>
+      <c r="C150" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
-      <c r="I150" s="8"/>
+      <c r="I150" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="J150" s="8"/>
-      <c r="K150" s="8"/>
+      <c r="K150" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="L150" s="11"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+      <c r="Y150" s="1"/>
+      <c r="Z150" s="1"/>
+      <c r="AA150" s="1"/>
+      <c r="AB150" s="1"/>
+      <c r="AC150" s="1"/>
+      <c r="AD150" s="1"/>
+      <c r="AE150" s="1"/>
+      <c r="AF150" s="1"/>
+      <c r="AG150" s="1"/>
+      <c r="AH150" s="1"/>
+      <c r="AI150" s="1"/>
+      <c r="AJ150" s="1"/>
     </row>
     <row r="151" spans="1:36">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="15"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
@@ -8271,12 +8313,12 @@
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
-      <c r="L151" s="8"/>
+      <c r="L151" s="11"/>
     </row>
     <row r="152" spans="1:36">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
-      <c r="C152" s="9"/>
+      <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
@@ -8287,6 +8329,20 @@
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
     </row>
+    <row r="153" spans="1:36">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="379">
   <si>
     <t>Appareil</t>
   </si>
@@ -1127,6 +1127,30 @@
   </si>
   <si>
     <t>T1seg</t>
+  </si>
+  <si>
+    <t>bpi</t>
+  </si>
+  <si>
+    <t>bpd</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>end indices for subsessions (??)</t>
+  </si>
+  <si>
+    <t>start indices for subsessions (??)</t>
+  </si>
+  <si>
+    <t>NIRS.Dt.fir.pp(n).si</t>
+  </si>
+  <si>
+    <t>NIRS.Dt.fir.pp(n).se</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L151" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L153" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L153">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
@@ -1723,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ153"/>
+  <dimension ref="A1:AJ155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B127" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I140" sqref="I140"/>
+    <sheetView tabSelected="1" topLeftCell="C97" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1742,7 +1766,7 @@
     <col min="9" max="9" width="19.85546875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="28.85546875" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -6902,7 +6926,9 @@
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
+      <c r="I119" s="9" t="s">
+        <v>371</v>
+      </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9" t="s">
         <v>320</v>
@@ -6944,7 +6970,9 @@
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
+      <c r="I120" s="9" t="s">
+        <v>372</v>
+      </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
         <v>318</v>
@@ -6981,19 +7009,21 @@
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
-      <c r="D121" s="9" t="s">
-        <v>337</v>
-      </c>
+      <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
+      <c r="I121" s="9" t="s">
+        <v>373</v>
+      </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="L121" s="10"/>
+        <v>377</v>
+      </c>
+      <c r="L121" s="10" t="s">
+        <v>376</v>
+      </c>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -7023,20 +7053,20 @@
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
-      <c r="D122" s="9" t="s">
-        <v>335</v>
-      </c>
+      <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
+      <c r="I122" s="9" t="s">
+        <v>374</v>
+      </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>322</v>
+        <v>375</v>
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
@@ -7063,11 +7093,13 @@
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:36" ht="15" customHeight="1">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
-      <c r="D123" s="9"/>
+      <c r="D123" s="9" t="s">
+        <v>337</v>
+      </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
@@ -7075,11 +7107,9 @@
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="L123" s="10" t="s">
-        <v>350</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="L123" s="10"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -7105,12 +7135,12 @@
       <c r="AI123" s="1"/>
       <c r="AJ123" s="1"/>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:36" ht="15" customHeight="1">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
       <c r="D124" s="9" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
@@ -7119,10 +7149,10 @@
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="L124" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
@@ -7153,9 +7183,7 @@
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
-      <c r="D125" s="9" t="s">
-        <v>325</v>
-      </c>
+      <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
@@ -7163,10 +7191,10 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
@@ -7198,7 +7226,7 @@
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
       <c r="D126" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
@@ -7207,10 +7235,10 @@
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
@@ -7241,7 +7269,9 @@
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
-      <c r="D127" s="9"/>
+      <c r="D127" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
@@ -7249,10 +7279,10 @@
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L127" s="10" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
@@ -7283,20 +7313,20 @@
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
-      <c r="D128" s="9"/>
+      <c r="D128" s="9" t="s">
+        <v>328</v>
+      </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="9" t="s">
-        <v>351</v>
-      </c>
+      <c r="J128" s="9"/>
       <c r="K128" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L128" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
@@ -7323,7 +7353,7 @@
       <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
     </row>
-    <row r="129" spans="1:36" ht="45">
+    <row r="129" spans="1:36">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
@@ -7332,17 +7362,13 @@
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
-      <c r="I129" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="J129" s="9" t="s">
-        <v>352</v>
-      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
       <c r="K129" s="9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L129" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
@@ -7369,27 +7395,25 @@
       <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
     </row>
-    <row r="130" spans="1:36" ht="30">
+    <row r="130" spans="1:36">
       <c r="A130" s="7"/>
-      <c r="B130" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D130" s="8"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
-      <c r="I130" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J130" s="8"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9" t="s">
+        <v>351</v>
+      </c>
       <c r="K130" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L130" s="10"/>
+        <v>331</v>
+      </c>
+      <c r="L130" s="10" t="s">
+        <v>330</v>
+      </c>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
@@ -7415,27 +7439,27 @@
       <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:36" ht="45">
       <c r="A131" s="7"/>
-      <c r="B131" s="7" t="s">
-        <v>347</v>
-      </c>
+      <c r="B131" s="7"/>
       <c r="C131" s="8"/>
-      <c r="D131" s="9" t="s">
-        <v>216</v>
-      </c>
+      <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J131" s="9"/>
+        <v>353</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>352</v>
+      </c>
       <c r="K131" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="L131" s="10"/>
+        <v>334</v>
+      </c>
+      <c r="L131" s="10" t="s">
+        <v>332</v>
+      </c>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
@@ -7464,22 +7488,22 @@
     <row r="132" spans="1:36" ht="30">
       <c r="A132" s="7"/>
       <c r="B132" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D132" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="D132" s="8"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J132" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="J132" s="8"/>
       <c r="K132" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L132" s="10"/>
       <c r="M132" s="1"/>
@@ -7509,23 +7533,25 @@
     </row>
     <row r="133" spans="1:36">
       <c r="A133" s="7"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="13"/>
+      <c r="B133" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C133" s="8"/>
       <c r="D133" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="20" t="s">
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J133" s="20"/>
-      <c r="K133" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="L133" s="14"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L133" s="10"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
@@ -7551,25 +7577,27 @@
       <c r="AI133" s="1"/>
       <c r="AJ133" s="1"/>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:36" ht="30">
       <c r="A134" s="7"/>
-      <c r="B134" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J134" s="4"/>
-      <c r="K134" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L134" s="6"/>
+      <c r="B134" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L134" s="10"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -7597,23 +7625,23 @@
     </row>
     <row r="135" spans="1:36">
       <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="9" t="s">
+      <c r="B135" s="12"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="L135" s="10"/>
+      <c r="J135" s="20"/>
+      <c r="K135" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L135" s="14"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -7641,23 +7669,23 @@
     </row>
     <row r="136" spans="1:36">
       <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="L136" s="10"/>
+      <c r="B136" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J136" s="4"/>
+      <c r="K136" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L136" s="6"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
@@ -7686,8 +7714,8 @@
     <row r="137" spans="1:36">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="8" t="s">
-        <v>122</v>
+      <c r="C137" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -7695,11 +7723,11 @@
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="J137" s="9"/>
       <c r="K137" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L137" s="10"/>
       <c r="M137" s="1"/>
@@ -7731,7 +7759,7 @@
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -7739,11 +7767,11 @@
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J138" s="9"/>
       <c r="K138" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L138" s="10"/>
       <c r="M138" s="1"/>
@@ -7775,7 +7803,7 @@
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8" t="s">
-        <v>368</v>
+        <v>122</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -7783,11 +7811,11 @@
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
       <c r="I139" s="9" t="s">
-        <v>370</v>
+        <v>126</v>
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9" t="s">
-        <v>369</v>
+        <v>162</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="1"/>
@@ -7819,21 +7847,21 @@
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8" t="s">
-        <v>367</v>
+        <v>124</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
+      <c r="I140" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="L140" s="10" t="s">
-        <v>342</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="L140" s="10"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
@@ -7863,7 +7891,7 @@
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -7871,11 +7899,11 @@
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9" t="s">
-        <v>107</v>
+        <v>370</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
-        <v>164</v>
+        <v>369</v>
       </c>
       <c r="L141" s="10"/>
       <c r="M141" s="1"/>
@@ -7907,21 +7935,21 @@
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
-      <c r="I142" s="9" t="s">
-        <v>344</v>
-      </c>
+      <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="L142" s="10"/>
+        <v>295</v>
+      </c>
+      <c r="L142" s="10" t="s">
+        <v>342</v>
+      </c>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
@@ -7949,23 +7977,23 @@
     </row>
     <row r="143" spans="1:36">
       <c r="A143" s="7"/>
-      <c r="B143" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J143" s="5"/>
-      <c r="K143" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L143" s="6"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L143" s="10"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
@@ -7995,7 +8023,7 @@
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -8003,11 +8031,11 @@
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J144" s="8"/>
-      <c r="K144" s="8" t="s">
-        <v>165</v>
+        <v>344</v>
+      </c>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="L144" s="10"/>
       <c r="M144" s="1"/>
@@ -8037,23 +8065,23 @@
     </row>
     <row r="145" spans="1:36">
       <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="L145" s="10"/>
+      <c r="B145" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J145" s="5"/>
+      <c r="K145" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L145" s="6"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -8080,24 +8108,24 @@
       <c r="AJ145" s="1"/>
     </row>
     <row r="146" spans="1:36">
-      <c r="A146" s="15"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="13"/>
-      <c r="I146" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J146" s="13"/>
-      <c r="K146" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="L146" s="28"/>
+      <c r="A146" s="7"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L146" s="10"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
@@ -8124,24 +8152,24 @@
       <c r="AJ146" s="1"/>
     </row>
     <row r="147" spans="1:36">
-      <c r="A147" s="15"/>
-      <c r="B147" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L147" s="40"/>
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L147" s="10"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -8169,25 +8197,23 @@
     </row>
     <row r="148" spans="1:36">
       <c r="A148" s="15"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8" t="s">
+      <c r="B148" s="19"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J148" s="8"/>
-      <c r="K148" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L148" s="11"/>
+      <c r="J148" s="13"/>
+      <c r="K148" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L148" s="28"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
@@ -8215,23 +8241,23 @@
     </row>
     <row r="149" spans="1:36">
       <c r="A149" s="15"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J149" s="8"/>
-      <c r="K149" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L149" s="11"/>
+      <c r="B149" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L149" s="40"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
@@ -8260,20 +8286,22 @@
     <row r="150" spans="1:36">
       <c r="A150" s="15"/>
       <c r="B150" s="15"/>
-      <c r="C150" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D150" s="8"/>
+      <c r="C150" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
       <c r="I150" s="8" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="J150" s="8"/>
       <c r="K150" s="8" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="L150" s="11"/>
       <c r="M150" s="1"/>
@@ -8304,35 +8332,95 @@
     <row r="151" spans="1:36">
       <c r="A151" s="15"/>
       <c r="B151" s="15"/>
-      <c r="C151" s="8"/>
+      <c r="C151" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
+      <c r="I151" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="J151" s="8"/>
-      <c r="K151" s="8"/>
+      <c r="K151" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="L151" s="11"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
+      <c r="Y151" s="1"/>
+      <c r="Z151" s="1"/>
+      <c r="AA151" s="1"/>
+      <c r="AB151" s="1"/>
+      <c r="AC151" s="1"/>
+      <c r="AD151" s="1"/>
+      <c r="AE151" s="1"/>
+      <c r="AF151" s="1"/>
+      <c r="AG151" s="1"/>
+      <c r="AH151" s="1"/>
+      <c r="AI151" s="1"/>
+      <c r="AJ151" s="1"/>
     </row>
     <row r="152" spans="1:36">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
+      <c r="A152" s="15"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
-      <c r="I152" s="8"/>
+      <c r="I152" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="J152" s="8"/>
-      <c r="K152" s="8"/>
-      <c r="L152" s="8"/>
+      <c r="K152" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L152" s="11"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
+      <c r="Y152" s="1"/>
+      <c r="Z152" s="1"/>
+      <c r="AA152" s="1"/>
+      <c r="AB152" s="1"/>
+      <c r="AC152" s="1"/>
+      <c r="AD152" s="1"/>
+      <c r="AE152" s="1"/>
+      <c r="AF152" s="1"/>
+      <c r="AG152" s="1"/>
+      <c r="AH152" s="1"/>
+      <c r="AI152" s="1"/>
+      <c r="AJ152" s="1"/>
     </row>
     <row r="153" spans="1:36">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="9"/>
+      <c r="A153" s="15"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
@@ -8341,7 +8429,35 @@
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
-      <c r="L153" s="8"/>
+      <c r="L153" s="11"/>
+    </row>
+    <row r="154" spans="1:36">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
+      <c r="L154" s="8"/>
+    </row>
+    <row r="155" spans="1:36">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -1075,9 +1075,6 @@
     <t>%%%%% supprime vers Sess.fR</t>
   </si>
   <si>
-    <t>%% CB: peut tu expliquer les lettres stp que tu utilises ?</t>
-  </si>
-  <si>
     <t>NIRS.Cs.temp.segR</t>
   </si>
   <si>
@@ -1151,6 +1148,9 @@
   </si>
   <si>
     <t>NIRS.Dt.fir.pp(n).se</t>
+  </si>
+  <si>
+    <t>%% CB: peux tu expliquer les lettres stp que tu utilises ?</t>
   </si>
 </sst>
 </file>
@@ -1749,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C97" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K123" sqref="K123"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1909,10 +1909,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>357</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>358</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
@@ -2282,7 +2282,7 @@
       <c r="K14" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="L14" s="27"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L96" s="11"/>
       <c r="M96" s="1"/>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L97" s="11"/>
       <c r="M97" s="1"/>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L98" s="11"/>
       <c r="M98" s="1"/>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L99" s="11"/>
       <c r="M99" s="1"/>
@@ -6108,7 +6108,7 @@
         <v>301</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L100" s="11"/>
       <c r="M100" s="1"/>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="J101" s="8"/>
       <c r="K101" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L101" s="11"/>
       <c r="M101" s="1"/>
@@ -6184,7 +6184,7 @@
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -6226,7 +6226,7 @@
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L103" s="11"/>
       <c r="M103" s="1"/>
@@ -6278,7 +6278,7 @@
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L104" s="11"/>
       <c r="M104" s="1"/>
@@ -6317,7 +6317,7 @@
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L105" s="11"/>
       <c r="M105" s="1"/>
@@ -6927,7 +6927,7 @@
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9" t="s">
@@ -6971,7 +6971,7 @@
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
@@ -7015,14 +7015,14 @@
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L121" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
@@ -7059,14 +7059,14 @@
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
@@ -7449,7 +7449,7 @@
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="J131" s="9" t="s">
         <v>352</v>
@@ -7891,7 +7891,7 @@
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -7899,11 +7899,11 @@
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L141" s="10"/>
       <c r="M141" s="1"/>
@@ -7935,7 +7935,7 @@
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="382">
   <si>
     <t>Appareil</t>
   </si>
@@ -1151,6 +1151,15 @@
   </si>
   <si>
     <t>%% CB: peux tu expliquer les lettres stp que tu utilises ?</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>NIRS.Cm.bold</t>
+  </si>
+  <si>
+    <t>BOLD mask (from contrastes: en pratique 1 BOLD par contraste !)</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1281,48 +1290,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1386,16 +1358,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1436,8 +1398,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L153" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L155" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L155">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
@@ -1747,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ155"/>
+  <dimension ref="A1:AJ157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="B77" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1819,7 +1781,7 @@
       </c>
     </row>
     <row r="3" spans="1:36">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="24"/>
@@ -1836,10 +1798,10 @@
       <c r="K3" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:36">
-      <c r="A4" s="35"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="23" t="s">
         <v>74</v>
       </c>
@@ -1856,11 +1818,11 @@
       <c r="K4" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="L4" s="34"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="26" t="s">
         <v>71</v>
       </c>
@@ -1911,7 +1873,7 @@
       <c r="D6" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="42" t="s">
         <v>357</v>
       </c>
       <c r="F6" s="27"/>
@@ -1996,25 +1958,25 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="25"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="L8" s="39"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2173,7 +2135,7 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="41"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="25"/>
       <c r="C12" s="21" t="s">
         <v>250</v>
@@ -2217,9 +2179,9 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36">
-      <c r="A13" s="42"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="35"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="9" t="s">
         <v>77</v>
       </c>
@@ -2265,7 +2227,7 @@
     <row r="14" spans="1:36">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="35"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="9" t="s">
         <v>76</v>
       </c>
@@ -2311,7 +2273,7 @@
     <row r="15" spans="1:36">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="35"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="8" t="s">
         <v>78</v>
       </c>
@@ -2355,7 +2317,7 @@
     <row r="16" spans="1:36">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="35"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
         <v>21</v>
@@ -2399,7 +2361,7 @@
     <row r="17" spans="1:36">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="35"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
@@ -2443,7 +2405,7 @@
     <row r="18" spans="1:36">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
-      <c r="C18" s="35"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -2489,7 +2451,7 @@
     <row r="19" spans="1:36">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
-      <c r="C19" s="35"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
@@ -2533,7 +2495,7 @@
     <row r="20" spans="1:36">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
-      <c r="C20" s="35"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -2577,7 +2539,7 @@
     <row r="21" spans="1:36">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
-      <c r="C21" s="35"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
         <v>14</v>
@@ -2621,7 +2583,7 @@
     <row r="22" spans="1:36">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
-      <c r="C22" s="35"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
@@ -2665,7 +2627,7 @@
     <row r="23" spans="1:36">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
-      <c r="C23" s="35"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -2713,7 +2675,7 @@
     <row r="24" spans="1:36">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
-      <c r="C24" s="35"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -2759,7 +2721,7 @@
     <row r="25" spans="1:36">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
-      <c r="C25" s="35"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -2807,7 +2769,7 @@
     <row r="26" spans="1:36">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
-      <c r="C26" s="35"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
@@ -2851,7 +2813,7 @@
     <row r="27" spans="1:36">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
-      <c r="C27" s="35"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -2945,7 +2907,7 @@
     <row r="29" spans="1:36">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
-      <c r="C29" s="35"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="8" t="s">
         <v>225</v>
       </c>
@@ -2989,7 +2951,7 @@
     <row r="30" spans="1:36">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
-      <c r="C30" s="35"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8" t="s">
         <v>18</v>
@@ -3033,7 +2995,7 @@
     <row r="31" spans="1:36">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
-      <c r="C31" s="35"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
@@ -3077,7 +3039,7 @@
     <row r="32" spans="1:36">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
-      <c r="C32" s="35"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -3125,7 +3087,7 @@
     <row r="33" spans="1:36">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
-      <c r="C33" s="35"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
@@ -3169,7 +3131,7 @@
     <row r="34" spans="1:36">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
-      <c r="C34" s="35"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="13"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -3540,7 +3502,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="44" t="s">
+      <c r="G42" s="40" t="s">
         <v>3</v>
       </c>
       <c r="H42" s="9" t="s">
@@ -3592,7 +3554,7 @@
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="44"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8" t="s">
         <v>49</v>
@@ -3638,7 +3600,7 @@
         <v>18</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="44"/>
+      <c r="G44" s="40"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
         <v>26</v>
@@ -3684,7 +3646,7 @@
       <c r="F45" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="44"/>
+      <c r="G45" s="40"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
@@ -3728,7 +3690,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="44" t="s">
+      <c r="G46" s="40" t="s">
         <v>52</v>
       </c>
       <c r="H46" s="9" t="s">
@@ -3911,12 +3873,12 @@
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="15"/>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9" t="s">
         <v>91</v>
@@ -3957,12 +3919,12 @@
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="15"/>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8" t="s">
         <v>27</v>
@@ -4001,12 +3963,12 @@
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="15"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44" t="s">
+      <c r="D52" s="40"/>
+      <c r="E52" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8" t="s">
         <v>25</v>
@@ -4045,12 +4007,12 @@
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="15"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44" t="s">
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="44"/>
+      <c r="G53" s="40"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
@@ -4089,10 +4051,10 @@
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="15"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44" t="s">
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40" t="s">
         <v>34</v>
       </c>
       <c r="H54" s="9"/>
@@ -4274,9 +4236,9 @@
       <c r="D58" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9" t="s">
         <v>258</v>
@@ -4634,9 +4596,9 @@
       <c r="D66" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9" t="s">
         <v>261</v>
@@ -4860,7 +4822,7 @@
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="45"/>
+      <c r="G71" s="41"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5" t="s">
         <v>30</v>
@@ -4904,7 +4866,7 @@
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="44"/>
+      <c r="G72" s="40"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9" t="s">
         <v>55</v>
@@ -4987,12 +4949,12 @@
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="15"/>
-      <c r="D74" s="44" t="s">
+      <c r="D74" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8" t="s">
         <v>27</v>
@@ -5031,12 +4993,12 @@
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="15"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44" t="s">
+      <c r="D75" s="40"/>
+      <c r="E75" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8" t="s">
         <v>25</v>
@@ -5075,12 +5037,12 @@
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="15"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44" t="s">
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="44"/>
+      <c r="G76" s="40"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="9"/>
@@ -5117,10 +5079,10 @@
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="15"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40" t="s">
         <v>34</v>
       </c>
       <c r="H77" s="9"/>
@@ -5674,22 +5636,22 @@
       <c r="AJ89" s="1"/>
     </row>
     <row r="90" spans="1:36">
-      <c r="A90" s="12"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13" t="s">
+      <c r="A90" s="7"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20" t="s">
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="L90" s="14"/>
+      <c r="L90" s="10"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
@@ -5716,24 +5678,24 @@
       <c r="AJ90" s="1"/>
     </row>
     <row r="91" spans="1:36">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30" t="s">
+      <c r="B91" s="5"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J91" s="30"/>
-      <c r="K91" s="30" t="s">
+      <c r="J91" s="5"/>
+      <c r="K91" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="L91" s="32"/>
+      <c r="L91" s="6"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -5760,24 +5722,16 @@
       <c r="AJ91" s="1"/>
     </row>
     <row r="92" spans="1:36">
-      <c r="A92" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L92" s="40"/>
+      <c r="C92" t="s">
+        <v>381</v>
+      </c>
+      <c r="I92" t="s">
+        <v>379</v>
+      </c>
+      <c r="K92" t="s">
+        <v>380</v>
+      </c>
+      <c r="L92" s="10"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
@@ -5804,23 +5758,18 @@
       <c r="AJ92" s="1"/>
     </row>
     <row r="93" spans="1:36">
-      <c r="A93" s="7"/>
-      <c r="B93" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="I93" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="L93" s="10"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="14"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
@@ -5847,24 +5796,24 @@
       <c r="AJ93" s="1"/>
     </row>
     <row r="94" spans="1:36">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8" t="s">
-        <v>289</v>
-      </c>
+      <c r="A94" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" s="9"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
+      <c r="D94" s="9"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="I94" s="8" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="L94" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="L94" s="36"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
@@ -5892,11 +5841,22 @@
     </row>
     <row r="95" spans="1:36">
       <c r="A95" s="7"/>
-      <c r="B95" s="8"/>
-      <c r="C95" t="s">
-        <v>297</v>
-      </c>
-      <c r="L95" s="11"/>
+      <c r="B95" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="I95" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="L95" s="10"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
@@ -5924,23 +5884,23 @@
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="7"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="9" t="s">
-        <v>306</v>
-      </c>
+      <c r="B96" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" s="8"/>
       <c r="D96" s="8"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="L96" s="11"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="L96" s="10"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
@@ -5969,20 +5929,8 @@
     <row r="97" spans="1:36">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
-      <c r="C97" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J97" s="8"/>
-      <c r="K97" s="9" t="s">
-        <v>364</v>
+      <c r="C97" t="s">
+        <v>297</v>
       </c>
       <c r="L97" s="11"/>
       <c r="M97" s="1"/>
@@ -6014,7 +5962,7 @@
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9" t="s">
-        <v>176</v>
+        <v>306</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="9"/>
@@ -6022,11 +5970,11 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L98" s="11"/>
       <c r="M98" s="1"/>
@@ -6058,7 +6006,7 @@
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="9"/>
@@ -6066,11 +6014,11 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="J99" s="9"/>
+        <v>174</v>
+      </c>
+      <c r="J99" s="8"/>
       <c r="K99" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L99" s="11"/>
       <c r="M99" s="1"/>
@@ -6101,14 +6049,20 @@
     <row r="100" spans="1:36">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
-      <c r="C100" t="s">
-        <v>300</v>
-      </c>
-      <c r="I100" t="s">
-        <v>301</v>
-      </c>
+      <c r="C100" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J100" s="9"/>
       <c r="K100" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L100" s="11"/>
       <c r="M100" s="1"/>
@@ -6139,20 +6093,20 @@
     <row r="101" spans="1:36">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
-      <c r="C101" s="8" t="s">
-        <v>299</v>
+      <c r="C101" s="9" t="s">
+        <v>305</v>
       </c>
       <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8" t="s">
-        <v>360</v>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9" t="s">
+        <v>362</v>
       </c>
       <c r="L101" s="11"/>
       <c r="M101" s="1"/>
@@ -6183,19 +6137,15 @@
     <row r="102" spans="1:36">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
-      <c r="C102" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
+      <c r="C102" t="s">
+        <v>300</v>
+      </c>
+      <c r="I102" t="s">
+        <v>301</v>
+      </c>
+      <c r="K102" s="9" t="s">
+        <v>361</v>
+      </c>
       <c r="L102" s="11"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
@@ -6226,7 +6176,7 @@
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -6234,11 +6184,11 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8" t="s">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c r="J103" s="8"/>
-      <c r="K103" s="9" t="s">
-        <v>358</v>
+      <c r="K103" s="8" t="s">
+        <v>360</v>
       </c>
       <c r="L103" s="11"/>
       <c r="M103" s="1"/>
@@ -6269,17 +6219,19 @@
     <row r="104" spans="1:36">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
+      <c r="C104" s="8" t="s">
+        <v>355</v>
+      </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
+      <c r="I104" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="J104" s="8"/>
-      <c r="K104" s="8" t="s">
-        <v>353</v>
-      </c>
+      <c r="K104" s="8"/>
       <c r="L104" s="11"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
@@ -6308,16 +6260,21 @@
     </row>
     <row r="105" spans="1:36">
       <c r="A105" s="7"/>
-      <c r="C105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
+      <c r="I105" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="J105" s="8"/>
-      <c r="K105" s="8" t="s">
-        <v>354</v>
+      <c r="K105" s="9" t="s">
+        <v>358</v>
       </c>
       <c r="L105" s="11"/>
       <c r="M105" s="1"/>
@@ -6346,24 +6303,20 @@
       <c r="AJ105" s="1"/>
     </row>
     <row r="106" spans="1:36">
-      <c r="A106" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="L106" s="6"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="L106" s="11"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
@@ -6391,23 +6344,18 @@
     </row>
     <row r="107" spans="1:36">
       <c r="A107" s="7"/>
-      <c r="B107" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L107" s="6"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="L107" s="11"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
@@ -6434,24 +6382,24 @@
       <c r="AJ107" s="1"/>
     </row>
     <row r="108" spans="1:36">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L108" s="10"/>
+      <c r="A108" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L108" s="6"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -6479,23 +6427,23 @@
     </row>
     <row r="109" spans="1:36">
       <c r="A109" s="7"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J109" s="20"/>
-      <c r="K109" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L109" s="14"/>
+      <c r="B109" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L109" s="6"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -6523,23 +6471,23 @@
     </row>
     <row r="110" spans="1:36">
       <c r="A110" s="7"/>
-      <c r="B110" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="L110" s="6"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L110" s="10"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -6567,23 +6515,23 @@
     </row>
     <row r="111" spans="1:36">
       <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J111" s="8"/>
-      <c r="K111" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="L111" s="10"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L111" s="14"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
@@ -6611,23 +6559,23 @@
     </row>
     <row r="112" spans="1:36">
       <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L112" s="10"/>
+      <c r="B112" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L112" s="6"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -6656,20 +6604,20 @@
     <row r="113" spans="1:36">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="9" t="s">
-        <v>252</v>
-      </c>
+      <c r="C113" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J113" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="J113" s="8"/>
       <c r="K113" s="9" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="L113" s="10"/>
       <c r="M113" s="1"/>
@@ -6700,20 +6648,20 @@
     <row r="114" spans="1:36">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
-      <c r="C114" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D114" s="9"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J114" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="J114" s="9"/>
       <c r="K114" s="9" t="s">
-        <v>310</v>
+        <v>155</v>
       </c>
       <c r="L114" s="10"/>
       <c r="M114" s="1"/>
@@ -6746,7 +6694,7 @@
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="9" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
@@ -6757,7 +6705,7 @@
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9" t="s">
-        <v>313</v>
+        <v>156</v>
       </c>
       <c r="L115" s="10"/>
       <c r="M115" s="1"/>
@@ -6788,26 +6736,22 @@
     <row r="116" spans="1:36" ht="15" customHeight="1">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="9" t="s">
-        <v>206</v>
-      </c>
+      <c r="C116" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>207</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="J116" s="8"/>
       <c r="K116" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="L116" s="10" t="s">
-        <v>316</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="L116" s="10"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
@@ -6838,16 +6782,18 @@
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
       <c r="D117" s="9" t="s">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
+      <c r="I117" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="J117" s="9"/>
       <c r="K117" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L117" s="10"/>
       <c r="M117" s="1"/>
@@ -6880,18 +6826,24 @@
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
       <c r="D118" s="9" t="s">
-        <v>314</v>
+        <v>206</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
+      <c r="I118" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="K118" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="L118" s="10"/>
+        <v>311</v>
+      </c>
+      <c r="L118" s="10" t="s">
+        <v>316</v>
+      </c>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
@@ -6921,21 +6873,19 @@
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
-      <c r="D119" s="9"/>
+      <c r="D119" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
-      <c r="I119" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="L119" s="10" t="s">
-        <v>321</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="L119" s="10"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
@@ -6965,21 +6915,19 @@
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
-      <c r="D120" s="9"/>
+      <c r="D120" s="9" t="s">
+        <v>314</v>
+      </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
-      <c r="I120" s="9" t="s">
-        <v>371</v>
-      </c>
+      <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="L120" s="10" t="s">
-        <v>319</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="L120" s="10"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -7015,14 +6963,14 @@
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="L121" s="10" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
@@ -7059,14 +7007,14 @@
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
@@ -7097,19 +7045,21 @@
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
-      <c r="D123" s="9" t="s">
-        <v>337</v>
-      </c>
+      <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
+      <c r="I123" s="9" t="s">
+        <v>372</v>
+      </c>
       <c r="J123" s="9"/>
       <c r="K123" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="L123" s="10"/>
+        <v>376</v>
+      </c>
+      <c r="L123" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -7139,20 +7089,20 @@
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
-      <c r="D124" s="9" t="s">
-        <v>335</v>
-      </c>
+      <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
+      <c r="I124" s="9" t="s">
+        <v>373</v>
+      </c>
       <c r="J124" s="9"/>
       <c r="K124" s="9" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="L124" s="10" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
@@ -7183,7 +7133,9 @@
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
-      <c r="D125" s="9"/>
+      <c r="D125" s="9" t="s">
+        <v>337</v>
+      </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
@@ -7191,11 +7143,9 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="L125" s="10" t="s">
-        <v>350</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="L125" s="10"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -7221,12 +7171,12 @@
       <c r="AI125" s="1"/>
       <c r="AJ125" s="1"/>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:36" ht="30">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
       <c r="D126" s="9" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
@@ -7235,10 +7185,10 @@
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
@@ -7269,9 +7219,7 @@
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
-      <c r="D127" s="9" t="s">
-        <v>325</v>
-      </c>
+      <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
@@ -7279,10 +7227,10 @@
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="L127" s="10" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
@@ -7314,7 +7262,7 @@
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
       <c r="D128" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
@@ -7323,10 +7271,10 @@
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L128" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
@@ -7357,7 +7305,9 @@
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
-      <c r="D129" s="9"/>
+      <c r="D129" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
@@ -7365,10 +7315,10 @@
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L129" s="10" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
@@ -7399,20 +7349,20 @@
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
-      <c r="D130" s="9"/>
+      <c r="D130" s="9" t="s">
+        <v>328</v>
+      </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="9" t="s">
-        <v>351</v>
-      </c>
+      <c r="J130" s="9"/>
       <c r="K130" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L130" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
@@ -7439,7 +7389,7 @@
       <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
     </row>
-    <row r="131" spans="1:36" ht="45">
+    <row r="131" spans="1:36">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
@@ -7448,17 +7398,13 @@
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
-      <c r="I131" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="J131" s="9" t="s">
-        <v>352</v>
-      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
       <c r="K131" s="9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
@@ -7485,27 +7431,25 @@
       <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
     </row>
-    <row r="132" spans="1:36" ht="30">
+    <row r="132" spans="1:36">
       <c r="A132" s="7"/>
-      <c r="B132" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D132" s="8"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
-      <c r="I132" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J132" s="8"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9" t="s">
+        <v>351</v>
+      </c>
       <c r="K132" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L132" s="10"/>
+        <v>331</v>
+      </c>
+      <c r="L132" s="10" t="s">
+        <v>330</v>
+      </c>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
@@ -7531,27 +7475,27 @@
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:36" ht="45">
       <c r="A133" s="7"/>
-      <c r="B133" s="7" t="s">
-        <v>347</v>
-      </c>
+      <c r="B133" s="7"/>
       <c r="C133" s="8"/>
-      <c r="D133" s="9" t="s">
-        <v>216</v>
-      </c>
+      <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
       <c r="I133" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J133" s="9"/>
+        <v>378</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>352</v>
+      </c>
       <c r="K133" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="L133" s="10"/>
+        <v>334</v>
+      </c>
+      <c r="L133" s="10" t="s">
+        <v>332</v>
+      </c>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
@@ -7580,22 +7524,22 @@
     <row r="134" spans="1:36" ht="30">
       <c r="A134" s="7"/>
       <c r="B134" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D134" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="D134" s="8"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
       <c r="I134" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J134" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="J134" s="8"/>
       <c r="K134" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L134" s="10"/>
       <c r="M134" s="1"/>
@@ -7625,23 +7569,25 @@
     </row>
     <row r="135" spans="1:36">
       <c r="A135" s="7"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="13"/>
+      <c r="B135" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C135" s="8"/>
       <c r="D135" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="20"/>
-      <c r="I135" s="20" t="s">
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J135" s="20"/>
-      <c r="K135" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="L135" s="14"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L135" s="10"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -7667,25 +7613,27 @@
       <c r="AI135" s="1"/>
       <c r="AJ135" s="1"/>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:36" ht="30">
       <c r="A136" s="7"/>
-      <c r="B136" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C136" s="4"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J136" s="4"/>
-      <c r="K136" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L136" s="6"/>
+      <c r="B136" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L136" s="10"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
@@ -7713,23 +7661,23 @@
     </row>
     <row r="137" spans="1:36">
       <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9" t="s">
+      <c r="B137" s="12"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="J137" s="9"/>
-      <c r="K137" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="L137" s="10"/>
+      <c r="J137" s="20"/>
+      <c r="K137" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L137" s="14"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
@@ -7757,23 +7705,23 @@
     </row>
     <row r="138" spans="1:36">
       <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J138" s="9"/>
-      <c r="K138" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="L138" s="10"/>
+      <c r="B138" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J138" s="4"/>
+      <c r="K138" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L138" s="6"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
@@ -7802,8 +7750,8 @@
     <row r="139" spans="1:36">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="8" t="s">
-        <v>122</v>
+      <c r="C139" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -7811,11 +7759,11 @@
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
       <c r="I139" s="9" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="1"/>
@@ -7847,7 +7795,7 @@
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
@@ -7855,11 +7803,11 @@
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L140" s="10"/>
       <c r="M140" s="1"/>
@@ -7891,7 +7839,7 @@
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8" t="s">
-        <v>367</v>
+        <v>122</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -7899,11 +7847,11 @@
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9" t="s">
-        <v>369</v>
+        <v>126</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
-        <v>368</v>
+        <v>162</v>
       </c>
       <c r="L141" s="10"/>
       <c r="M141" s="1"/>
@@ -7935,21 +7883,21 @@
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8" t="s">
-        <v>366</v>
+        <v>124</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
+      <c r="I142" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="J142" s="9"/>
       <c r="K142" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="L142" s="10" t="s">
-        <v>342</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="L142" s="10"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
@@ -7979,7 +7927,7 @@
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8" t="s">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
@@ -7987,11 +7935,11 @@
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
       <c r="I143" s="9" t="s">
-        <v>107</v>
+        <v>369</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="9" t="s">
-        <v>164</v>
+        <v>368</v>
       </c>
       <c r="L143" s="10"/>
       <c r="M143" s="1"/>
@@ -8023,21 +7971,21 @@
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
-      <c r="I144" s="9" t="s">
-        <v>344</v>
-      </c>
+      <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="L144" s="10"/>
+        <v>295</v>
+      </c>
+      <c r="L144" s="10" t="s">
+        <v>342</v>
+      </c>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
@@ -8065,23 +8013,23 @@
     </row>
     <row r="145" spans="1:36">
       <c r="A145" s="7"/>
-      <c r="B145" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J145" s="5"/>
-      <c r="K145" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L145" s="6"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L145" s="10"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -8111,7 +8059,7 @@
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -8119,11 +8067,11 @@
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
       <c r="I146" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8" t="s">
-        <v>165</v>
+        <v>344</v>
+      </c>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="L146" s="10"/>
       <c r="M146" s="1"/>
@@ -8153,23 +8101,23 @@
     </row>
     <row r="147" spans="1:36">
       <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J147" s="9"/>
-      <c r="K147" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="L147" s="10"/>
+      <c r="B147" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J147" s="5"/>
+      <c r="K147" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L147" s="6"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -8196,24 +8144,24 @@
       <c r="AJ147" s="1"/>
     </row>
     <row r="148" spans="1:36">
-      <c r="A148" s="15"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="13"/>
-      <c r="I148" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J148" s="13"/>
-      <c r="K148" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="L148" s="28"/>
+      <c r="A148" s="7"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L148" s="10"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
@@ -8240,24 +8188,24 @@
       <c r="AJ148" s="1"/>
     </row>
     <row r="149" spans="1:36">
-      <c r="A149" s="15"/>
-      <c r="B149" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L149" s="40"/>
+      <c r="A149" s="7"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L149" s="10"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
@@ -8285,25 +8233,23 @@
     </row>
     <row r="150" spans="1:36">
       <c r="A150" s="15"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="8" t="s">
+      <c r="B150" s="19"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J150" s="8"/>
-      <c r="K150" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L150" s="11"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L150" s="28"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
@@ -8331,23 +8277,23 @@
     </row>
     <row r="151" spans="1:36">
       <c r="A151" s="15"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J151" s="8"/>
-      <c r="K151" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L151" s="11"/>
+      <c r="B151" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L151" s="36"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
@@ -8376,20 +8322,22 @@
     <row r="152" spans="1:36">
       <c r="A152" s="15"/>
       <c r="B152" s="15"/>
-      <c r="C152" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D152" s="8"/>
+      <c r="C152" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
       <c r="I152" s="8" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="J152" s="8"/>
       <c r="K152" s="8" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="L152" s="11"/>
       <c r="M152" s="1"/>
@@ -8420,35 +8368,47 @@
     <row r="153" spans="1:36">
       <c r="A153" s="15"/>
       <c r="B153" s="15"/>
-      <c r="C153" s="8"/>
+      <c r="C153" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
-      <c r="I153" s="8"/>
+      <c r="I153" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="J153" s="8"/>
-      <c r="K153" s="8"/>
+      <c r="K153" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="L153" s="11"/>
     </row>
     <row r="154" spans="1:36">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
+      <c r="I154" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="J154" s="8"/>
-      <c r="K154" s="8"/>
-      <c r="L154" s="8"/>
+      <c r="K154" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L154" s="11"/>
     </row>
     <row r="155" spans="1:36">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="9"/>
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
@@ -8457,7 +8417,35 @@
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
-      <c r="L155" s="8"/>
+      <c r="L155" s="11"/>
+    </row>
+    <row r="156" spans="1:36">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="8"/>
+      <c r="L156" s="8"/>
+    </row>
+    <row r="157" spans="1:36">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
+      <c r="L157" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="387">
   <si>
     <t>Appareil</t>
   </si>
@@ -1160,6 +1160,21 @@
   </si>
   <si>
     <t>BOLD mask (from contrastes: en pratique 1 BOLD par contraste !)</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs{ics}.MCX_t</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs{ics}.MCX_T</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs{ics}.MCX_r</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs{ics}.MCX_g</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs{ics}.MCX_l</t>
   </si>
 </sst>
 </file>
@@ -1398,8 +1413,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L155" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L160" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L160">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
@@ -1709,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ157"/>
+  <dimension ref="A1:AJ162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B77" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="H77" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6313,8 +6328,8 @@
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
-      <c r="K106" s="8" t="s">
-        <v>353</v>
+      <c r="K106" s="9" t="s">
+        <v>382</v>
       </c>
       <c r="L106" s="11"/>
       <c r="M106" s="1"/>
@@ -6344,6 +6359,7 @@
     </row>
     <row r="107" spans="1:36">
       <c r="A107" s="7"/>
+      <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -6352,8 +6368,8 @@
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
-      <c r="K107" s="8" t="s">
-        <v>354</v>
+      <c r="K107" s="9" t="s">
+        <v>383</v>
       </c>
       <c r="L107" s="11"/>
       <c r="M107" s="1"/>
@@ -6382,24 +6398,20 @@
       <c r="AJ107" s="1"/>
     </row>
     <row r="108" spans="1:36">
-      <c r="A108" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="L108" s="6"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="L108" s="11"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -6427,23 +6439,19 @@
     </row>
     <row r="109" spans="1:36">
       <c r="A109" s="7"/>
-      <c r="B109" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L109" s="6"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="L109" s="11"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -6471,23 +6479,19 @@
     </row>
     <row r="110" spans="1:36">
       <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="J110" s="9"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
       <c r="K110" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L110" s="10"/>
+        <v>386</v>
+      </c>
+      <c r="L110" s="11"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -6515,23 +6519,19 @@
     </row>
     <row r="111" spans="1:36">
       <c r="A111" s="7"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L111" s="14"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="L111" s="11"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
@@ -6559,23 +6559,18 @@
     </row>
     <row r="112" spans="1:36">
       <c r="A112" s="7"/>
-      <c r="B112" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="L112" s="6"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="L112" s="11"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -6602,24 +6597,24 @@
       <c r="AJ112" s="1"/>
     </row>
     <row r="113" spans="1:36">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J113" s="8"/>
-      <c r="K113" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="L113" s="10"/>
+      <c r="A113" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L113" s="6"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
@@ -6647,23 +6642,23 @@
     </row>
     <row r="114" spans="1:36">
       <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L114" s="10"/>
+      <c r="B114" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L114" s="6"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
@@ -6692,20 +6687,20 @@
     <row r="115" spans="1:36">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="9" t="s">
-        <v>252</v>
-      </c>
+      <c r="C115" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="L115" s="10"/>
       <c r="M115" s="1"/>
@@ -6735,23 +6730,23 @@
     </row>
     <row r="116" spans="1:36" ht="15" customHeight="1">
       <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J116" s="8"/>
-      <c r="K116" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="L116" s="10"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L116" s="14"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
@@ -6779,23 +6774,23 @@
     </row>
     <row r="117" spans="1:36" ht="15" customHeight="1">
       <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="L117" s="10"/>
+      <c r="B117" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L117" s="6"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -6824,26 +6819,22 @@
     <row r="118" spans="1:36" ht="15" customHeight="1">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="9" t="s">
-        <v>206</v>
-      </c>
+      <c r="C118" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>207</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="J118" s="8"/>
       <c r="K118" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="L118" s="10" t="s">
-        <v>316</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="L118" s="10"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
@@ -6874,16 +6865,18 @@
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
       <c r="D119" s="9" t="s">
-        <v>308</v>
+        <v>120</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
+      <c r="I119" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9" t="s">
-        <v>312</v>
+        <v>155</v>
       </c>
       <c r="L119" s="10"/>
       <c r="M119" s="1"/>
@@ -6916,16 +6909,18 @@
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
       <c r="D120" s="9" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
+      <c r="I120" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
-        <v>315</v>
+        <v>156</v>
       </c>
       <c r="L120" s="10"/>
       <c r="M120" s="1"/>
@@ -6956,22 +6951,22 @@
     <row r="121" spans="1:36" ht="15" customHeight="1">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="8"/>
+      <c r="C121" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="J121" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="J121" s="8"/>
       <c r="K121" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="L121" s="10" t="s">
-        <v>321</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="L121" s="10"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -7001,21 +6996,21 @@
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
-      <c r="D122" s="9"/>
+      <c r="D122" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9" t="s">
-        <v>371</v>
+        <v>97</v>
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="L122" s="10" t="s">
-        <v>319</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="L122" s="10"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -7045,20 +7040,24 @@
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
-      <c r="D123" s="9"/>
+      <c r="D123" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="J123" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="K123" s="9" t="s">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c r="L123" s="10" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
@@ -7089,21 +7088,19 @@
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
-      <c r="D124" s="9"/>
+      <c r="D124" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
-      <c r="I124" s="9" t="s">
-        <v>373</v>
-      </c>
+      <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="L124" s="10" t="s">
-        <v>374</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="L124" s="10"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -7134,7 +7131,7 @@
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
       <c r="D125" s="9" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
@@ -7143,7 +7140,7 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="1"/>
@@ -7171,24 +7168,24 @@
       <c r="AI125" s="1"/>
       <c r="AJ125" s="1"/>
     </row>
-    <row r="126" spans="1:36" ht="30">
+    <row r="126" spans="1:36">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
-      <c r="D126" s="9" t="s">
-        <v>335</v>
-      </c>
+      <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
+      <c r="I126" s="9" t="s">
+        <v>370</v>
+      </c>
       <c r="J126" s="9"/>
       <c r="K126" s="9" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
@@ -7224,13 +7221,15 @@
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
+      <c r="I127" s="9" t="s">
+        <v>371</v>
+      </c>
       <c r="J127" s="9"/>
       <c r="K127" s="9" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="L127" s="10" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
@@ -7261,20 +7260,20 @@
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
-      <c r="D128" s="9" t="s">
-        <v>324</v>
-      </c>
+      <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
+      <c r="I128" s="9" t="s">
+        <v>372</v>
+      </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
       <c r="L128" s="10" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
@@ -7305,20 +7304,20 @@
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
-      <c r="D129" s="9" t="s">
-        <v>325</v>
-      </c>
+      <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
+      <c r="I129" s="9" t="s">
+        <v>373</v>
+      </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="L129" s="10" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
@@ -7350,7 +7349,7 @@
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
       <c r="D130" s="9" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
@@ -7359,11 +7358,9 @@
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="L130" s="10" t="s">
-        <v>328</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="L130" s="10"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
@@ -7389,11 +7386,13 @@
       <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:36" ht="30">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
-      <c r="D131" s="9"/>
+      <c r="D131" s="9" t="s">
+        <v>335</v>
+      </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -7401,10 +7400,10 @@
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
@@ -7441,14 +7440,12 @@
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="9" t="s">
-        <v>351</v>
-      </c>
+      <c r="J132" s="9"/>
       <c r="K132" s="9" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="L132" s="10" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
@@ -7475,26 +7472,24 @@
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
     </row>
-    <row r="133" spans="1:36" ht="45">
+    <row r="133" spans="1:36">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
-      <c r="D133" s="9"/>
+      <c r="D133" s="9" t="s">
+        <v>324</v>
+      </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
-      <c r="I133" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="J133" s="9" t="s">
-        <v>352</v>
-      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
       <c r="K133" s="9" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="L133" s="10" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
@@ -7521,27 +7516,25 @@
       <c r="AI133" s="1"/>
       <c r="AJ133" s="1"/>
     </row>
-    <row r="134" spans="1:36" ht="30">
+    <row r="134" spans="1:36">
       <c r="A134" s="7"/>
-      <c r="B134" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D134" s="8"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
-      <c r="I134" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J134" s="8"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
       <c r="K134" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L134" s="10"/>
+        <v>326</v>
+      </c>
+      <c r="L134" s="10" t="s">
+        <v>325</v>
+      </c>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -7569,25 +7562,23 @@
     </row>
     <row r="135" spans="1:36">
       <c r="A135" s="7"/>
-      <c r="B135" s="7" t="s">
-        <v>347</v>
-      </c>
+      <c r="B135" s="7"/>
       <c r="C135" s="8"/>
       <c r="D135" s="9" t="s">
-        <v>216</v>
+        <v>328</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
-      <c r="I135" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="L135" s="10"/>
+        <v>327</v>
+      </c>
+      <c r="L135" s="10" t="s">
+        <v>328</v>
+      </c>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -7613,27 +7604,23 @@
       <c r="AI135" s="1"/>
       <c r="AJ135" s="1"/>
     </row>
-    <row r="136" spans="1:36" ht="30">
+    <row r="136" spans="1:36">
       <c r="A136" s="7"/>
-      <c r="B136" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="B136" s="7"/>
+      <c r="C136" s="8"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
-      <c r="I136" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="L136" s="10"/>
+        <v>329</v>
+      </c>
+      <c r="L136" s="10" t="s">
+        <v>333</v>
+      </c>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
@@ -7661,23 +7648,23 @@
     </row>
     <row r="137" spans="1:36">
       <c r="A137" s="7"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="20"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J137" s="20"/>
-      <c r="K137" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="L137" s="14"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="L137" s="10" t="s">
+        <v>330</v>
+      </c>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
@@ -7703,25 +7690,27 @@
       <c r="AI137" s="1"/>
       <c r="AJ137" s="1"/>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:36" ht="45">
       <c r="A138" s="7"/>
-      <c r="B138" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J138" s="4"/>
-      <c r="K138" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L138" s="6"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="K138" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="L138" s="10" t="s">
+        <v>332</v>
+      </c>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
@@ -7747,23 +7736,25 @@
       <c r="AI138" s="1"/>
       <c r="AJ138" s="1"/>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:36" ht="30">
       <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D139" s="9"/>
+      <c r="B139" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" s="8"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
       <c r="I139" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J139" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="J139" s="8"/>
       <c r="K139" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="1"/>
@@ -7793,21 +7784,23 @@
     </row>
     <row r="140" spans="1:36">
       <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D140" s="9"/>
+      <c r="B140" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L140" s="10"/>
       <c r="M140" s="1"/>
@@ -7835,11 +7828,13 @@
       <c r="AI140" s="1"/>
       <c r="AJ140" s="1"/>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:36" ht="30">
       <c r="A141" s="7"/>
-      <c r="B141" s="7"/>
+      <c r="B141" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="C141" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -7847,11 +7842,11 @@
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L141" s="10"/>
       <c r="M141" s="1"/>
@@ -7881,23 +7876,23 @@
     </row>
     <row r="142" spans="1:36">
       <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="L142" s="10"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J142" s="20"/>
+      <c r="K142" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L142" s="14"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
@@ -7925,23 +7920,23 @@
     </row>
     <row r="143" spans="1:36">
       <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="L143" s="10"/>
+      <c r="B143" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J143" s="4"/>
+      <c r="K143" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L143" s="6"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
@@ -7970,22 +7965,22 @@
     <row r="144" spans="1:36">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="8" t="s">
-        <v>366</v>
+      <c r="C144" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
+      <c r="I144" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="J144" s="9"/>
       <c r="K144" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="L144" s="10" t="s">
-        <v>342</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="L144" s="10"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
@@ -8015,7 +8010,7 @@
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -8023,11 +8018,11 @@
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
       <c r="I145" s="9" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L145" s="10"/>
       <c r="M145" s="1"/>
@@ -8059,7 +8054,7 @@
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8" t="s">
-        <v>343</v>
+        <v>122</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -8067,11 +8062,11 @@
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
       <c r="I146" s="9" t="s">
-        <v>344</v>
+        <v>126</v>
       </c>
       <c r="J146" s="9"/>
       <c r="K146" s="9" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="L146" s="10"/>
       <c r="M146" s="1"/>
@@ -8101,23 +8096,23 @@
     </row>
     <row r="147" spans="1:36">
       <c r="A147" s="7"/>
-      <c r="B147" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C147" s="4"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J147" s="5"/>
-      <c r="K147" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L147" s="6"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="L147" s="10"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -8147,7 +8142,7 @@
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="8" t="s">
-        <v>110</v>
+        <v>367</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -8155,11 +8150,11 @@
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J148" s="8"/>
-      <c r="K148" s="8" t="s">
-        <v>165</v>
+        <v>369</v>
+      </c>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9" t="s">
+        <v>368</v>
       </c>
       <c r="L148" s="10"/>
       <c r="M148" s="1"/>
@@ -8190,22 +8185,22 @@
     <row r="149" spans="1:36">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="C149" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
-      <c r="I149" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="I149" s="9"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="L149" s="10"/>
+        <v>295</v>
+      </c>
+      <c r="L149" s="10" t="s">
+        <v>342</v>
+      </c>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
@@ -8232,24 +8227,24 @@
       <c r="AJ149" s="1"/>
     </row>
     <row r="150" spans="1:36">
-      <c r="A150" s="15"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="13"/>
-      <c r="I150" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J150" s="13"/>
-      <c r="K150" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="L150" s="28"/>
+      <c r="A150" s="7"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L150" s="10"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
@@ -8276,24 +8271,24 @@
       <c r="AJ150" s="1"/>
     </row>
     <row r="151" spans="1:36">
-      <c r="A151" s="15"/>
-      <c r="B151" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L151" s="36"/>
+      <c r="A151" s="7"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="L151" s="10"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
@@ -8320,26 +8315,24 @@
       <c r="AJ151" s="1"/>
     </row>
     <row r="152" spans="1:36">
-      <c r="A152" s="15"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J152" s="8"/>
-      <c r="K152" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L152" s="11"/>
+      <c r="A152" s="7"/>
+      <c r="B152" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C152" s="4"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J152" s="5"/>
+      <c r="K152" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L152" s="6"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
@@ -8366,86 +8359,188 @@
       <c r="AJ152" s="1"/>
     </row>
     <row r="153" spans="1:36">
-      <c r="A153" s="15"/>
-      <c r="B153" s="15"/>
+      <c r="A153" s="7"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8" t="s">
-        <v>129</v>
+        <v>110</v>
+      </c>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="J153" s="8"/>
       <c r="K153" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L153" s="11"/>
+        <v>165</v>
+      </c>
+      <c r="L153" s="10"/>
     </row>
     <row r="154" spans="1:36">
-      <c r="A154" s="15"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J154" s="8"/>
-      <c r="K154" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="L154" s="11"/>
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L154" s="10"/>
     </row>
     <row r="155" spans="1:36">
       <c r="A155" s="15"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
-      <c r="K155" s="8"/>
-      <c r="L155" s="11"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J155" s="13"/>
+      <c r="K155" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L155" s="28"/>
     </row>
     <row r="156" spans="1:36">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
-      <c r="K156" s="8"/>
-      <c r="L156" s="8"/>
+      <c r="A156" s="15"/>
+      <c r="B156" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L156" s="36"/>
     </row>
     <row r="157" spans="1:36">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="8"/>
+      <c r="A157" s="15"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
+      <c r="I157" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="J157" s="8"/>
-      <c r="K157" s="8"/>
-      <c r="L157" s="8"/>
+      <c r="K157" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L157" s="11"/>
+    </row>
+    <row r="158" spans="1:36">
+      <c r="A158" s="15"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L158" s="11"/>
+    </row>
+    <row r="159" spans="1:36">
+      <c r="A159" s="15"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L159" s="11"/>
+    </row>
+    <row r="160" spans="1:36">
+      <c r="A160" s="15"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="11"/>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -1726,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H77" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="388">
   <si>
     <t>Appareil</t>
   </si>
@@ -1175,13 +1175,16 @@
   </si>
   <si>
     <t>NIRS.Cs.mcs{ics}.MCX_l</t>
+  </si>
+  <si>
+    <t>NOT USED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1204,6 +1207,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1309,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1399,6 +1409,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1726,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88:L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5582,7 +5598,9 @@
       <c r="K88" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="L88" s="6"/>
+      <c r="L88" s="43" t="s">
+        <v>387</v>
+      </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
@@ -5624,7 +5642,9 @@
       <c r="K89" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="L89" s="10"/>
+      <c r="L89" s="44" t="s">
+        <v>387</v>
+      </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
@@ -5666,7 +5686,9 @@
       <c r="K90" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="L90" s="10"/>
+      <c r="L90" s="44" t="s">
+        <v>387</v>
+      </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="408">
   <si>
     <t>Appareil</t>
   </si>
@@ -1090,30 +1090,9 @@
     <t>possiblités de confusion avec les vraies longueurs d'ondes utilisées dans les channels</t>
   </si>
   <si>
-    <t>NIRS.Cs.mcs(n).C</t>
-  </si>
-  <si>
     <t>Channels in sensitivity matrix</t>
   </si>
   <si>
-    <t>NIRS.Cs.mcs(n).b8i</t>
-  </si>
-  <si>
-    <t>NIRS.Cs.mcs(n).segR</t>
-  </si>
-  <si>
-    <t>NIRS.Cs.mcs(n).seg</t>
-  </si>
-  <si>
-    <t>NIRS.Cs.mcs(n).par</t>
-  </si>
-  <si>
-    <t>NIRS.Cs.mcs(n).dir</t>
-  </si>
-  <si>
-    <t>NIRS.Cs.mcs(n).alg</t>
-  </si>
-  <si>
     <t>Segmented image or last ROI</t>
   </si>
   <si>
@@ -1178,6 +1157,87 @@
   </si>
   <si>
     <t>NOT USED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomographical reconstructions </t>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>NIRS.Tm</t>
+  </si>
+  <si>
+    <t>NIRS.Tm.n</t>
+  </si>
+  <si>
+    <t>tmrs</t>
+  </si>
+  <si>
+    <t>NIRS.Tm.tmrs{itm}</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>Output dir</t>
+  </si>
+  <si>
+    <t>Resized segmented image (sensitivity resized)</t>
+  </si>
+  <si>
+    <t>Input Data (Y)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>NIRS.Tm.tmrs{itm}.alg</t>
+  </si>
+  <si>
+    <t>NIRS.Tm.tmrs{itm}.p</t>
+  </si>
+  <si>
+    <t>NIRS.Tm.tmrs{itm}.segRR</t>
+  </si>
+  <si>
+    <t>NIRS.Tm.tmrs{itm}.Y</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs{ics}.C</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs{ics}.b8i</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs{ics}.segR</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs{ics}.seg</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs{ics}.par</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs{ics}.dir</t>
+  </si>
+  <si>
+    <t>NIRS.Cs.mcs{ics}.alg</t>
+  </si>
+  <si>
+    <t>INUTILISE</t>
+  </si>
+  <si>
+    <t>current : ctm</t>
+  </si>
+  <si>
+    <t>Points d'inversion</t>
+  </si>
+  <si>
+    <t>NIRS.Tm.tmrs{itm}.temp_tps</t>
+  </si>
+  <si>
+    <t>temp_tps</t>
   </si>
 </sst>
 </file>
@@ -1429,8 +1489,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L160" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L160">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L170" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L170">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
@@ -1740,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ162"/>
+  <dimension ref="A1:AJ172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88:L90"/>
+    <sheetView tabSelected="1" topLeftCell="I94" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5599,7 +5659,7 @@
         <v>150</v>
       </c>
       <c r="L88" s="43" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
@@ -5643,7 +5703,7 @@
         <v>151</v>
       </c>
       <c r="L89" s="44" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -5687,7 +5747,7 @@
         <v>152</v>
       </c>
       <c r="L90" s="44" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -5759,14 +5819,16 @@
       <c r="AJ91" s="1"/>
     </row>
     <row r="92" spans="1:36">
+      <c r="A92" s="7"/>
+      <c r="B92" s="9"/>
       <c r="C92" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="I92" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="K92" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="1"/>
@@ -5795,18 +5857,24 @@
       <c r="AJ92" s="1"/>
     </row>
     <row r="93" spans="1:36">
-      <c r="A93" s="12"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="14"/>
+      <c r="A93" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L93" s="36"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
@@ -5833,24 +5901,23 @@
       <c r="AJ93" s="1"/>
     </row>
     <row r="94" spans="1:36">
-      <c r="A94" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B94" s="9"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="C94" s="8"/>
-      <c r="D94" s="9"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
       <c r="I94" s="8" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="L94" s="36"/>
+        <v>296</v>
+      </c>
+      <c r="L94" s="10"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
@@ -5879,19 +5946,20 @@
     <row r="95" spans="1:36">
       <c r="A95" s="7"/>
       <c r="B95" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
       <c r="I95" s="8" t="s">
-        <v>55</v>
+        <v>293</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L95" s="10"/>
       <c r="M95" s="1"/>
@@ -5921,23 +5989,14 @@
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="7"/>
-      <c r="B96" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="L96" s="10"/>
+      <c r="B96" s="8"/>
+      <c r="C96" t="s">
+        <v>297</v>
+      </c>
+      <c r="I96" t="s">
+        <v>387</v>
+      </c>
+      <c r="L96" s="11"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
@@ -5966,8 +6025,20 @@
     <row r="97" spans="1:36">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
-      <c r="C97" t="s">
-        <v>297</v>
+      <c r="C97" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9" t="s">
+        <v>402</v>
       </c>
       <c r="L97" s="11"/>
       <c r="M97" s="1"/>
@@ -5999,7 +6070,7 @@
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="9"/>
@@ -6007,11 +6078,11 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J98" s="9"/>
+        <v>174</v>
+      </c>
+      <c r="J98" s="8"/>
       <c r="K98" s="9" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="L98" s="11"/>
       <c r="M98" s="1"/>
@@ -6043,7 +6114,7 @@
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="9"/>
@@ -6051,11 +6122,11 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J99" s="8"/>
+        <v>177</v>
+      </c>
+      <c r="J99" s="9"/>
       <c r="K99" s="9" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="L99" s="11"/>
       <c r="M99" s="1"/>
@@ -6087,7 +6158,7 @@
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9" t="s">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="9"/>
@@ -6095,11 +6166,11 @@
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="L100" s="11"/>
       <c r="M100" s="1"/>
@@ -6130,20 +6201,14 @@
     <row r="101" spans="1:36">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
-      <c r="C101" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="J101" s="9"/>
+      <c r="C101" t="s">
+        <v>300</v>
+      </c>
+      <c r="I101" t="s">
+        <v>301</v>
+      </c>
       <c r="K101" s="9" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="L101" s="11"/>
       <c r="M101" s="1"/>
@@ -6174,14 +6239,20 @@
     <row r="102" spans="1:36">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
-      <c r="C102" t="s">
-        <v>300</v>
-      </c>
-      <c r="I102" t="s">
-        <v>301</v>
-      </c>
-      <c r="K102" s="9" t="s">
-        <v>361</v>
+      <c r="C102" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8" t="s">
+        <v>397</v>
       </c>
       <c r="L102" s="11"/>
       <c r="M102" s="1"/>
@@ -6213,7 +6284,7 @@
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -6221,12 +6292,10 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8" t="s">
-        <v>298</v>
+        <v>61</v>
       </c>
       <c r="J103" s="8"/>
-      <c r="K103" s="8" t="s">
-        <v>360</v>
-      </c>
+      <c r="K103" s="8"/>
       <c r="L103" s="11"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
@@ -6257,7 +6326,7 @@
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -6265,10 +6334,12 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
+      <c r="K104" s="9" t="s">
+        <v>396</v>
+      </c>
       <c r="L104" s="11"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
@@ -6298,20 +6369,16 @@
     <row r="105" spans="1:36">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
-      <c r="C105" s="8" t="s">
-        <v>359</v>
-      </c>
+      <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
-      <c r="I105" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="9" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="L105" s="11"/>
       <c r="M105" s="1"/>
@@ -6351,7 +6418,7 @@
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L106" s="11"/>
       <c r="M106" s="1"/>
@@ -6391,7 +6458,7 @@
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L107" s="11"/>
       <c r="M107" s="1"/>
@@ -6431,7 +6498,7 @@
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L108" s="11"/>
       <c r="M108" s="1"/>
@@ -6471,7 +6538,7 @@
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L109" s="11"/>
       <c r="M109" s="1"/>
@@ -6510,8 +6577,8 @@
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
-      <c r="K110" s="9" t="s">
-        <v>386</v>
+      <c r="K110" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="L110" s="11"/>
       <c r="M110" s="1"/>
@@ -6541,7 +6608,6 @@
     </row>
     <row r="111" spans="1:36">
       <c r="A111" s="7"/>
-      <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -6551,7 +6617,7 @@
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L111" s="11"/>
       <c r="M111" s="1"/>
@@ -6580,19 +6646,24 @@
       <c r="AJ111" s="1"/>
     </row>
     <row r="112" spans="1:36">
-      <c r="A112" s="7"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="L112" s="11"/>
+      <c r="A112" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="L112" s="36"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -6619,24 +6690,23 @@
       <c r="AJ112" s="1"/>
     </row>
     <row r="113" spans="1:36">
-      <c r="A113" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="L113" s="6"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="I113" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="L113" s="11"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
@@ -6663,24 +6733,26 @@
       <c r="AJ113" s="1"/>
     </row>
     <row r="114" spans="1:36">
-      <c r="A114" s="7"/>
-      <c r="B114" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L114" s="6"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="L114" s="11"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
@@ -6707,24 +6779,24 @@
       <c r="AJ114" s="1"/>
     </row>
     <row r="115" spans="1:36">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D115" s="9"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D115" s="8"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L115" s="10"/>
+        <v>392</v>
+      </c>
+      <c r="L115" s="11"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
@@ -6751,24 +6823,18 @@
       <c r="AJ115" s="1"/>
     </row>
     <row r="116" spans="1:36" ht="15" customHeight="1">
-      <c r="A116" s="7"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20" t="s">
+      <c r="A116" s="15"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="I116" t="s">
         <v>97</v>
       </c>
-      <c r="J116" s="20"/>
-      <c r="K116" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L116" s="14"/>
+      <c r="K116" t="s">
+        <v>393</v>
+      </c>
+      <c r="L116" s="11"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
@@ -6795,24 +6861,18 @@
       <c r="AJ116" s="1"/>
     </row>
     <row r="117" spans="1:36" ht="15" customHeight="1">
-      <c r="A117" s="7"/>
-      <c r="B117" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="L117" s="6"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="8"/>
+      <c r="C117" t="s">
+        <v>389</v>
+      </c>
+      <c r="I117" t="s">
+        <v>301</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="L117" s="11"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -6839,24 +6899,24 @@
       <c r="AJ117" s="1"/>
     </row>
     <row r="118" spans="1:36" ht="15" customHeight="1">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D118" s="9"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D118" s="8"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J118" s="8"/>
+        <v>391</v>
+      </c>
+      <c r="J118" s="9"/>
       <c r="K118" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="L118" s="10"/>
+        <v>395</v>
+      </c>
+      <c r="L118" s="11"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
@@ -6883,24 +6943,24 @@
       <c r="AJ118" s="1"/>
     </row>
     <row r="119" spans="1:36" ht="15" customHeight="1">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="A119" s="15"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D119" s="8"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9" t="s">
-        <v>55</v>
+        <v>407</v>
       </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L119" s="10"/>
+        <v>406</v>
+      </c>
+      <c r="L119" s="11"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
@@ -6927,24 +6987,9 @@
       <c r="AJ119" s="1"/>
     </row>
     <row r="120" spans="1:36" ht="15" customHeight="1">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L120" s="10"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="8"/>
+      <c r="L120" s="11"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -6971,24 +7016,18 @@
       <c r="AJ120" s="1"/>
     </row>
     <row r="121" spans="1:36" ht="15" customHeight="1">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9" t="s">
-        <v>188</v>
-      </c>
+      <c r="A121" s="15"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
       <c r="J121" s="8"/>
-      <c r="K121" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="L121" s="10"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="11"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -7015,24 +7054,18 @@
       <c r="AJ121" s="1"/>
     </row>
     <row r="122" spans="1:36" ht="15" customHeight="1">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="L122" s="10"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="28"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -7059,28 +7092,24 @@
       <c r="AJ122" s="1"/>
     </row>
     <row r="123" spans="1:36" ht="15" customHeight="1">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J123" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="K123" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="L123" s="10" t="s">
-        <v>316</v>
-      </c>
+      <c r="A123" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B123" s="5"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L123" s="6"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -7108,21 +7137,23 @@
     </row>
     <row r="124" spans="1:36" ht="15" customHeight="1">
       <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="L124" s="10"/>
+      <c r="B124" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" s="4"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L124" s="6"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -7151,18 +7182,20 @@
     <row r="125" spans="1:36">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="9" t="s">
-        <v>314</v>
-      </c>
+      <c r="C125" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
+      <c r="I125" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="J125" s="9"/>
       <c r="K125" s="9" t="s">
-        <v>315</v>
+        <v>187</v>
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="1"/>
@@ -7192,23 +7225,23 @@
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="L126" s="10" t="s">
-        <v>321</v>
-      </c>
+      <c r="B126" s="12"/>
+      <c r="C126" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J126" s="20"/>
+      <c r="K126" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L126" s="14"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
@@ -7236,23 +7269,23 @@
     </row>
     <row r="127" spans="1:36">
       <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="L127" s="10" t="s">
-        <v>319</v>
-      </c>
+      <c r="B127" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L127" s="6"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
@@ -7281,22 +7314,22 @@
     <row r="128" spans="1:36">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="8"/>
+      <c r="C128" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="J128" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="J128" s="8"/>
       <c r="K128" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="L128" s="10" t="s">
-        <v>375</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="L128" s="10"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
@@ -7326,21 +7359,21 @@
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
-      <c r="D129" s="9"/>
+      <c r="D129" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9" t="s">
-        <v>373</v>
+        <v>55</v>
       </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="L129" s="10" t="s">
-        <v>374</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="L129" s="10"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
@@ -7371,16 +7404,18 @@
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
       <c r="D130" s="9" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
+      <c r="I130" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="J130" s="9"/>
       <c r="K130" s="9" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
       <c r="L130" s="10"/>
       <c r="M130" s="1"/>
@@ -7408,25 +7443,25 @@
       <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
     </row>
-    <row r="131" spans="1:36" ht="30">
+    <row r="131" spans="1:36">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="9" t="s">
-        <v>335</v>
-      </c>
+      <c r="C131" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
+      <c r="I131" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J131" s="8"/>
       <c r="K131" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="L131" s="10" t="s">
-        <v>322</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="L131" s="10"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
@@ -7456,19 +7491,21 @@
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
-      <c r="D132" s="9"/>
+      <c r="D132" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
+      <c r="I132" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="J132" s="9"/>
       <c r="K132" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="L132" s="10" t="s">
-        <v>350</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="L132" s="10"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
@@ -7499,19 +7536,23 @@
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
       <c r="D133" s="9" t="s">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
+      <c r="I133" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="K133" s="9" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="L133" s="10" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
@@ -7543,7 +7584,7 @@
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
       <c r="D134" s="9" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
@@ -7552,11 +7593,9 @@
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="L134" s="10" t="s">
-        <v>325</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="L134" s="10"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -7587,7 +7626,7 @@
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
       <c r="D135" s="9" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
@@ -7596,11 +7635,9 @@
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="L135" s="10" t="s">
-        <v>328</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="L135" s="10"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -7635,13 +7672,15 @@
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
+      <c r="I136" s="9" t="s">
+        <v>363</v>
+      </c>
       <c r="J136" s="9"/>
       <c r="K136" s="9" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L136" s="10" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
@@ -7677,15 +7716,15 @@
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9" t="s">
-        <v>351</v>
-      </c>
+      <c r="I137" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="J137" s="9"/>
       <c r="K137" s="9" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L137" s="10" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
@@ -7712,7 +7751,7 @@
       <c r="AI137" s="1"/>
       <c r="AJ137" s="1"/>
     </row>
-    <row r="138" spans="1:36" ht="45">
+    <row r="138" spans="1:36">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
@@ -7722,16 +7761,14 @@
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="J138" s="9" t="s">
-        <v>352</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="J138" s="9"/>
       <c r="K138" s="9" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="L138" s="10" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
@@ -7758,27 +7795,25 @@
       <c r="AI138" s="1"/>
       <c r="AJ138" s="1"/>
     </row>
-    <row r="139" spans="1:36" ht="30">
+    <row r="139" spans="1:36">
       <c r="A139" s="7"/>
-      <c r="B139" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D139" s="8"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
       <c r="I139" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J139" s="8"/>
+        <v>366</v>
+      </c>
+      <c r="J139" s="9"/>
       <c r="K139" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L139" s="10"/>
+        <v>370</v>
+      </c>
+      <c r="L139" s="10" t="s">
+        <v>367</v>
+      </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
@@ -7806,23 +7841,19 @@
     </row>
     <row r="140" spans="1:36">
       <c r="A140" s="7"/>
-      <c r="B140" s="7" t="s">
-        <v>347</v>
-      </c>
+      <c r="B140" s="7"/>
       <c r="C140" s="8"/>
       <c r="D140" s="9" t="s">
-        <v>216</v>
+        <v>337</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
-      <c r="I140" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="L140" s="10"/>
       <c r="M140" s="1"/>
@@ -7852,25 +7883,23 @@
     </row>
     <row r="141" spans="1:36" ht="30">
       <c r="A141" s="7"/>
-      <c r="B141" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D141" s="9"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="9" t="s">
+        <v>335</v>
+      </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
-      <c r="I141" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="L141" s="10"/>
+        <v>336</v>
+      </c>
+      <c r="L141" s="10" t="s">
+        <v>322</v>
+      </c>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
@@ -7898,23 +7927,21 @@
     </row>
     <row r="142" spans="1:36">
       <c r="A142" s="7"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J142" s="20"/>
-      <c r="K142" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="L142" s="14"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="L142" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
@@ -7942,23 +7969,23 @@
     </row>
     <row r="143" spans="1:36">
       <c r="A143" s="7"/>
-      <c r="B143" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J143" s="4"/>
-      <c r="K143" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L143" s="6"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="L143" s="10" t="s">
+        <v>324</v>
+      </c>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
@@ -7987,22 +8014,22 @@
     <row r="144" spans="1:36">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D144" s="9"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
-      <c r="I144" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="L144" s="10"/>
+        <v>326</v>
+      </c>
+      <c r="L144" s="10" t="s">
+        <v>325</v>
+      </c>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
@@ -8031,22 +8058,22 @@
     <row r="145" spans="1:36">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D145" s="9"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="9" t="s">
+        <v>328</v>
+      </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
-      <c r="I145" s="9" t="s">
-        <v>125</v>
-      </c>
+      <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="L145" s="10"/>
+        <v>327</v>
+      </c>
+      <c r="L145" s="10" t="s">
+        <v>328</v>
+      </c>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -8075,22 +8102,20 @@
     <row r="146" spans="1:36">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
-      <c r="C146" s="8" t="s">
-        <v>122</v>
-      </c>
+      <c r="C146" s="8"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
-      <c r="I146" s="9" t="s">
-        <v>126</v>
-      </c>
+      <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L146" s="10"/>
+        <v>329</v>
+      </c>
+      <c r="L146" s="10" t="s">
+        <v>333</v>
+      </c>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
@@ -8119,22 +8144,22 @@
     <row r="147" spans="1:36">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
-      <c r="C147" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="C147" s="8"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
-      <c r="I147" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9" t="s">
+        <v>351</v>
+      </c>
       <c r="K147" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="L147" s="10"/>
+        <v>331</v>
+      </c>
+      <c r="L147" s="10" t="s">
+        <v>330</v>
+      </c>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -8160,25 +8185,27 @@
       <c r="AI147" s="1"/>
       <c r="AJ147" s="1"/>
     </row>
-    <row r="148" spans="1:36">
+    <row r="148" spans="1:36" ht="45">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="8" t="s">
-        <v>367</v>
-      </c>
+      <c r="C148" s="8"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="J148" s="9"/>
+        <v>371</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>352</v>
+      </c>
       <c r="K148" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="L148" s="10"/>
+        <v>334</v>
+      </c>
+      <c r="L148" s="10" t="s">
+        <v>332</v>
+      </c>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
@@ -8204,24 +8231,28 @@
       <c r="AI148" s="1"/>
       <c r="AJ148" s="1"/>
     </row>
-    <row r="149" spans="1:36">
+    <row r="149" spans="1:36" ht="30">
       <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
+      <c r="B149" s="7" t="s">
+        <v>346</v>
+      </c>
       <c r="C149" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D149" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="D149" s="8"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="9"/>
+      <c r="I149" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J149" s="8"/>
       <c r="K149" s="9" t="s">
-        <v>295</v>
+        <v>157</v>
       </c>
       <c r="L149" s="10" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
@@ -8250,23 +8281,27 @@
     </row>
     <row r="150" spans="1:36">
       <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D150" s="9"/>
+      <c r="B150" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C150" s="8"/>
+      <c r="D150" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
       <c r="I150" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J150" s="9"/>
       <c r="K150" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L150" s="10"/>
+        <v>179</v>
+      </c>
+      <c r="L150" s="10" t="s">
+        <v>403</v>
+      </c>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
@@ -8292,11 +8327,13 @@
       <c r="AI150" s="1"/>
       <c r="AJ150" s="1"/>
     </row>
-    <row r="151" spans="1:36">
+    <row r="151" spans="1:36" ht="30">
       <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
+      <c r="B151" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="C151" s="8" t="s">
-        <v>343</v>
+        <v>113</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -8304,13 +8341,15 @@
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
       <c r="I151" s="9" t="s">
-        <v>344</v>
+        <v>102</v>
       </c>
       <c r="J151" s="9"/>
       <c r="K151" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="L151" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="L151" s="10" t="s">
+        <v>403</v>
+      </c>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
@@ -8338,23 +8377,25 @@
     </row>
     <row r="152" spans="1:36">
       <c r="A152" s="7"/>
-      <c r="B152" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J152" s="5"/>
-      <c r="K152" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L152" s="6"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L152" s="14" t="s">
+        <v>403</v>
+      </c>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
@@ -8382,187 +8423,387 @@
     </row>
     <row r="153" spans="1:36">
       <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J153" s="8"/>
-      <c r="K153" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="L153" s="10"/>
+      <c r="B153" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J153" s="4"/>
+      <c r="K153" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L153" s="6"/>
     </row>
     <row r="154" spans="1:36">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="C154" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D154" s="9"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
       <c r="I154" s="9" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="J154" s="9"/>
       <c r="K154" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L154" s="10"/>
+    </row>
+    <row r="155" spans="1:36">
+      <c r="A155" s="7"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L155" s="10"/>
+    </row>
+    <row r="156" spans="1:36">
+      <c r="A156" s="7"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L156" s="10"/>
+    </row>
+    <row r="157" spans="1:36">
+      <c r="A157" s="7"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="L157" s="10"/>
+    </row>
+    <row r="158" spans="1:36">
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="L158" s="10"/>
+    </row>
+    <row r="159" spans="1:36">
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="L159" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="160" spans="1:36">
+      <c r="A160" s="7"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L160" s="10"/>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="7"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="L161" s="10"/>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="7"/>
+      <c r="B162" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C162" s="4"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J162" s="5"/>
+      <c r="K162" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L163" s="10"/>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="7"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="L154" s="10"/>
-    </row>
-    <row r="155" spans="1:36">
-      <c r="A155" s="15"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="9" t="s">
+      <c r="L164" s="10"/>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="15"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="13"/>
-      <c r="I155" s="13" t="s">
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J155" s="13"/>
-      <c r="K155" s="20" t="s">
+      <c r="J165" s="13"/>
+      <c r="K165" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="L155" s="28"/>
-    </row>
-    <row r="156" spans="1:36">
-      <c r="A156" s="15"/>
-      <c r="B156" s="16" t="s">
+      <c r="L165" s="28"/>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="15"/>
+      <c r="B166" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4" t="s">
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4" t="s">
+      <c r="J166" s="4"/>
+      <c r="K166" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="L156" s="36"/>
-    </row>
-    <row r="157" spans="1:36">
-      <c r="A157" s="15"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="9" t="s">
+      <c r="L166" s="36"/>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="15"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D167" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8" t="s">
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J157" s="8"/>
-      <c r="K157" s="8" t="s">
+      <c r="J167" s="8"/>
+      <c r="K167" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="L157" s="11"/>
-    </row>
-    <row r="158" spans="1:36">
-      <c r="A158" s="15"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="8" t="s">
+      <c r="L167" s="11"/>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="15"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8" t="s">
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J158" s="8"/>
-      <c r="K158" s="8" t="s">
+      <c r="J168" s="8"/>
+      <c r="K168" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="L158" s="11"/>
-    </row>
-    <row r="159" spans="1:36">
-      <c r="A159" s="15"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="8" t="s">
+      <c r="L168" s="11"/>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="15"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8" t="s">
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="J159" s="8"/>
-      <c r="K159" s="8" t="s">
+      <c r="J169" s="8"/>
+      <c r="K169" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="L159" s="11"/>
-    </row>
-    <row r="160" spans="1:36">
-      <c r="A160" s="15"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
-      <c r="K160" s="8"/>
-      <c r="L160" s="11"/>
-    </row>
-    <row r="161" spans="1:12">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
-      <c r="K161" s="8"/>
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="1:12">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
-      <c r="K162" s="8"/>
-      <c r="L162" s="8"/>
+      <c r="L169" s="11"/>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="15"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
+      <c r="L170" s="11"/>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="8"/>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
+      <c r="J172" s="8"/>
+      <c r="K172" s="8"/>
+      <c r="L172" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="12435" windowHeight="10290"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="410">
   <si>
     <t>Appareil</t>
   </si>
@@ -268,9 +268,6 @@
     <t>Ca</t>
   </si>
   <si>
-    <t>Config multimodalite</t>
-  </si>
-  <si>
     <t>Dt</t>
   </si>
   <si>
@@ -628,12 +625,6 @@
     <t>NIRS.Dt</t>
   </si>
   <si>
-    <t>Cm</t>
-  </si>
-  <si>
-    <t>NIRS.Cm</t>
-  </si>
-  <si>
     <t>baseline method</t>
   </si>
   <si>
@@ -1066,12 +1057,6 @@
     <t>NIRS.Dt.fir.Sess(f).fR</t>
   </si>
   <si>
-    <t>cardiac regressor</t>
-  </si>
-  <si>
-    <t>%%%%% faux</t>
-  </si>
-  <si>
     <t>%%%%% supprime vers Sess.fR</t>
   </si>
   <si>
@@ -1132,15 +1117,6 @@
     <t>%% CB: peux tu expliquer les lettres stp que tu utilises ?</t>
   </si>
   <si>
-    <t>bold</t>
-  </si>
-  <si>
-    <t>NIRS.Cm.bold</t>
-  </si>
-  <si>
-    <t>BOLD mask (from contrastes: en pratique 1 BOLD par contraste !)</t>
-  </si>
-  <si>
     <t>NIRS.Cs.mcs{ics}.MCX_t</t>
   </si>
   <si>
@@ -1238,13 +1214,43 @@
   </si>
   <si>
     <t>temp_tps</t>
+  </si>
+  <si>
+    <t>cardiac regressor from fnirs</t>
+  </si>
+  <si>
+    <t>nirs_run_criugm_paces</t>
+  </si>
+  <si>
+    <t>REDONDANT AVEC PRECEDENT</t>
+  </si>
+  <si>
+    <t>PB de NOMS</t>
+  </si>
+  <si>
+    <t>Functional MRI</t>
+  </si>
+  <si>
+    <t>fmri</t>
+  </si>
+  <si>
+    <t>NIRS.Dt.fmri</t>
+  </si>
+  <si>
+    <t>NIRS.Dt.fmri.xSPM</t>
+  </si>
+  <si>
+    <t>matrice xSPM (contient le masque BOLD pour un contraste defini dans le spm_results_ui)</t>
+  </si>
+  <si>
+    <t>nirs_run_configMC / spm_results_ui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1481,22 +1487,21 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L170" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L170">
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L172" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L172"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Arborescence"/>
     <tableColumn id="2" name="."/>
@@ -1590,6 +1595,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1624,6 +1630,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1799,14 +1806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I94" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M150" sqref="M150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
@@ -1819,10 +1826,10 @@
     <col min="9" max="9" width="19.85546875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="28.85546875" customWidth="1"/>
-    <col min="12" max="12" width="31.85546875" customWidth="1"/>
+    <col min="12" max="12" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1839,13 +1846,13 @@
         <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1860,18 +1867,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="24" customFormat="1">
+    <row r="2" spans="1:36" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>75</v>
       </c>
@@ -1883,15 +1890,15 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L3" s="30"/>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="23" t="s">
         <v>74</v>
@@ -1907,11 +1914,11 @@
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L4" s="30"/>
     </row>
-    <row r="5" spans="1:36" ht="15" customHeight="1">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="26" t="s">
@@ -1927,7 +1934,7 @@
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="1"/>
@@ -1955,27 +1962,27 @@
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6" s="27"/>
       <c r="K6" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="1"/>
@@ -2003,7 +2010,7 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="26" t="s">
@@ -2015,11 +2022,11 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="1"/>
@@ -2047,25 +2054,25 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="34" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L8" s="35"/>
       <c r="M8" s="1"/>
@@ -2093,7 +2100,7 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="23" t="s">
         <v>70</v>
@@ -2109,7 +2116,7 @@
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="1"/>
@@ -2137,7 +2144,7 @@
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="26" t="s">
@@ -2153,7 +2160,7 @@
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="1"/>
@@ -2181,7 +2188,7 @@
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
@@ -2193,11 +2200,11 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="1"/>
@@ -2225,11 +2232,11 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="25"/>
       <c r="C12" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2241,7 +2248,7 @@
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="1"/>
@@ -2269,7 +2276,7 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="25"/>
       <c r="C13" s="31"/>
@@ -2287,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="1"/>
@@ -2315,7 +2322,7 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="31"/>
@@ -2333,7 +2340,7 @@
         <v>28</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="1"/>
@@ -2361,7 +2368,7 @@
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="31"/>
@@ -2377,7 +2384,7 @@
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="1"/>
@@ -2405,7 +2412,7 @@
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="31"/>
@@ -2421,7 +2428,7 @@
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="1"/>
@@ -2449,7 +2456,7 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="31"/>
@@ -2465,7 +2472,7 @@
         <v>36</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="1"/>
@@ -2493,7 +2500,7 @@
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="31"/>
@@ -2511,7 +2518,7 @@
         <v>41</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="1"/>
@@ -2539,7 +2546,7 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="31"/>
@@ -2555,7 +2562,7 @@
         <v>45</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="1"/>
@@ -2583,7 +2590,7 @@
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="31"/>
@@ -2599,7 +2606,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="1"/>
@@ -2627,7 +2634,7 @@
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="31"/>
@@ -2643,7 +2650,7 @@
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="1"/>
@@ -2671,7 +2678,7 @@
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="31"/>
@@ -2687,7 +2694,7 @@
         <v>37</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L22" s="18"/>
       <c r="M22" s="1"/>
@@ -2715,7 +2722,7 @@
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="31"/>
@@ -2735,7 +2742,7 @@
         <v>42</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="1"/>
@@ -2763,7 +2770,7 @@
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="31"/>
@@ -2781,7 +2788,7 @@
         <v>43</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="1"/>
@@ -2809,7 +2816,7 @@
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="31"/>
@@ -2820,16 +2827,16 @@
         <v>3</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="1"/>
@@ -2857,7 +2864,7 @@
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="31"/>
@@ -2873,7 +2880,7 @@
         <v>44</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L26" s="18"/>
       <c r="M26" s="1"/>
@@ -2901,7 +2908,7 @@
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="31"/>
@@ -2912,16 +2919,16 @@
         <v>3</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I27" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="L27" s="18"/>
       <c r="M27" s="1"/>
@@ -2949,13 +2956,13 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="15"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>14</v>
@@ -2967,7 +2974,7 @@
         <v>48</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="1"/>
@@ -2995,12 +3002,12 @@
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="31"/>
       <c r="D29" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -3011,7 +3018,7 @@
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L29" s="18"/>
       <c r="M29" s="1"/>
@@ -3039,7 +3046,7 @@
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="31"/>
@@ -3055,7 +3062,7 @@
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L30" s="18"/>
       <c r="M30" s="1"/>
@@ -3083,7 +3090,7 @@
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="31"/>
@@ -3099,7 +3106,7 @@
         <v>50</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L31" s="18"/>
       <c r="M31" s="1"/>
@@ -3127,7 +3134,7 @@
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="31"/>
@@ -3147,7 +3154,7 @@
         <v>51</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L32" s="18"/>
       <c r="M32" s="1"/>
@@ -3175,7 +3182,7 @@
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="31"/>
@@ -3191,7 +3198,7 @@
         <v>53</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L33" s="18"/>
       <c r="M33" s="1"/>
@@ -3219,7 +3226,7 @@
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="31"/>
@@ -3227,7 +3234,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>17</v>
@@ -3239,7 +3246,7 @@
         <v>54</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L34" s="18"/>
       <c r="M34" s="1"/>
@@ -3267,7 +3274,7 @@
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="16" t="s">
@@ -3282,7 +3289,7 @@
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="1"/>
@@ -3310,7 +3317,7 @@
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="15"/>
@@ -3326,7 +3333,7 @@
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="1"/>
@@ -3354,7 +3361,7 @@
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="15"/>
@@ -3370,10 +3377,10 @@
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -3400,7 +3407,7 @@
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="15"/>
@@ -3416,10 +3423,10 @@
         <v>36</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -3446,7 +3453,7 @@
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="15"/>
@@ -3458,16 +3465,16 @@
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>41</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3494,7 +3501,7 @@
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="15"/>
@@ -3510,10 +3517,10 @@
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3540,7 +3547,7 @@
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="15"/>
@@ -3556,10 +3563,10 @@
         <v>37</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3586,7 +3593,7 @@
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="15"/>
@@ -3600,16 +3607,16 @@
         <v>14</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>42</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3636,12 +3643,12 @@
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="15"/>
       <c r="D43" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -3652,10 +3659,10 @@
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3682,7 +3689,7 @@
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="15"/>
@@ -3698,10 +3705,10 @@
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -3728,7 +3735,7 @@
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="15"/>
@@ -3744,10 +3751,10 @@
         <v>50</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3774,7 +3781,7 @@
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="15"/>
@@ -3788,16 +3795,16 @@
         <v>15</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3824,7 +3831,7 @@
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="16" t="s">
@@ -3840,7 +3847,7 @@
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L47" s="17"/>
       <c r="M47" s="1"/>
@@ -3868,7 +3875,7 @@
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="15"/>
@@ -3886,7 +3893,7 @@
         <v>55</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L48" s="18"/>
       <c r="M48" s="1"/>
@@ -3914,7 +3921,7 @@
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="15"/>
@@ -3932,7 +3939,7 @@
         <v>28</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="1"/>
@@ -3960,25 +3967,25 @@
       <c r="AI49" s="1"/>
       <c r="AJ49" s="1"/>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="15"/>
       <c r="D50" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J50" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="K50" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="1"/>
@@ -4006,7 +4013,7 @@
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="15"/>
@@ -4022,7 +4029,7 @@
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L51" s="18"/>
       <c r="M51" s="1"/>
@@ -4050,7 +4057,7 @@
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="15"/>
@@ -4066,7 +4073,7 @@
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L52" s="18"/>
       <c r="M52" s="1"/>
@@ -4094,7 +4101,7 @@
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="15"/>
@@ -4110,7 +4117,7 @@
         <v>36</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L53" s="18"/>
       <c r="M53" s="1"/>
@@ -4138,7 +4145,7 @@
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="15"/>
@@ -4156,7 +4163,7 @@
         <v>41</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L54" s="18"/>
       <c r="M54" s="1"/>
@@ -4184,7 +4191,7 @@
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="16" t="s">
@@ -4200,7 +4207,7 @@
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="1"/>
@@ -4228,7 +4235,7 @@
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="15"/>
@@ -4246,7 +4253,7 @@
         <v>55</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L56" s="18"/>
       <c r="M56" s="1"/>
@@ -4274,7 +4281,7 @@
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="15"/>
@@ -4292,7 +4299,7 @@
         <v>28</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="1"/>
@@ -4320,25 +4327,25 @@
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="15"/>
       <c r="D58" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="1"/>
@@ -4366,7 +4373,7 @@
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="15"/>
@@ -4382,7 +4389,7 @@
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L59" s="18"/>
       <c r="M59" s="1"/>
@@ -4410,7 +4417,7 @@
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="15"/>
@@ -4426,7 +4433,7 @@
       </c>
       <c r="J60" s="8"/>
       <c r="K60" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L60" s="18"/>
       <c r="M60" s="1"/>
@@ -4454,7 +4461,7 @@
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="15"/>
@@ -4470,7 +4477,7 @@
         <v>36</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L61" s="18"/>
       <c r="M61" s="1"/>
@@ -4498,7 +4505,7 @@
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="15"/>
@@ -4516,7 +4523,7 @@
         <v>41</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L62" s="18"/>
       <c r="M62" s="1"/>
@@ -4544,7 +4551,7 @@
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="16" t="s">
@@ -4556,11 +4563,11 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="1"/>
@@ -4588,7 +4595,7 @@
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="15"/>
@@ -4603,10 +4610,10 @@
         <v>55</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L64" s="18"/>
       <c r="M64" s="1"/>
@@ -4634,7 +4641,7 @@
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="15"/>
@@ -4649,10 +4656,10 @@
         <v>28</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="1"/>
@@ -4680,25 +4687,25 @@
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="15"/>
       <c r="D66" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E66" s="39"/>
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="1"/>
@@ -4726,7 +4733,7 @@
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="15"/>
@@ -4742,7 +4749,7 @@
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L67" s="18"/>
       <c r="M67" s="1"/>
@@ -4770,7 +4777,7 @@
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="15"/>
@@ -4786,7 +4793,7 @@
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L68" s="18"/>
       <c r="M68" s="1"/>
@@ -4814,7 +4821,7 @@
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="15"/>
@@ -4830,7 +4837,7 @@
         <v>36</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L69" s="18"/>
       <c r="M69" s="1"/>
@@ -4858,7 +4865,7 @@
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="15"/>
@@ -4870,13 +4877,13 @@
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J70" s="9" t="s">
         <v>41</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L70" s="18"/>
       <c r="M70" s="1"/>
@@ -4904,11 +4911,11 @@
       <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -4920,7 +4927,7 @@
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L71" s="17"/>
       <c r="M71" s="1"/>
@@ -4948,7 +4955,7 @@
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="15"/>
@@ -4963,10 +4970,10 @@
         <v>55</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L72" s="18"/>
       <c r="M72" s="1"/>
@@ -4994,7 +5001,7 @@
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1"/>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="15"/>
@@ -5008,7 +5015,7 @@
         <v>31</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L73" s="18"/>
       <c r="M73" s="1"/>
@@ -5036,7 +5043,7 @@
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="15"/>
@@ -5052,7 +5059,7 @@
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L74" s="18"/>
       <c r="M74" s="1"/>
@@ -5080,7 +5087,7 @@
       <c r="AI74" s="1"/>
       <c r="AJ74" s="1"/>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="15"/>
@@ -5096,7 +5103,7 @@
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L75" s="18"/>
       <c r="M75" s="1"/>
@@ -5124,7 +5131,7 @@
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="15"/>
@@ -5138,7 +5145,7 @@
       <c r="I76" s="8"/>
       <c r="J76" s="9"/>
       <c r="K76" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L76" s="18"/>
       <c r="M76" s="1"/>
@@ -5166,7 +5173,7 @@
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="15"/>
@@ -5178,11 +5185,11 @@
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L77" s="18"/>
       <c r="M77" s="1"/>
@@ -5210,7 +5217,7 @@
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="16" t="s">
@@ -5226,7 +5233,7 @@
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="1"/>
@@ -5254,12 +5261,12 @@
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1"/>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="15"/>
       <c r="D79" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -5268,7 +5275,7 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="1"/>
@@ -5296,7 +5303,7 @@
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1"/>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="15"/>
@@ -5311,10 +5318,10 @@
         <v>28</v>
       </c>
       <c r="J80" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K80" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="K80" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="1"/>
@@ -5342,7 +5349,7 @@
       <c r="AI80" s="1"/>
       <c r="AJ80" s="1"/>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="15"/>
@@ -5354,13 +5361,13 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>81</v>
       </c>
       <c r="K81" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="1"/>
@@ -5388,7 +5395,7 @@
       <c r="AI81" s="1"/>
       <c r="AJ81" s="1"/>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="15"/>
@@ -5400,13 +5407,13 @@
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K82" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L82" s="10"/>
       <c r="M82" s="1"/>
@@ -5434,7 +5441,7 @@
       <c r="AI82" s="1"/>
       <c r="AJ82" s="1"/>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="15"/>
@@ -5446,13 +5453,13 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L83" s="10"/>
       <c r="M83" s="1"/>
@@ -5480,25 +5487,25 @@
       <c r="AI83" s="1"/>
       <c r="AJ83" s="1"/>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="15"/>
       <c r="D84" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L84" s="10"/>
       <c r="M84" s="1"/>
@@ -5526,7 +5533,7 @@
       <c r="AI84" s="1"/>
       <c r="AJ84" s="1"/>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="15"/>
@@ -5564,7 +5571,7 @@
       <c r="AI85" s="1"/>
       <c r="AJ85" s="1"/>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="15"/>
@@ -5602,7 +5609,7 @@
       <c r="AI86" s="1"/>
       <c r="AJ86" s="1"/>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="19"/>
@@ -5640,9 +5647,9 @@
       <c r="AI87" s="1"/>
       <c r="AJ87" s="1"/>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="4"/>
@@ -5656,10 +5663,10 @@
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L88" s="43" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
@@ -5686,7 +5693,7 @@
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="9" t="s">
         <v>0</v>
@@ -5700,10 +5707,10 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L89" s="44" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -5730,7 +5737,7 @@
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1"/>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="9"/>
       <c r="C90" s="8" t="s">
@@ -5744,10 +5751,10 @@
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L90" s="44" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -5774,25 +5781,25 @@
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1"/>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="L91" s="6"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L91" s="36"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -5818,17 +5825,22 @@
       <c r="AI91" s="1"/>
       <c r="AJ91" s="1"/>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
-      <c r="B92" s="9"/>
-      <c r="C92" t="s">
-        <v>374</v>
-      </c>
-      <c r="I92" t="s">
-        <v>372</v>
-      </c>
-      <c r="K92" t="s">
-        <v>373</v>
+      <c r="B92" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="I92" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="1"/>
@@ -5856,25 +5868,25 @@
       <c r="AI92" s="1"/>
       <c r="AJ92" s="1"/>
     </row>
-    <row r="93" spans="1:36">
-      <c r="A93" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L93" s="36"/>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+      <c r="B93" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="L93" s="10"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
@@ -5900,24 +5912,16 @@
       <c r="AI93" s="1"/>
       <c r="AJ93" s="1"/>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
-      <c r="B94" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="I94" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="L94" s="10"/>
+      <c r="B94" s="8"/>
+      <c r="C94" t="s">
+        <v>294</v>
+      </c>
+      <c r="I94" t="s">
+        <v>379</v>
+      </c>
+      <c r="L94" s="11"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
@@ -5943,25 +5947,25 @@
       <c r="AI94" s="1"/>
       <c r="AJ94" s="1"/>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
-      <c r="B95" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="L95" s="10"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="L95" s="11"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
@@ -5987,14 +5991,23 @@
       <c r="AI95" s="1"/>
       <c r="AJ95" s="1"/>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
-      <c r="C96" t="s">
-        <v>297</v>
-      </c>
-      <c r="I96" t="s">
-        <v>387</v>
+      <c r="C96" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J96" s="8"/>
+      <c r="K96" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="L96" s="11"/>
       <c r="M96" s="1"/>
@@ -6022,11 +6035,11 @@
       <c r="AI96" s="1"/>
       <c r="AJ96" s="1"/>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9" t="s">
-        <v>306</v>
+        <v>175</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="9"/>
@@ -6034,11 +6047,11 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="L97" s="11"/>
       <c r="M97" s="1"/>
@@ -6066,11 +6079,11 @@
       <c r="AI97" s="1"/>
       <c r="AJ97" s="1"/>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="9"/>
@@ -6078,11 +6091,11 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J98" s="8"/>
+        <v>289</v>
+      </c>
+      <c r="J98" s="9"/>
       <c r="K98" s="9" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="L98" s="11"/>
       <c r="M98" s="1"/>
@@ -6110,23 +6123,17 @@
       <c r="AI98" s="1"/>
       <c r="AJ98" s="1"/>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
-      <c r="C99" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D99" s="8"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="J99" s="9"/>
+      <c r="C99" t="s">
+        <v>297</v>
+      </c>
+      <c r="I99" t="s">
+        <v>298</v>
+      </c>
       <c r="K99" s="9" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="L99" s="11"/>
       <c r="M99" s="1"/>
@@ -6154,23 +6161,23 @@
       <c r="AI99" s="1"/>
       <c r="AJ99" s="1"/>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
-      <c r="C100" s="9" t="s">
-        <v>305</v>
+      <c r="C100" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="D100" s="8"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9" t="s">
-        <v>399</v>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="L100" s="11"/>
       <c r="M100" s="1"/>
@@ -6198,18 +6205,22 @@
       <c r="AI100" s="1"/>
       <c r="AJ100" s="1"/>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
-      <c r="C101" t="s">
-        <v>300</v>
-      </c>
-      <c r="I101" t="s">
-        <v>301</v>
-      </c>
-      <c r="K101" s="9" t="s">
-        <v>398</v>
-      </c>
+      <c r="C101" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
       <c r="L101" s="11"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
@@ -6236,11 +6247,11 @@
       <c r="AI101" s="1"/>
       <c r="AJ101" s="1"/>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -6248,11 +6259,11 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8" t="s">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="J102" s="8"/>
-      <c r="K102" s="8" t="s">
-        <v>397</v>
+      <c r="K102" s="9" t="s">
+        <v>388</v>
       </c>
       <c r="L102" s="11"/>
       <c r="M102" s="1"/>
@@ -6280,22 +6291,20 @@
       <c r="AI102" s="1"/>
       <c r="AJ102" s="1"/>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
-      <c r="C103" s="8" t="s">
-        <v>355</v>
-      </c>
+      <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
-      <c r="I103" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="I103" s="8"/>
       <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
+      <c r="K103" s="9" t="s">
+        <v>367</v>
+      </c>
       <c r="L103" s="11"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
@@ -6322,23 +6331,19 @@
       <c r="AI103" s="1"/>
       <c r="AJ103" s="1"/>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
-      <c r="C104" s="8" t="s">
-        <v>358</v>
-      </c>
+      <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="9" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="L104" s="11"/>
       <c r="M104" s="1"/>
@@ -6366,7 +6371,7 @@
       <c r="AI104" s="1"/>
       <c r="AJ104" s="1"/>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -6378,7 +6383,7 @@
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L105" s="11"/>
       <c r="M105" s="1"/>
@@ -6406,7 +6411,7 @@
       <c r="AI105" s="1"/>
       <c r="AJ105" s="1"/>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -6418,7 +6423,7 @@
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L106" s="11"/>
       <c r="M106" s="1"/>
@@ -6446,7 +6451,7 @@
       <c r="AI106" s="1"/>
       <c r="AJ106" s="1"/>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -6458,7 +6463,7 @@
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L107" s="11"/>
       <c r="M107" s="1"/>
@@ -6486,7 +6491,7 @@
       <c r="AI107" s="1"/>
       <c r="AJ107" s="1"/>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -6497,8 +6502,8 @@
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
-      <c r="K108" s="9" t="s">
-        <v>378</v>
+      <c r="K108" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="L108" s="11"/>
       <c r="M108" s="1"/>
@@ -6526,9 +6531,8 @@
       <c r="AI108" s="1"/>
       <c r="AJ108" s="1"/>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
-      <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -6537,8 +6541,8 @@
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
-      <c r="K109" s="9" t="s">
-        <v>379</v>
+      <c r="K109" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="L109" s="11"/>
       <c r="M109" s="1"/>
@@ -6566,21 +6570,25 @@
       <c r="AI109" s="1"/>
       <c r="AJ109" s="1"/>
     </row>
-    <row r="110" spans="1:36">
-      <c r="A110" s="7"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="L110" s="11"/>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A110" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="L110" s="36"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -6606,18 +6614,22 @@
       <c r="AI110" s="1"/>
       <c r="AJ110" s="1"/>
     </row>
-    <row r="111" spans="1:36">
-      <c r="A111" s="7"/>
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A111" s="15"/>
+      <c r="B111" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
+      <c r="I111" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="J111" s="8"/>
       <c r="K111" s="8" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="L111" s="11"/>
       <c r="M111" s="1"/>
@@ -6645,25 +6657,27 @@
       <c r="AI111" s="1"/>
       <c r="AJ111" s="1"/>
     </row>
-    <row r="112" spans="1:36">
-      <c r="A112" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="L112" s="36"/>
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A112" s="15"/>
+      <c r="B112" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="L112" s="11"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -6689,21 +6703,22 @@
       <c r="AI112" s="1"/>
       <c r="AJ112" s="1"/>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
-      <c r="B113" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="I113" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8" t="s">
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9" t="s">
         <v>384</v>
       </c>
       <c r="L113" s="11"/>
@@ -6732,25 +6747,17 @@
       <c r="AI113" s="1"/>
       <c r="AJ113" s="1"/>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
-      <c r="B114" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8" t="s">
+      <c r="B114" s="8"/>
+      <c r="C114" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="I114" t="s">
+        <v>96</v>
+      </c>
+      <c r="K114" t="s">
         <v>385</v>
-      </c>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8" t="s">
-        <v>386</v>
       </c>
       <c r="L114" s="11"/>
       <c r="M114" s="1"/>
@@ -6778,23 +6785,17 @@
       <c r="AI114" s="1"/>
       <c r="AJ114" s="1"/>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="8"/>
-      <c r="C115" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J115" s="9"/>
+      <c r="C115" t="s">
+        <v>381</v>
+      </c>
+      <c r="I115" t="s">
+        <v>298</v>
+      </c>
       <c r="K115" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L115" s="11"/>
       <c r="M115" s="1"/>
@@ -6822,17 +6823,23 @@
       <c r="AI115" s="1"/>
       <c r="AJ115" s="1"/>
     </row>
-    <row r="116" spans="1:36" ht="15" customHeight="1">
+    <row r="116" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="I116" t="s">
-        <v>97</v>
-      </c>
-      <c r="K116" t="s">
-        <v>393</v>
+        <v>382</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="L116" s="11"/>
       <c r="M116" s="1"/>
@@ -6860,17 +6867,23 @@
       <c r="AI116" s="1"/>
       <c r="AJ116" s="1"/>
     </row>
-    <row r="117" spans="1:36" ht="15" customHeight="1">
+    <row r="117" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="8"/>
-      <c r="C117" t="s">
-        <v>389</v>
-      </c>
-      <c r="I117" t="s">
-        <v>301</v>
-      </c>
+      <c r="C117" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="J117" s="9"/>
       <c r="K117" s="9" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L117" s="11"/>
       <c r="M117" s="1"/>
@@ -6898,24 +6911,9 @@
       <c r="AI117" s="1"/>
       <c r="AJ117" s="1"/>
     </row>
-    <row r="118" spans="1:36" ht="15" customHeight="1">
+    <row r="118" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="8"/>
-      <c r="C118" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9" t="s">
-        <v>395</v>
-      </c>
       <c r="L118" s="11"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
@@ -6942,24 +6940,18 @@
       <c r="AI118" s="1"/>
       <c r="AJ118" s="1"/>
     </row>
-    <row r="119" spans="1:36" ht="15" customHeight="1">
+    <row r="119" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="8"/>
-      <c r="C119" s="9" t="s">
-        <v>405</v>
-      </c>
+      <c r="C119" s="8"/>
       <c r="D119" s="8"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9" t="s">
-        <v>406</v>
-      </c>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
       <c r="L119" s="11"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
@@ -6986,10 +6978,19 @@
       <c r="AI119" s="1"/>
       <c r="AJ119" s="1"/>
     </row>
-    <row r="120" spans="1:36" ht="15" customHeight="1">
-      <c r="A120" s="15"/>
-      <c r="B120" s="8"/>
-      <c r="L120" s="11"/>
+    <row r="120" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="19"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="28"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -7015,19 +7016,25 @@
       <c r="AI120" s="1"/>
       <c r="AJ120" s="1"/>
     </row>
-    <row r="121" spans="1:36" ht="15" customHeight="1">
-      <c r="A121" s="15"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="11"/>
+    <row r="121" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="L121" s="6"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -7053,19 +7060,25 @@
       <c r="AI121" s="1"/>
       <c r="AJ121" s="1"/>
     </row>
-    <row r="122" spans="1:36" ht="15" customHeight="1">
-      <c r="A122" s="19"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="28"/>
+    <row r="122" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7"/>
+      <c r="B122" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L122" s="6"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -7091,25 +7104,25 @@
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
     </row>
-    <row r="123" spans="1:36" ht="15" customHeight="1">
-      <c r="A123" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B123" s="5"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="L123" s="6"/>
+    <row r="123" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="L123" s="10"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -7135,25 +7148,25 @@
       <c r="AI123" s="1"/>
       <c r="AJ123" s="1"/>
     </row>
-    <row r="124" spans="1:36" ht="15" customHeight="1">
+    <row r="124" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
-      <c r="B124" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C124" s="4"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J124" s="5"/>
-      <c r="K124" s="5" t="s">
+      <c r="B124" s="12"/>
+      <c r="C124" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="L124" s="6"/>
+      <c r="L124" s="14"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -7179,25 +7192,25 @@
       <c r="AI124" s="1"/>
       <c r="AJ124" s="1"/>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L125" s="10"/>
+      <c r="B125" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C125" s="4"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L125" s="6"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -7223,25 +7236,25 @@
       <c r="AI125" s="1"/>
       <c r="AJ125" s="1"/>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J126" s="20"/>
-      <c r="K126" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L126" s="14"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J126" s="8"/>
+      <c r="K126" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="L126" s="10"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
@@ -7267,25 +7280,25 @@
       <c r="AI126" s="1"/>
       <c r="AJ126" s="1"/>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
-      <c r="B127" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C127" s="4"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="L127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L127" s="10"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
@@ -7311,23 +7324,23 @@
       <c r="AI127" s="1"/>
       <c r="AJ127" s="1"/>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D128" s="9"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="9" t="s">
+        <v>249</v>
+      </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J128" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="J128" s="9"/>
       <c r="K128" s="9" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="L128" s="10"/>
       <c r="M128" s="1"/>
@@ -7355,23 +7368,23 @@
       <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="C129" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J129" s="9"/>
+        <v>187</v>
+      </c>
+      <c r="J129" s="8"/>
       <c r="K129" s="9" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="L129" s="10"/>
       <c r="M129" s="1"/>
@@ -7399,23 +7412,23 @@
       <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
       <c r="D130" s="9" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J130" s="9"/>
       <c r="K130" s="9" t="s">
-        <v>156</v>
+        <v>310</v>
       </c>
       <c r="L130" s="10"/>
       <c r="M130" s="1"/>
@@ -7443,25 +7456,29 @@
       <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D131" s="9"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J131" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="K131" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="L131" s="10"/>
+        <v>308</v>
+      </c>
+      <c r="L131" s="10" t="s">
+        <v>313</v>
+      </c>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
@@ -7487,23 +7504,21 @@
       <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
       <c r="D132" s="9" t="s">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
-      <c r="I132" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L132" s="10"/>
       <c r="M132" s="1"/>
@@ -7531,29 +7546,23 @@
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
       <c r="D133" s="9" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
-      <c r="I133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J133" s="9" t="s">
-        <v>207</v>
-      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
       <c r="K133" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="L133" s="10" t="s">
-        <v>316</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="L133" s="10"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
@@ -7579,23 +7588,25 @@
       <c r="AI133" s="1"/>
       <c r="AJ133" s="1"/>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
-      <c r="D134" s="9" t="s">
-        <v>308</v>
-      </c>
+      <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
+      <c r="I134" s="9" t="s">
+        <v>358</v>
+      </c>
       <c r="J134" s="9"/>
       <c r="K134" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="L134" s="10"/>
+        <v>317</v>
+      </c>
+      <c r="L134" s="10" t="s">
+        <v>318</v>
+      </c>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -7621,23 +7632,25 @@
       <c r="AI134" s="1"/>
       <c r="AJ134" s="1"/>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
-      <c r="D135" s="9" t="s">
-        <v>314</v>
-      </c>
+      <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
-      <c r="I135" s="9"/>
+      <c r="I135" s="9" t="s">
+        <v>359</v>
+      </c>
       <c r="J135" s="9"/>
       <c r="K135" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="L135" s="10"/>
+      <c r="L135" s="10" t="s">
+        <v>316</v>
+      </c>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -7663,7 +7676,7 @@
       <c r="AI135" s="1"/>
       <c r="AJ135" s="1"/>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
@@ -7673,14 +7686,14 @@
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="9" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="L136" s="10" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
@@ -7707,7 +7720,7 @@
       <c r="AI136" s="1"/>
       <c r="AJ136" s="1"/>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
@@ -7717,14 +7730,14 @@
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J137" s="9"/>
       <c r="K137" s="9" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="L137" s="10" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
@@ -7751,25 +7764,23 @@
       <c r="AI137" s="1"/>
       <c r="AJ137" s="1"/>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
-      <c r="D138" s="9"/>
+      <c r="D138" s="9" t="s">
+        <v>334</v>
+      </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
-      <c r="I138" s="9" t="s">
-        <v>365</v>
-      </c>
+      <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="L138" s="10" t="s">
-        <v>368</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="L138" s="10"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
@@ -7795,24 +7806,24 @@
       <c r="AI138" s="1"/>
       <c r="AJ138" s="1"/>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
-      <c r="D139" s="9"/>
+      <c r="D139" s="9" t="s">
+        <v>332</v>
+      </c>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
-      <c r="I139" s="9" t="s">
-        <v>366</v>
-      </c>
+      <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="L139" s="10" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
@@ -7839,12 +7850,12 @@
       <c r="AI139" s="1"/>
       <c r="AJ139" s="1"/>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
       <c r="D140" s="9" t="s">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
@@ -7853,9 +7864,11 @@
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="L140" s="10"/>
+        <v>346</v>
+      </c>
+      <c r="L140" s="10" t="s">
+        <v>401</v>
+      </c>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
@@ -7881,12 +7894,12 @@
       <c r="AI140" s="1"/>
       <c r="AJ140" s="1"/>
     </row>
-    <row r="141" spans="1:36" ht="30">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
       <c r="D141" s="9" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
@@ -7895,11 +7908,9 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="L141" s="10" t="s">
-        <v>322</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="L141" s="10"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
@@ -7925,11 +7936,13 @@
       <c r="AI141" s="1"/>
       <c r="AJ141" s="1"/>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
-      <c r="D142" s="9"/>
+      <c r="D142" s="9" t="s">
+        <v>322</v>
+      </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
@@ -7937,11 +7950,9 @@
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="L142" s="10" t="s">
-        <v>350</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="L142" s="10"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
@@ -7967,12 +7978,12 @@
       <c r="AI142" s="1"/>
       <c r="AJ142" s="1"/>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
       <c r="D143" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -7981,11 +7992,9 @@
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="L143" s="10" t="s">
         <v>324</v>
       </c>
+      <c r="L143" s="10"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
@@ -8011,12 +8020,12 @@
       <c r="AI143" s="1"/>
       <c r="AJ143" s="1"/>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
       <c r="D144" s="9" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
@@ -8027,9 +8036,7 @@
       <c r="K144" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="L144" s="10" t="s">
-        <v>325</v>
-      </c>
+      <c r="L144" s="11"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
@@ -8055,24 +8062,26 @@
       <c r="AI144" s="1"/>
       <c r="AJ144" s="1"/>
     </row>
-    <row r="145" spans="1:36">
+    <row r="145" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
-      <c r="D145" s="9" t="s">
-        <v>328</v>
-      </c>
+      <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
+      <c r="H145" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>402</v>
+      </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="L145" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="L145" s="10" t="s">
-        <v>328</v>
       </c>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
@@ -8099,7 +8108,7 @@
       <c r="AI145" s="1"/>
       <c r="AJ145" s="1"/>
     </row>
-    <row r="146" spans="1:36">
+    <row r="146" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
@@ -8108,13 +8117,17 @@
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
+      <c r="I146" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>347</v>
+      </c>
       <c r="K146" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="L146" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="L146" s="10" t="s">
-        <v>333</v>
       </c>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
@@ -8141,24 +8154,28 @@
       <c r="AI146" s="1"/>
       <c r="AJ146" s="1"/>
     </row>
-    <row r="147" spans="1:36">
+    <row r="147" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="9"/>
+      <c r="B147" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D147" s="8"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="9" t="s">
-        <v>351</v>
-      </c>
+      <c r="I147" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J147" s="8"/>
       <c r="K147" s="9" t="s">
-        <v>331</v>
+        <v>156</v>
       </c>
       <c r="L147" s="10" t="s">
-        <v>330</v>
+        <v>395</v>
       </c>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
@@ -8185,26 +8202,28 @@
       <c r="AI147" s="1"/>
       <c r="AJ147" s="1"/>
     </row>
-    <row r="148" spans="1:36" ht="45">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
+      <c r="B148" s="7" t="s">
+        <v>344</v>
+      </c>
       <c r="C148" s="8"/>
-      <c r="D148" s="9"/>
+      <c r="D148" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="J148" s="9" t="s">
-        <v>352</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="J148" s="9"/>
       <c r="K148" s="9" t="s">
-        <v>334</v>
+        <v>178</v>
       </c>
       <c r="L148" s="10" t="s">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
@@ -8231,15 +8250,15 @@
       <c r="AI148" s="1"/>
       <c r="AJ148" s="1"/>
     </row>
-    <row r="149" spans="1:36" ht="30">
+    <row r="149" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D149" s="8"/>
+      <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
@@ -8247,12 +8266,12 @@
       <c r="I149" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J149" s="8"/>
+      <c r="J149" s="9"/>
       <c r="K149" s="9" t="s">
         <v>157</v>
       </c>
       <c r="L149" s="10" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
@@ -8279,28 +8298,26 @@
       <c r="AI149" s="1"/>
       <c r="AJ149" s="1"/>
     </row>
-    <row r="150" spans="1:36">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
-      <c r="B150" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C150" s="8"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="13"/>
       <c r="D150" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J150" s="9"/>
-      <c r="K150" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="L150" s="10" t="s">
-        <v>403</v>
+        <v>213</v>
+      </c>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L150" s="14" t="s">
+        <v>395</v>
       </c>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
@@ -8327,29 +8344,25 @@
       <c r="AI150" s="1"/>
       <c r="AJ150" s="1"/>
     </row>
-    <row r="151" spans="1:36" ht="30">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D151" s="9"/>
+        <v>404</v>
+      </c>
+      <c r="C151" s="8"/>
+      <c r="D151" s="5"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
       <c r="I151" s="9" t="s">
-        <v>102</v>
+        <v>405</v>
       </c>
       <c r="J151" s="9"/>
       <c r="K151" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="L151" s="10" t="s">
-        <v>403</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="L151" s="10"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
@@ -8375,26 +8388,24 @@
       <c r="AI151" s="1"/>
       <c r="AJ151" s="1"/>
     </row>
-    <row r="152" spans="1:36">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J152" s="20"/>
-      <c r="K152" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="L152" s="14" t="s">
-        <v>403</v>
+      <c r="B152" s="7"/>
+      <c r="C152" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="L152" s="10" t="s">
+        <v>409</v>
       </c>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
@@ -8421,71 +8432,59 @@
       <c r="AI152" s="1"/>
       <c r="AJ152" s="1"/>
     </row>
-    <row r="153" spans="1:36">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J153" s="4"/>
-      <c r="K153" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L153" s="6"/>
-    </row>
-    <row r="154" spans="1:36">
+      <c r="B153" s="7"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="10"/>
+    </row>
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J154" s="9"/>
-      <c r="K154" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="L154" s="10"/>
-    </row>
-    <row r="155" spans="1:36">
+      <c r="B154" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J154" s="4"/>
+      <c r="K154" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
-      <c r="C155" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="C155" s="8"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
-      <c r="I155" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J155" s="9"/>
-      <c r="K155" s="9" t="s">
-        <v>161</v>
-      </c>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="9"/>
       <c r="L155" s="10"/>
     </row>
-    <row r="156" spans="1:36">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="8" t="s">
-        <v>122</v>
+      <c r="C156" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
@@ -8493,19 +8492,19 @@
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="9" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="J156" s="9"/>
       <c r="K156" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L156" s="10"/>
     </row>
-    <row r="157" spans="1:36">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
@@ -8513,19 +8512,19 @@
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
       <c r="I157" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J157" s="9"/>
       <c r="K157" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L157" s="10"/>
     </row>
-    <row r="158" spans="1:36">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="8" t="s">
-        <v>360</v>
+        <v>121</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -8533,39 +8532,39 @@
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
       <c r="I158" s="9" t="s">
-        <v>362</v>
+        <v>125</v>
       </c>
       <c r="J158" s="9"/>
       <c r="K158" s="9" t="s">
-        <v>361</v>
+        <v>161</v>
       </c>
       <c r="L158" s="10"/>
     </row>
-    <row r="159" spans="1:36">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="8" t="s">
-        <v>359</v>
+        <v>123</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
-      <c r="I159" s="9"/>
+      <c r="I159" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="J159" s="9"/>
       <c r="K159" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="L159" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="160" spans="1:36">
+        <v>162</v>
+      </c>
+      <c r="L159" s="10"/>
+    </row>
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="8" t="s">
-        <v>111</v>
+        <v>355</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -8573,59 +8572,59 @@
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="I160" s="9" t="s">
-        <v>107</v>
+        <v>357</v>
       </c>
       <c r="J160" s="9"/>
       <c r="K160" s="9" t="s">
-        <v>164</v>
+        <v>356</v>
       </c>
       <c r="L160" s="10"/>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="8" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
-      <c r="I161" s="9" t="s">
-        <v>344</v>
-      </c>
+      <c r="I161" s="9"/>
       <c r="J161" s="9"/>
       <c r="K161" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="L161" s="10"/>
-    </row>
-    <row r="162" spans="1:12">
+        <v>292</v>
+      </c>
+      <c r="L161" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J162" s="5"/>
-      <c r="K162" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L162" s="6"/>
-    </row>
-    <row r="163" spans="1:12">
+      <c r="B162" s="7"/>
+      <c r="C162" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="L162" s="10"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="8" t="s">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
@@ -8633,168 +8632,180 @@
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
       <c r="I163" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="L163" s="10"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="7"/>
+      <c r="B164" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C164" s="4"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J164" s="5"/>
+      <c r="K164" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L165" s="10"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="L163" s="10"/>
-    </row>
-    <row r="164" spans="1:12">
-      <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
-      <c r="I164" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J164" s="9"/>
-      <c r="K164" s="9" t="s">
+      <c r="L166" s="10"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="15"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J167" s="13"/>
+      <c r="K167" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="L164" s="10"/>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="A165" s="15"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13"/>
-      <c r="H165" s="13"/>
-      <c r="I165" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J165" s="13"/>
-      <c r="K165" s="20" t="s">
+      <c r="L167" s="28"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="15"/>
+      <c r="B168" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L165" s="28"/>
-    </row>
-    <row r="166" spans="1:12">
-      <c r="A166" s="15"/>
-      <c r="B166" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
-      <c r="I166" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J166" s="4"/>
-      <c r="K166" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L166" s="36"/>
-    </row>
-    <row r="167" spans="1:12">
-      <c r="A167" s="15"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L167" s="11"/>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" s="15"/>
-      <c r="B168" s="15"/>
-      <c r="C168" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J168" s="8"/>
-      <c r="K168" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L168" s="11"/>
-    </row>
-    <row r="169" spans="1:12">
+      <c r="L168" s="36"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="15"/>
       <c r="B169" s="15"/>
-      <c r="C169" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D169" s="8"/>
+      <c r="C169" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
       <c r="I169" s="8" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="J169" s="8"/>
       <c r="K169" s="8" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="L169" s="11"/>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="15"/>
       <c r="B170" s="15"/>
-      <c r="C170" s="8"/>
+      <c r="C170" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
-      <c r="I170" s="8"/>
+      <c r="I170" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="J170" s="8"/>
-      <c r="K170" s="8"/>
+      <c r="K170" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="L170" s="11"/>
     </row>
-    <row r="171" spans="1:12">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="15"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
+      <c r="I171" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
-      <c r="L171" s="8"/>
-    </row>
-    <row r="172" spans="1:12">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="9"/>
+      <c r="K171" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L171" s="11"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="15"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="8"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
@@ -8803,7 +8814,35 @@
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
       <c r="K172" s="8"/>
-      <c r="L172" s="8"/>
+      <c r="L172" s="11"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="8"/>
+      <c r="J173" s="8"/>
+      <c r="K173" s="8"/>
+      <c r="L173" s="8"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
+      <c r="K174" s="8"/>
+      <c r="L174" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="414">
   <si>
     <t>Appareil</t>
   </si>
@@ -1244,6 +1244,18 @@
   </si>
   <si>
     <t>nirs_run_configMC / spm_results_ui</t>
+  </si>
+  <si>
+    <t>NIRS.Dt.fir.PVE</t>
+  </si>
+  <si>
+    <t>NIRS.Dt.fir.DPF</t>
+  </si>
+  <si>
+    <t>Partial volume effect</t>
+  </si>
+  <si>
+    <t>Differential Pathlength Factor</t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L172" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L172"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L174" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L174"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Arborescence"/>
     <tableColumn id="2" name="."/>
@@ -1807,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ174"/>
+  <dimension ref="A1:AJ176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M150" sqref="M150"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8154,29 +8166,23 @@
       <c r="AI146" s="1"/>
       <c r="AJ146" s="1"/>
     </row>
-    <row r="147" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
-      <c r="B147" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D147" s="8"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
-      <c r="I147" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J147" s="8"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
       <c r="K147" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L147" s="10" t="s">
-        <v>395</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="L147" s="10"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -8204,27 +8210,21 @@
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
-      <c r="B148" s="7" t="s">
-        <v>344</v>
-      </c>
+      <c r="B148" s="7"/>
       <c r="C148" s="8"/>
       <c r="D148" s="9" t="s">
-        <v>213</v>
+        <v>413</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
-      <c r="I148" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="L148" s="10" t="s">
-        <v>395</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="L148" s="10"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
@@ -8253,22 +8253,22 @@
     <row r="149" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D149" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="D149" s="8"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
       <c r="I149" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J149" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="J149" s="8"/>
       <c r="K149" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L149" s="10" t="s">
         <v>395</v>
@@ -8300,23 +8300,25 @@
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="13"/>
+      <c r="B150" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C150" s="8"/>
       <c r="D150" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20" t="s">
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J150" s="20"/>
-      <c r="K150" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="L150" s="14" t="s">
+      <c r="J150" s="9"/>
+      <c r="K150" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="L150" s="10" t="s">
         <v>395</v>
       </c>
       <c r="M150" s="1"/>
@@ -8344,25 +8346,29 @@
       <c r="AI150" s="1"/>
       <c r="AJ150" s="1"/>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="5"/>
+        <v>345</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
       <c r="I151" s="9" t="s">
-        <v>405</v>
+        <v>101</v>
       </c>
       <c r="J151" s="9"/>
       <c r="K151" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="L151" s="10"/>
+        <v>157</v>
+      </c>
+      <c r="L151" s="10" t="s">
+        <v>395</v>
+      </c>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
@@ -8390,22 +8396,24 @@
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="9"/>
-      <c r="J152" s="9"/>
-      <c r="K152" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="L152" s="10" t="s">
-        <v>409</v>
+      <c r="B152" s="12"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L152" s="14" t="s">
+        <v>395</v>
       </c>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
@@ -8434,37 +8442,43 @@
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
+      <c r="B153" s="7" t="s">
+        <v>404</v>
+      </c>
       <c r="C153" s="8"/>
-      <c r="D153" s="9"/>
+      <c r="D153" s="5"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
-      <c r="I153" s="9"/>
+      <c r="I153" s="9" t="s">
+        <v>405</v>
+      </c>
       <c r="J153" s="9"/>
-      <c r="K153" s="9"/>
+      <c r="K153" s="9" t="s">
+        <v>406</v>
+      </c>
       <c r="L153" s="10"/>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J154" s="4"/>
-      <c r="K154" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="L154" s="6"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="L154" s="10" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
@@ -8475,56 +8489,50 @@
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
       <c r="K155" s="9"/>
       <c r="L155" s="10"/>
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J156" s="9"/>
-      <c r="K156" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L156" s="10"/>
+      <c r="B156" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J156" s="4"/>
+      <c r="K156" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L156" s="6"/>
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
-      <c r="C157" s="8" t="s">
-        <v>122</v>
-      </c>
+      <c r="C157" s="8"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
-      <c r="I157" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="J157" s="9"/>
-      <c r="K157" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="9"/>
       <c r="L157" s="10"/>
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
-      <c r="C158" s="8" t="s">
-        <v>121</v>
+      <c r="C158" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -8532,11 +8540,11 @@
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
       <c r="I158" s="9" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="J158" s="9"/>
       <c r="K158" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L158" s="10"/>
     </row>
@@ -8544,7 +8552,7 @@
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
@@ -8552,11 +8560,11 @@
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
       <c r="I159" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J159" s="9"/>
       <c r="K159" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L159" s="10"/>
     </row>
@@ -8564,7 +8572,7 @@
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="8" t="s">
-        <v>355</v>
+        <v>121</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -8572,11 +8580,11 @@
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="I160" s="9" t="s">
-        <v>357</v>
+        <v>125</v>
       </c>
       <c r="J160" s="9"/>
       <c r="K160" s="9" t="s">
-        <v>356</v>
+        <v>161</v>
       </c>
       <c r="L160" s="10"/>
     </row>
@@ -8584,27 +8592,27 @@
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="8" t="s">
-        <v>354</v>
+        <v>123</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
-      <c r="I161" s="9"/>
+      <c r="I161" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="J161" s="9"/>
       <c r="K161" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="L161" s="10" t="s">
-        <v>339</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="L161" s="10"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="8" t="s">
-        <v>110</v>
+        <v>355</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -8612,11 +8620,11 @@
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
       <c r="I162" s="9" t="s">
-        <v>106</v>
+        <v>357</v>
       </c>
       <c r="J162" s="9"/>
       <c r="K162" s="9" t="s">
-        <v>163</v>
+        <v>356</v>
       </c>
       <c r="L162" s="10"/>
     </row>
@@ -8624,47 +8632,47 @@
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="8" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
-      <c r="I163" s="9" t="s">
-        <v>341</v>
-      </c>
+      <c r="I163" s="9"/>
       <c r="J163" s="9"/>
       <c r="K163" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="L163" s="10"/>
+        <v>292</v>
+      </c>
+      <c r="L163" s="10" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
-      <c r="B164" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J164" s="5"/>
-      <c r="K164" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="L164" s="6"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="L164" s="10"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="8" t="s">
-        <v>109</v>
+        <v>340</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -8672,168 +8680,180 @@
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
       <c r="I165" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8" t="s">
-        <v>164</v>
+        <v>341</v>
+      </c>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9" t="s">
+        <v>342</v>
       </c>
       <c r="L165" s="10"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="9" t="s">
+      <c r="B166" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C166" s="4"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J166" s="5"/>
+      <c r="K166" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L167" s="10"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
-      <c r="I166" s="9" t="s">
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J166" s="9"/>
-      <c r="K166" s="9" t="s">
+      <c r="J168" s="9"/>
+      <c r="K168" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="L166" s="10"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="15"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="13"/>
-      <c r="H167" s="13"/>
-      <c r="I167" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J167" s="13"/>
-      <c r="K167" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="L167" s="28"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
-      <c r="B168" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L168" s="36"/>
+      <c r="L168" s="10"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="15"/>
-      <c r="B169" s="15"/>
-      <c r="C169" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8" t="s">
+      <c r="B169" s="19"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J169" s="8"/>
-      <c r="K169" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L169" s="11"/>
+      <c r="J169" s="13"/>
+      <c r="K169" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L169" s="28"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="15"/>
-      <c r="B170" s="15"/>
-      <c r="C170" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J170" s="8"/>
-      <c r="K170" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L170" s="11"/>
+      <c r="B170" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L170" s="36"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="15"/>
       <c r="B171" s="15"/>
-      <c r="C171" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D171" s="8"/>
+      <c r="C171" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="J171" s="8"/>
       <c r="K171" s="8" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="L171" s="11"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="15"/>
       <c r="B172" s="15"/>
-      <c r="C172" s="8"/>
+      <c r="C172" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
-      <c r="I172" s="8"/>
+      <c r="I172" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="J172" s="8"/>
-      <c r="K172" s="8"/>
+      <c r="K172" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="L172" s="11"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
+      <c r="A173" s="15"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
+      <c r="I173" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="J173" s="8"/>
-      <c r="K173" s="8"/>
-      <c r="L173" s="8"/>
+      <c r="K173" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L173" s="11"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="9"/>
+      <c r="A174" s="15"/>
+      <c r="B174" s="15"/>
+      <c r="C174" s="8"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
@@ -8842,7 +8862,35 @@
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
       <c r="K174" s="8"/>
-      <c r="L174" s="8"/>
+      <c r="L174" s="11"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
+      <c r="L175" s="8"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="8"/>
+      <c r="K176" s="8"/>
+      <c r="L176" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -556,21 +556,6 @@
     <t>NIRS.Dt.ana</t>
   </si>
   <si>
-    <t>NIRD.Cf.H.D.n</t>
-  </si>
-  <si>
-    <t>NIRD.Cf.H.D.N</t>
-  </si>
-  <si>
-    <t>NIRD.Cf.H.D.r</t>
-  </si>
-  <si>
-    <t>NIRD.Cf.H.D.r.o</t>
-  </si>
-  <si>
-    <t>NIRD.Cf.H.D.r.o.mm</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -631,45 +616,18 @@
     <t>bl_m</t>
   </si>
   <si>
-    <t>NIRO.Cf.H.O</t>
-  </si>
-  <si>
     <t>On</t>
   </si>
   <si>
-    <t>NIRO.Cf.H.O.n</t>
-  </si>
-  <si>
-    <t>NIRO.Cf.H.O.N</t>
-  </si>
-  <si>
-    <t>NIRO.Cf.H.O.r</t>
-  </si>
-  <si>
-    <t>NIRO.Cf.H.O.r.o</t>
-  </si>
-  <si>
-    <t>NIRO.Cf.H.O.r.o.mm</t>
-  </si>
-  <si>
     <t>Op_rom</t>
   </si>
   <si>
     <t>files path</t>
   </si>
   <si>
-    <t>NIRO.Cf.H.O.r.o.mm.p</t>
-  </si>
-  <si>
     <t>NIRS.Cf.H.S.r.o.mm.p</t>
   </si>
   <si>
-    <t>NIRD.Cf.H.D</t>
-  </si>
-  <si>
-    <t>NIRD.Cf.H.D.r.o.mm.p</t>
-  </si>
-  <si>
     <t>NIRS.Cf.H.F.w.m.mm.p</t>
   </si>
   <si>
@@ -706,36 +664,15 @@
     <t>Q</t>
   </si>
   <si>
-    <t>NIRQ.Cf.H.Q</t>
-  </si>
-  <si>
     <t>Qn</t>
   </si>
   <si>
-    <t>NIRQ.Cf.H.Q.n</t>
-  </si>
-  <si>
     <t>NQ</t>
   </si>
   <si>
-    <t>NIRQ.Cf.H.Q.N</t>
-  </si>
-  <si>
-    <t>NIRQ.Cf.H.Q.r</t>
-  </si>
-  <si>
-    <t>NIRQ.Cf.H.Q.r.o</t>
-  </si>
-  <si>
-    <t>NIRQ.Cf.H.Q.r.o.mm</t>
-  </si>
-  <si>
     <t>Qp_rom</t>
   </si>
   <si>
-    <t>NIRQ.Cf.H.Q.r.o.mm.p</t>
-  </si>
-  <si>
     <t>coreg_default</t>
   </si>
   <si>
@@ -1256,6 +1193,69 @@
   </si>
   <si>
     <t>Differential Pathlength Factor</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.O</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.O.n</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.O.N</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.O.r</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.O.r.o</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.O.r.o.mm</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.O.r.o.mm.p</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.Q.r.o.mm.p</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.Q.r.o.mm</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.Q.r.o</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.Q.r</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.Q.N</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.Q.n</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.Q</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.D.r.o.mm.p</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.D.r.o.mm</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.D.r.o</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.D.r</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.D.N</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.D.n</t>
+  </si>
+  <si>
+    <t>NIRS.Cf.H.D</t>
   </si>
 </sst>
 </file>
@@ -1821,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,13 +1881,13 @@
     </row>
     <row r="2" spans="1:36" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="24" t="s">
@@ -1981,10 +1981,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
@@ -2034,7 +2034,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27" t="s">
@@ -2070,21 +2070,21 @@
       <c r="A8" s="25"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="34" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="L8" s="35"/>
       <c r="M8" s="1"/>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="24" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="1"/>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="26" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="1"/>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="26" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="1"/>
@@ -2248,7 +2248,7 @@
       <c r="A12" s="37"/>
       <c r="B12" s="25"/>
       <c r="C12" s="21" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="1"/>
@@ -2306,7 +2306,7 @@
         <v>55</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="1"/>
@@ -2352,7 +2352,7 @@
         <v>28</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="1"/>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="9" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="1"/>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="9" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="1"/>
@@ -2484,7 +2484,7 @@
         <v>36</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="1"/>
@@ -2530,7 +2530,7 @@
         <v>41</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="1"/>
@@ -2574,7 +2574,7 @@
         <v>45</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="1"/>
@@ -2618,7 +2618,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="1"/>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="1"/>
@@ -2706,7 +2706,7 @@
         <v>37</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="L22" s="18"/>
       <c r="M22" s="1"/>
@@ -2754,7 +2754,7 @@
         <v>42</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="1"/>
@@ -2800,7 +2800,7 @@
         <v>43</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="1"/>
@@ -2839,16 +2839,16 @@
         <v>3</v>
       </c>
       <c r="H25" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>301</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="1"/>
@@ -2892,7 +2892,7 @@
         <v>44</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="L26" s="18"/>
       <c r="M26" s="1"/>
@@ -2931,16 +2931,16 @@
         <v>3</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="L27" s="18"/>
       <c r="M27" s="1"/>
@@ -2974,7 +2974,7 @@
       <c r="C28" s="15"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>14</v>
@@ -2986,7 +2986,7 @@
         <v>48</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="1"/>
@@ -3019,7 +3019,7 @@
       <c r="B29" s="25"/>
       <c r="C29" s="31"/>
       <c r="D29" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="9" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="L29" s="18"/>
       <c r="M29" s="1"/>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="9" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="L30" s="18"/>
       <c r="M30" s="1"/>
@@ -3118,7 +3118,7 @@
         <v>50</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="L31" s="18"/>
       <c r="M31" s="1"/>
@@ -3166,7 +3166,7 @@
         <v>51</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="L32" s="18"/>
       <c r="M32" s="1"/>
@@ -3210,7 +3210,7 @@
         <v>53</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="L33" s="18"/>
       <c r="M33" s="1"/>
@@ -3246,7 +3246,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>17</v>
@@ -3258,7 +3258,7 @@
         <v>54</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="L34" s="18"/>
       <c r="M34" s="1"/>
@@ -3389,10 +3389,10 @@
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -3435,10 +3435,10 @@
         <v>36</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -3477,16 +3477,16 @@
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="9" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>41</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3532,7 +3532,7 @@
         <v>146</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3578,7 +3578,7 @@
         <v>147</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3625,10 +3625,10 @@
         <v>42</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3660,7 +3660,7 @@
       <c r="B43" s="25"/>
       <c r="C43" s="15"/>
       <c r="D43" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -3671,10 +3671,10 @@
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="9" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3717,10 +3717,10 @@
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L44" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -3766,7 +3766,7 @@
         <v>148</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3813,10 +3813,10 @@
         <v>51</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L47" s="17"/>
       <c r="M47" s="1"/>
@@ -4175,7 +4175,7 @@
         <v>41</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="L54" s="18"/>
       <c r="M54" s="1"/>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5" t="s">
-        <v>216</v>
+        <v>413</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="1"/>
@@ -4265,7 +4265,7 @@
         <v>55</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>180</v>
+        <v>412</v>
       </c>
       <c r="L56" s="18"/>
       <c r="M56" s="1"/>
@@ -4311,7 +4311,7 @@
         <v>28</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>181</v>
+        <v>411</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="1"/>
@@ -4344,20 +4344,20 @@
       <c r="B58" s="7"/>
       <c r="C58" s="15"/>
       <c r="D58" s="9" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="J58" s="9" t="s">
         <v>91</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="1"/>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="9" t="s">
-        <v>182</v>
+        <v>410</v>
       </c>
       <c r="L59" s="18"/>
       <c r="M59" s="1"/>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="J60" s="8"/>
       <c r="K60" s="9" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
       <c r="L60" s="18"/>
       <c r="M60" s="1"/>
@@ -4489,7 +4489,7 @@
         <v>36</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="L61" s="18"/>
       <c r="M61" s="1"/>
@@ -4535,7 +4535,7 @@
         <v>41</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>217</v>
+        <v>407</v>
       </c>
       <c r="L62" s="18"/>
       <c r="M62" s="1"/>
@@ -4575,11 +4575,11 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5" t="s">
-        <v>230</v>
+        <v>406</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="1"/>
@@ -4622,10 +4622,10 @@
         <v>55</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
       <c r="L64" s="18"/>
       <c r="M64" s="1"/>
@@ -4668,10 +4668,10 @@
         <v>28</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>234</v>
+        <v>404</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="1"/>
@@ -4704,20 +4704,20 @@
       <c r="B66" s="7"/>
       <c r="C66" s="15"/>
       <c r="D66" s="9" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="E66" s="39"/>
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>91</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="1"/>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="9" t="s">
-        <v>235</v>
+        <v>403</v>
       </c>
       <c r="L67" s="18"/>
       <c r="M67" s="1"/>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="9" t="s">
-        <v>236</v>
+        <v>402</v>
       </c>
       <c r="L68" s="18"/>
       <c r="M68" s="1"/>
@@ -4849,7 +4849,7 @@
         <v>36</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>237</v>
+        <v>401</v>
       </c>
       <c r="L69" s="18"/>
       <c r="M69" s="1"/>
@@ -4889,13 +4889,13 @@
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="J70" s="9" t="s">
         <v>41</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>239</v>
+        <v>400</v>
       </c>
       <c r="L70" s="18"/>
       <c r="M70" s="1"/>
@@ -4927,7 +4927,7 @@
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="16" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5" t="s">
-        <v>205</v>
+        <v>393</v>
       </c>
       <c r="L71" s="17"/>
       <c r="M71" s="1"/>
@@ -4982,10 +4982,10 @@
         <v>55</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>207</v>
+        <v>394</v>
       </c>
       <c r="L72" s="18"/>
       <c r="M72" s="1"/>
@@ -5027,7 +5027,7 @@
         <v>31</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>208</v>
+        <v>395</v>
       </c>
       <c r="L73" s="18"/>
       <c r="M73" s="1"/>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="9" t="s">
-        <v>209</v>
+        <v>396</v>
       </c>
       <c r="L74" s="18"/>
       <c r="M74" s="1"/>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9" t="s">
-        <v>210</v>
+        <v>397</v>
       </c>
       <c r="L75" s="18"/>
       <c r="M75" s="1"/>
@@ -5157,7 +5157,7 @@
       <c r="I76" s="8"/>
       <c r="J76" s="9"/>
       <c r="K76" s="8" t="s">
-        <v>211</v>
+        <v>398</v>
       </c>
       <c r="L76" s="18"/>
       <c r="M76" s="1"/>
@@ -5197,11 +5197,11 @@
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="8" t="s">
-        <v>214</v>
+        <v>399</v>
       </c>
       <c r="L77" s="18"/>
       <c r="M77" s="1"/>
@@ -5278,7 +5278,7 @@
       <c r="B79" s="7"/>
       <c r="C79" s="15"/>
       <c r="D79" s="9" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -5287,7 +5287,7 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="1"/>
@@ -5330,10 +5330,10 @@
         <v>28</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="1"/>
@@ -5373,7 +5373,7 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>81</v>
@@ -5465,7 +5465,7 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>95</v>
@@ -5504,20 +5504,20 @@
       <c r="B84" s="7"/>
       <c r="C84" s="15"/>
       <c r="D84" s="9" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="L84" s="10"/>
       <c r="M84" s="1"/>
@@ -5678,7 +5678,7 @@
         <v>149</v>
       </c>
       <c r="L88" s="43" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
@@ -5722,7 +5722,7 @@
         <v>150</v>
       </c>
       <c r="L89" s="44" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -5766,7 +5766,7 @@
         <v>151</v>
       </c>
       <c r="L90" s="44" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -5840,7 +5840,7 @@
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="8" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="1"/>
@@ -5883,7 +5883,7 @@
     <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="8" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -5892,11 +5892,11 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="8" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="8" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="1"/>
@@ -5928,10 +5928,10 @@
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="C94" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="I94" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="L94" s="11"/>
       <c r="M94" s="1"/>
@@ -5963,7 +5963,7 @@
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="9"/>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="L95" s="11"/>
       <c r="M95" s="1"/>
@@ -6007,7 +6007,7 @@
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="9"/>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="9" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="L96" s="11"/>
       <c r="M96" s="1"/>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="L97" s="11"/>
       <c r="M97" s="1"/>
@@ -6095,7 +6095,7 @@
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="9"/>
@@ -6103,11 +6103,11 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="L98" s="11"/>
       <c r="M98" s="1"/>
@@ -6139,13 +6139,13 @@
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="I99" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="L99" s="11"/>
       <c r="M99" s="1"/>
@@ -6177,7 +6177,7 @@
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -6185,11 +6185,11 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="J100" s="8"/>
       <c r="K100" s="8" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="L100" s="11"/>
       <c r="M100" s="1"/>
@@ -6221,7 +6221,7 @@
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -6263,7 +6263,7 @@
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="J102" s="8"/>
       <c r="K102" s="9" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="L102" s="11"/>
       <c r="M102" s="1"/>
@@ -6315,7 +6315,7 @@
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="9" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="L103" s="11"/>
       <c r="M103" s="1"/>
@@ -6355,7 +6355,7 @@
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="9" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="L104" s="11"/>
       <c r="M104" s="1"/>
@@ -6395,7 +6395,7 @@
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="9" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="L105" s="11"/>
       <c r="M105" s="1"/>
@@ -6435,7 +6435,7 @@
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="9" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="L106" s="11"/>
       <c r="M106" s="1"/>
@@ -6475,7 +6475,7 @@
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="9" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="L107" s="11"/>
       <c r="M107" s="1"/>
@@ -6515,7 +6515,7 @@
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="L108" s="11"/>
       <c r="M108" s="1"/>
@@ -6554,7 +6554,7 @@
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="L109" s="11"/>
       <c r="M109" s="1"/>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -6594,11 +6594,11 @@
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="L110" s="36"/>
       <c r="M110" s="1"/>
@@ -6629,7 +6629,7 @@
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="8" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="J111" s="8"/>
       <c r="K111" s="8" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="L111" s="11"/>
       <c r="M111" s="1"/>
@@ -6672,10 +6672,10 @@
     <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="8" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -6683,11 +6683,11 @@
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="8" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="J112" s="8"/>
       <c r="K112" s="8" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="L112" s="11"/>
       <c r="M112" s="1"/>
@@ -6719,7 +6719,7 @@
       <c r="A113" s="15"/>
       <c r="B113" s="8"/>
       <c r="C113" s="9" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="9"/>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="J113" s="9"/>
       <c r="K113" s="9" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="L113" s="11"/>
       <c r="M113" s="1"/>
@@ -6763,13 +6763,13 @@
       <c r="A114" s="15"/>
       <c r="B114" s="8"/>
       <c r="C114" s="9" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="I114" t="s">
         <v>96</v>
       </c>
       <c r="K114" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="L114" s="11"/>
       <c r="M114" s="1"/>
@@ -6801,13 +6801,13 @@
       <c r="A115" s="15"/>
       <c r="B115" s="8"/>
       <c r="C115" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="I115" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="L115" s="11"/>
       <c r="M115" s="1"/>
@@ -6839,7 +6839,7 @@
       <c r="A116" s="15"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="9"/>
@@ -6847,11 +6847,11 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="J116" s="9"/>
       <c r="K116" s="9" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="L116" s="11"/>
       <c r="M116" s="1"/>
@@ -6883,7 +6883,7 @@
       <c r="A117" s="15"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="9"/>
@@ -6891,11 +6891,11 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="J117" s="9"/>
       <c r="K117" s="9" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="L117" s="11"/>
       <c r="M117" s="1"/>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="121" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="4"/>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="J121" s="5"/>
       <c r="K121" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L121" s="6"/>
       <c r="M121" s="1"/>
@@ -7120,7 +7120,7 @@
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
@@ -7128,11 +7128,11 @@
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J123" s="9"/>
       <c r="K123" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L123" s="10"/>
       <c r="M123" s="1"/>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="J125" s="5"/>
       <c r="K125" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L125" s="6"/>
       <c r="M125" s="1"/>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="J126" s="8"/>
       <c r="K126" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="1"/>
@@ -7341,7 +7341,7 @@
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
       <c r="D128" s="9" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
@@ -7384,7 +7384,7 @@
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
@@ -7392,11 +7392,11 @@
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J129" s="8"/>
       <c r="K129" s="9" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="L129" s="10"/>
       <c r="M129" s="1"/>
@@ -7429,7 +7429,7 @@
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
       <c r="D130" s="9" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="J130" s="9"/>
       <c r="K130" s="9" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="L130" s="10"/>
       <c r="M130" s="1"/>
@@ -7473,7 +7473,7 @@
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
       <c r="D131" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
@@ -7483,13 +7483,13 @@
         <v>26</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
@@ -7521,7 +7521,7 @@
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
       <c r="D132" s="9" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
@@ -7530,7 +7530,7 @@
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="L132" s="10"/>
       <c r="M132" s="1"/>
@@ -7563,7 +7563,7 @@
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
       <c r="D133" s="9" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
@@ -7572,7 +7572,7 @@
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="L133" s="10"/>
       <c r="M133" s="1"/>
@@ -7610,14 +7610,14 @@
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
       <c r="I134" s="9" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="J134" s="9"/>
       <c r="K134" s="9" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="L134" s="10" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
@@ -7654,14 +7654,14 @@
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="9" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="J135" s="9"/>
       <c r="K135" s="9" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="L135" s="10" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
@@ -7698,14 +7698,14 @@
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="9" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="L136" s="10" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
@@ -7742,14 +7742,14 @@
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="J137" s="9"/>
       <c r="K137" s="9" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="L137" s="10" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
@@ -7781,7 +7781,7 @@
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
       <c r="D138" s="9" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
@@ -7790,7 +7790,7 @@
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="L138" s="10"/>
       <c r="M138" s="1"/>
@@ -7823,7 +7823,7 @@
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
       <c r="D139" s="9" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
@@ -7832,10 +7832,10 @@
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="L139" s="10" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
@@ -7867,7 +7867,7 @@
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
       <c r="D140" s="9" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
@@ -7876,10 +7876,10 @@
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="L140" s="10" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
@@ -7911,7 +7911,7 @@
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
       <c r="D141" s="9" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
@@ -7920,7 +7920,7 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="L141" s="10"/>
       <c r="M141" s="1"/>
@@ -7953,7 +7953,7 @@
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
       <c r="D142" s="9" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
@@ -7962,7 +7962,7 @@
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="L142" s="10"/>
       <c r="M142" s="1"/>
@@ -7995,7 +7995,7 @@
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
       <c r="D143" s="9" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -8004,7 +8004,7 @@
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="L143" s="10"/>
       <c r="M143" s="1"/>
@@ -8037,7 +8037,7 @@
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
       <c r="D144" s="9" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
@@ -8046,7 +8046,7 @@
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="L144" s="11"/>
       <c r="M144" s="1"/>
@@ -8083,17 +8083,17 @@
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="L145" s="10" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
@@ -8130,16 +8130,16 @@
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
       <c r="I146" s="9" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="L146" s="10" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
@@ -8171,7 +8171,7 @@
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
       <c r="D147" s="9" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
@@ -8180,7 +8180,7 @@
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="L147" s="10"/>
       <c r="M147" s="1"/>
@@ -8213,7 +8213,7 @@
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
       <c r="D148" s="9" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
@@ -8222,7 +8222,7 @@
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="L148" s="10"/>
       <c r="M148" s="1"/>
@@ -8253,7 +8253,7 @@
     <row r="149" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="7" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>111</v>
@@ -8271,7 +8271,7 @@
         <v>156</v>
       </c>
       <c r="L149" s="10" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
@@ -8301,11 +8301,11 @@
     <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="9" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
@@ -8319,7 +8319,7 @@
         <v>178</v>
       </c>
       <c r="L150" s="10" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
@@ -8349,7 +8349,7 @@
     <row r="151" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="7" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>112</v>
@@ -8367,7 +8367,7 @@
         <v>157</v>
       </c>
       <c r="L151" s="10" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
@@ -8399,7 +8399,7 @@
       <c r="B152" s="12"/>
       <c r="C152" s="13"/>
       <c r="D152" s="9" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
@@ -8413,7 +8413,7 @@
         <v>158</v>
       </c>
       <c r="L152" s="14" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
@@ -8443,7 +8443,7 @@
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="7" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="C153" s="8"/>
       <c r="D153" s="5"/>
@@ -8452,11 +8452,11 @@
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
       <c r="I153" s="9" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="J153" s="9"/>
       <c r="K153" s="9" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="L153" s="10"/>
     </row>
@@ -8464,7 +8464,7 @@
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="8" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -8474,10 +8474,10 @@
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
       <c r="K154" s="9" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="L154" s="10" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
@@ -8612,7 +8612,7 @@
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="8" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -8620,11 +8620,11 @@
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
       <c r="I162" s="9" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="J162" s="9"/>
       <c r="K162" s="9" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="L162" s="10"/>
     </row>
@@ -8632,7 +8632,7 @@
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="8" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
@@ -8642,10 +8642,10 @@
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
       <c r="K163" s="9" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="L163" s="10" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -8672,7 +8672,7 @@
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="8" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -8680,11 +8680,11 @@
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
       <c r="I165" s="9" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="J165" s="9"/>
       <c r="K165" s="9" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="L165" s="10"/>
     </row>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="J166" s="5"/>
       <c r="K166" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L166" s="6"/>
     </row>
@@ -8753,7 +8753,7 @@
       <c r="B169" s="19"/>
       <c r="C169" s="13"/>
       <c r="D169" s="9" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E169" s="13"/>
       <c r="F169" s="13"/>
@@ -8834,7 +8834,7 @@
       <c r="A173" s="15"/>
       <c r="B173" s="15"/>
       <c r="C173" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
@@ -8842,11 +8842,11 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J173" s="8"/>
       <c r="K173" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L173" s="11"/>
     </row>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="417">
   <si>
     <t>Appareil</t>
   </si>
@@ -1256,6 +1256,15 @@
   </si>
   <si>
     <t>NIRS.Cf.H.D</t>
+  </si>
+  <si>
+    <t>segRR</t>
+  </si>
+  <si>
+    <t>Created by BuildROI2 (this is rewritten each time a BuildROI2 batch is launched)</t>
+  </si>
+  <si>
+    <t>Names of points (sources detectors, etc)</t>
   </si>
 </sst>
 </file>
@@ -1821,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6506,7 +6515,9 @@
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
+      <c r="C108" s="8" t="s">
+        <v>415</v>
+      </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
@@ -6545,7 +6556,9 @@
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
-      <c r="C109" s="8"/>
+      <c r="C109" s="8" t="s">
+        <v>416</v>
+      </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
@@ -6804,7 +6817,7 @@
         <v>360</v>
       </c>
       <c r="I115" t="s">
-        <v>277</v>
+        <v>414</v>
       </c>
       <c r="K115" s="9" t="s">
         <v>365</v>

--- a/NIRSmat-3.xlsx
+++ b/NIRSmat-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="419">
   <si>
     <t>Appareil</t>
   </si>
@@ -1265,6 +1265,12 @@
   </si>
   <si>
     <t>Names of points (sources detectors, etc)</t>
+  </si>
+  <si>
+    <t>Number of lqyers in the image</t>
+  </si>
+  <si>
+    <t>nummed</t>
   </si>
 </sst>
 </file>
@@ -1521,8 +1527,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L174" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L174"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L175" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L175"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Arborescence"/>
     <tableColumn id="2" name="."/>
@@ -1828,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ176"/>
+  <dimension ref="A1:AJ177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6516,18 +6522,18 @@
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
+      <c r="I108" s="8" t="s">
+        <v>418</v>
+      </c>
       <c r="J108" s="8"/>
-      <c r="K108" s="8" t="s">
-        <v>327</v>
-      </c>
+      <c r="K108" s="9"/>
       <c r="L108" s="11"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
@@ -6556,8 +6562,9 @@
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
+      <c r="B109" s="8"/>
       <c r="C109" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -6567,7 +6574,7 @@
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L109" s="11"/>
       <c r="M109" s="1"/>
@@ -6596,24 +6603,21 @@
       <c r="AJ109" s="1"/>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="L110" s="36"/>
+      <c r="A110" s="7"/>
+      <c r="C110" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="L110" s="11"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -6640,23 +6644,24 @@
       <c r="AJ110" s="1"/>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="I111" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="L111" s="11"/>
+      <c r="A111" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="L111" s="36"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
@@ -6685,22 +6690,19 @@
     <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>375</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
       <c r="I112" s="8" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="J112" s="8"/>
       <c r="K112" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L112" s="11"/>
       <c r="M112" s="1"/>
@@ -6730,21 +6732,23 @@
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="9" t="s">
-        <v>282</v>
+      <c r="B113" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="D113" s="8"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9" t="s">
-        <v>363</v>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8" t="s">
+        <v>357</v>
       </c>
       <c r="L113" s="11"/>
       <c r="M113" s="1"/>
@@ -6776,13 +6780,19 @@
       <c r="A114" s="15"/>
       <c r="B114" s="8"/>
       <c r="C114" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="I114" t="s">
-        <v>96</v>
-      </c>
-      <c r="K114" t="s">
-        <v>364</v>
+        <v>282</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9" t="s">
+        <v>363</v>
       </c>
       <c r="L114" s="11"/>
       <c r="M114" s="1"/>
@@ -6813,14 +6823,14 @@
     <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="8"/>
-      <c r="C115" t="s">
-        <v>360</v>
+      <c r="C115" s="9" t="s">
+        <v>359</v>
       </c>
       <c r="I115" t="s">
-        <v>414</v>
-      </c>
-      <c r="K115" s="9" t="s">
-        <v>365</v>
+        <v>96</v>
+      </c>
+      <c r="K115" t="s">
+        <v>364</v>
       </c>
       <c r="L115" s="11"/>
       <c r="M115" s="1"/>
@@ -6851,20 +6861,14 @@
     <row r="116" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="8"/>
-      <c r="C116" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D116" s="8"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="J116" s="9"/>
+      <c r="C116" t="s">
+        <v>360</v>
+      </c>
+      <c r="I116" t="s">
+        <v>414</v>
+      </c>
       <c r="K116" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L116" s="11"/>
       <c r="M116" s="1"/>
@@ -6896,7 +6900,7 @@
       <c r="A117" s="15"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="9"/>
@@ -6904,11 +6908,11 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="J117" s="9"/>
       <c r="K117" s="9" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L117" s="11"/>
       <c r="M117" s="1"/>
@@ -6939,6 +6943,21 @@
     <row r="118" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="8"/>
+      <c r="C118" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9" t="s">
+        <v>377</v>
+      </c>
       <c r="L118" s="11"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
@@ -6968,15 +6987,6 @@
     <row r="119" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
       <c r="L119" s="11"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
@@ -7004,18 +7014,18 @@
       <c r="AJ119" s="1"/>
     </row>
     <row r="120" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="28"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="11"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -7042,24 +7052,18 @@
       <c r="AJ120" s="1"/>
     </row>
     <row r="121" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="L121" s="6"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="28"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -7086,10 +7090,10 @@
       <c r="AJ121" s="1"/>
     </row>
     <row r="122" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="7"/>
-      <c r="B122" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A122" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B122" s="5"/>
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -7097,11 +7101,11 @@
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="J122" s="5"/>
       <c r="K122" s="5" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="L122" s="6"/>
       <c r="M122" s="1"/>
@@ -7131,23 +7135,23 @@
     </row>
     <row r="123" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="L123" s="10"/>
+      <c r="B123" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C123" s="4"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L123" s="6"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -7175,23 +7179,23 @@
     </row>
     <row r="124" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J124" s="20"/>
-      <c r="K124" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="L124" s="14"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L124" s="10"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -7219,23 +7223,23 @@
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
-      <c r="B125" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="L125" s="6"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J125" s="20"/>
+      <c r="K125" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="L125" s="14"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -7263,23 +7267,23 @@
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="J126" s="8"/>
-      <c r="K126" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="L126" s="10"/>
+      <c r="B126" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126" s="4"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L126" s="6"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
@@ -7308,20 +7312,20 @@
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="9" t="s">
-        <v>119</v>
-      </c>
+      <c r="C127" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J127" s="9"/>
+        <v>120</v>
+      </c>
+      <c r="J127" s="8"/>
       <c r="K127" s="9" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="L127" s="10"/>
       <c r="M127" s="1"/>
@@ -7354,18 +7358,18 @@
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
       <c r="D128" s="9" t="s">
-        <v>228</v>
+        <v>119</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L128" s="10"/>
       <c r="M128" s="1"/>
@@ -7396,20 +7400,20 @@
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
-      <c r="C129" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D129" s="9"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="J129" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="J129" s="9"/>
       <c r="K129" s="9" t="s">
-        <v>286</v>
+        <v>155</v>
       </c>
       <c r="L129" s="10"/>
       <c r="M129" s="1"/>
@@ -7440,20 +7444,20 @@
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="C130" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J130" s="9"/>
+        <v>182</v>
+      </c>
+      <c r="J130" s="8"/>
       <c r="K130" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L130" s="10"/>
       <c r="M130" s="1"/>
@@ -7486,24 +7490,20 @@
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
       <c r="D131" s="9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J131" s="9" t="s">
-        <v>199</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="J131" s="9"/>
       <c r="K131" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="L131" s="10" t="s">
-        <v>292</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="L131" s="10"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
@@ -7534,18 +7534,24 @@
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
       <c r="D132" s="9" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
+      <c r="I132" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>199</v>
+      </c>
       <c r="K132" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="L132" s="10"/>
+        <v>287</v>
+      </c>
+      <c r="L132" s="10" t="s">
+        <v>292</v>
+      </c>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
@@ -7576,7 +7582,7 @@
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
       <c r="D133" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
@@ -7585,7 +7591,7 @@
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L133" s="10"/>
       <c r="M133" s="1"/>
@@ -7617,21 +7623,19 @@
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
-      <c r="D134" s="9"/>
+      <c r="D134" s="9" t="s">
+        <v>290</v>
+      </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
-      <c r="I134" s="9" t="s">
-        <v>337</v>
-      </c>
+      <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="L134" s="10" t="s">
-        <v>297</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="L134" s="10"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -7667,14 +7671,14 @@
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J135" s="9"/>
       <c r="K135" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L135" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
@@ -7711,14 +7715,14 @@
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="9" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="L136" s="10" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
@@ -7755,14 +7759,14 @@
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J137" s="9"/>
       <c r="K137" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L137" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
@@ -7793,19 +7797,21 @@
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
-      <c r="D138" s="9" t="s">
-        <v>313</v>
-      </c>
+      <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
+      <c r="I138" s="9" t="s">
+        <v>340</v>
+      </c>
       <c r="J138" s="9"/>
       <c r="K138" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="L138" s="10"/>
+        <v>344</v>
+      </c>
+      <c r="L138" s="10" t="s">
+        <v>341</v>
+      </c>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
@@ -7831,12 +7837,12 @@
       <c r="AI138" s="1"/>
       <c r="AJ138" s="1"/>
     </row>
-    <row r="139" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
       <c r="D139" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
@@ -7845,11 +7851,9 @@
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="L139" s="10" t="s">
-        <v>298</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="L139" s="10"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
@@ -7875,12 +7879,12 @@
       <c r="AI139" s="1"/>
       <c r="AJ139" s="1"/>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
       <c r="D140" s="9" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
@@ -7889,10 +7893,10 @@
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="L140" s="10" t="s">
-        <v>380</v>
+        <v>298</v>
       </c>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
@@ -7924,7 +7928,7 @@
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
       <c r="D141" s="9" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
@@ -7933,9 +7937,11 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="L141" s="10"/>
+        <v>325</v>
+      </c>
+      <c r="L141" s="10" t="s">
+        <v>380</v>
+      </c>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
@@ -7966,7 +7972,7 @@
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
       <c r="D142" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
@@ -7975,7 +7981,7 @@
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L142" s="10"/>
       <c r="M142" s="1"/>
@@ -8008,7 +8014,7 @@
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
       <c r="D143" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -8017,7 +8023,7 @@
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L143" s="10"/>
       <c r="M143" s="1"/>
@@ -8050,7 +8056,7 @@
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
       <c r="D144" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
@@ -8059,9 +8065,9 @@
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="L144" s="11"/>
+        <v>303</v>
+      </c>
+      <c r="L144" s="10"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
@@ -8087,27 +8093,23 @@
       <c r="AI144" s="1"/>
       <c r="AJ144" s="1"/>
     </row>
-    <row r="145" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
-      <c r="D145" s="9"/>
+      <c r="D145" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
-      <c r="H145" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>381</v>
-      </c>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="L145" s="10" t="s">
-        <v>306</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="L145" s="11"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -8133,7 +8135,7 @@
       <c r="AI145" s="1"/>
       <c r="AJ145" s="1"/>
     </row>
-    <row r="146" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
@@ -8141,18 +8143,18 @@
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
+      <c r="H146" s="9" t="s">
+        <v>382</v>
+      </c>
       <c r="I146" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="J146" s="9" t="s">
-        <v>326</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="J146" s="9"/>
       <c r="K146" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L146" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
@@ -8179,23 +8181,27 @@
       <c r="AI146" s="1"/>
       <c r="AJ146" s="1"/>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
-      <c r="D147" s="9" t="s">
-        <v>391</v>
-      </c>
+      <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="9"/>
+      <c r="I147" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>326</v>
+      </c>
       <c r="K147" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="L147" s="10"/>
+        <v>310</v>
+      </c>
+      <c r="L147" s="10" t="s">
+        <v>308</v>
+      </c>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -8226,7 +8232,7 @@
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
       <c r="D148" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
@@ -8235,7 +8241,7 @@
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L148" s="10"/>
       <c r="M148" s="1"/>
@@ -8263,29 +8269,23 @@
       <c r="AI148" s="1"/>
       <c r="AJ148" s="1"/>
     </row>
-    <row r="149" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
-      <c r="B149" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D149" s="8"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="9" t="s">
+        <v>392</v>
+      </c>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
-      <c r="I149" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J149" s="8"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
       <c r="K149" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L149" s="10" t="s">
-        <v>374</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="L149" s="10"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
@@ -8311,25 +8311,25 @@
       <c r="AI149" s="1"/>
       <c r="AJ149" s="1"/>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="9" t="s">
-        <v>202</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D150" s="8"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
       <c r="I150" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J150" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="J150" s="8"/>
       <c r="K150" s="9" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="L150" s="10" t="s">
         <v>374</v>
@@ -8359,25 +8359,25 @@
       <c r="AI150" s="1"/>
       <c r="AJ150" s="1"/>
     </row>
-    <row r="151" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D151" s="9"/>
+        <v>323</v>
+      </c>
+      <c r="C151" s="8"/>
+      <c r="D151" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
       <c r="I151" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J151" s="9"/>
       <c r="K151" s="9" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="L151" s="10" t="s">
         <v>374</v>
@@ -8407,25 +8407,27 @@
       <c r="AI151" s="1"/>
       <c r="AJ151" s="1"/>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J152" s="20"/>
-      <c r="K152" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="L152" s="14" t="s">
+      <c r="B152" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="L152" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M152" s="1"/>
@@ -8455,48 +8457,52 @@
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="12"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L153" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A154" s="7"/>
+      <c r="B154" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="J153" s="9"/>
-      <c r="K153" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="L153" s="10"/>
-    </row>
-    <row r="154" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D154" s="9"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="5"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
-      <c r="I154" s="9"/>
+      <c r="I154" s="9" t="s">
+        <v>384</v>
+      </c>
       <c r="J154" s="9"/>
       <c r="K154" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="L154" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="L154" s="10"/>
+    </row>
+    <row r="155" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
-      <c r="C155" s="8"/>
+      <c r="C155" s="8" t="s">
+        <v>387</v>
+      </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
@@ -8504,68 +8510,66 @@
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
-      <c r="K155" s="9"/>
-      <c r="L155" s="10"/>
+      <c r="K155" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="L155" s="10" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J156" s="4"/>
-      <c r="K156" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="L156" s="6"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="10"/>
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
-      <c r="I157" s="8"/>
-      <c r="J157" s="8"/>
-      <c r="K157" s="9"/>
-      <c r="L157" s="10"/>
+      <c r="B157" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C157" s="4"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J157" s="4"/>
+      <c r="K157" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L157" s="6"/>
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
-      <c r="C158" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="C158" s="8"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
-      <c r="I158" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J158" s="9"/>
-      <c r="K158" s="9" t="s">
-        <v>159</v>
-      </c>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="9"/>
       <c r="L158" s="10"/>
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
-      <c r="C159" s="8" t="s">
-        <v>122</v>
+      <c r="C159" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
@@ -8573,11 +8577,11 @@
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
       <c r="I159" s="9" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="J159" s="9"/>
       <c r="K159" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L159" s="10"/>
     </row>
@@ -8585,7 +8589,7 @@
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -8593,11 +8597,11 @@
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="I160" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J160" s="9"/>
       <c r="K160" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L160" s="10"/>
     </row>
@@ -8605,7 +8609,7 @@
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
@@ -8613,11 +8617,11 @@
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
       <c r="I161" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J161" s="9"/>
       <c r="K161" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L161" s="10"/>
     </row>
@@ -8625,7 +8629,7 @@
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="8" t="s">
-        <v>334</v>
+        <v>123</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -8633,11 +8637,11 @@
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
       <c r="I162" s="9" t="s">
-        <v>336</v>
+        <v>126</v>
       </c>
       <c r="J162" s="9"/>
       <c r="K162" s="9" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="L162" s="10"/>
     </row>
@@ -8645,47 +8649,47 @@
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
-      <c r="I163" s="9"/>
+      <c r="I163" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="J163" s="9"/>
       <c r="K163" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="L163" s="10" t="s">
-        <v>318</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="L163" s="10"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="8" t="s">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
-      <c r="I164" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="I164" s="9"/>
       <c r="J164" s="9"/>
       <c r="K164" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="L164" s="10"/>
+        <v>271</v>
+      </c>
+      <c r="L164" s="10" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="8" t="s">
-        <v>319</v>
+        <v>110</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -8693,153 +8697,153 @@
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
       <c r="I165" s="9" t="s">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="J165" s="9"/>
       <c r="K165" s="9" t="s">
-        <v>321</v>
+        <v>163</v>
       </c>
       <c r="L165" s="10"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
-      <c r="B166" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J166" s="5"/>
-      <c r="K166" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="L166" s="6"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="L166" s="10"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="L167" s="10"/>
+      <c r="B167" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C167" s="4"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J167" s="5"/>
+      <c r="K167" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L167" s="6"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="C168" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
       <c r="I168" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L168" s="10"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="7"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J168" s="9"/>
-      <c r="K168" s="9" t="s">
+      <c r="J169" s="9"/>
+      <c r="K169" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="L168" s="10"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="15"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="13"/>
-      <c r="I169" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J169" s="13"/>
-      <c r="K169" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="L169" s="28"/>
+      <c r="L169" s="10"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="15"/>
-      <c r="B170" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J170" s="4"/>
-      <c r="K170" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L170" s="36"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J170" s="13"/>
+      <c r="K170" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L170" s="28"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="15"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L171" s="11"/>
+      <c r="B171" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L171" s="36"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="15"/>
       <c r="B172" s="15"/>
-      <c r="C172" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D172" s="8"/>
+      <c r="C172" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
       <c r="I172" s="8" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L172" s="11"/>
     </row>
@@ -8847,7 +8851,7 @@
       <c r="A173" s="15"/>
       <c r="B173" s="15"/>
       <c r="C173" s="8" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
@@ -8855,31 +8859,37 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" s="8" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="J173" s="8"/>
       <c r="K173" s="8" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="L173" s="11"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="15"/>
       <c r="B174" s="15"/>
-      <c r="C174" s="8"/>
+      <c r="C174" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
+      <c r="I174" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="J174" s="8"/>
-      <c r="K174" s="8"/>
+      <c r="K174" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="L174" s="11"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
+      <c r="A175" s="15"/>
+      <c r="B175" s="15"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
@@ -8889,12 +8899,12 @@
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
       <c r="K175" s="8"/>
-      <c r="L175" s="8"/>
+      <c r="L175" s="11"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
-      <c r="C176" s="9"/>
+      <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
@@ -8905,6 +8915,20 @@
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
     </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="8"/>
+      <c r="J177" s="8"/>
+      <c r="K177" s="8"/>
+      <c r="L177" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
